--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radua\Desktop\Stay in place GIT\StayInPlace\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,6 @@
     <sheet name="New C" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="35">
   <si>
     <t>Translation</t>
   </si>
@@ -142,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +224,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -352,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -445,6 +451,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -460,6 +472,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:AA34"/>
+  <dimension ref="B6:AA60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -759,7 +775,7 @@
     <col min="10" max="12" width="7.5703125" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="4" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="2"/>
-    <col min="15" max="15" width="18.85546875" style="14" customWidth="1"/>
+    <col min="15" max="15" width="25" style="14" customWidth="1"/>
     <col min="16" max="16" width="2.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="7.42578125" style="4" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="2"/>
@@ -784,10 +800,10 @@
       <c r="E6" s="25">
         <v>522.02002000000005</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="3">
@@ -816,8 +832,8 @@
       <c r="E7" s="25">
         <v>-268.93338</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="3">
         <v>0</v>
       </c>
@@ -844,8 +860,8 @@
       <c r="E8" s="25">
         <v>346.48529100000002</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -863,8 +879,8 @@
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -906,15 +922,15 @@
       </c>
       <c r="E11" s="10">
         <f>RADIANS(F11)</f>
-        <v>0.75012172563577151</v>
+        <v>0.63109360422862959</v>
       </c>
       <c r="F11" s="25">
-        <v>42.978808999999998</v>
-      </c>
-      <c r="H11" s="30" t="s">
+        <v>36.158999999999999</v>
+      </c>
+      <c r="H11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="3">
@@ -929,39 +945,39 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="O11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="9">
         <f>COS(E12)</f>
-        <v>0.99976606319648542</v>
+        <v>0.9059312479605609</v>
       </c>
       <c r="R11" s="3">
         <v>0</v>
       </c>
       <c r="S11" s="9">
         <f>SIN(E12)</f>
-        <v>2.1629121124101841E-2</v>
+        <v>0.42342481501279633</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="V11" s="30" t="s">
+      <c r="V11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="W11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="X11" s="9">
         <f>COS(E13)</f>
-        <v>0.79805559022643568</v>
+        <v>0.88071719832273376</v>
       </c>
       <c r="Y11" s="9">
         <f>-SIN(E13)</f>
-        <v>0.6025838322659639</v>
+        <v>0.473642498703985</v>
       </c>
       <c r="Z11" s="3">
         <v>0</v>
@@ -979,29 +995,29 @@
       </c>
       <c r="E12" s="10">
         <f t="shared" ref="E12:E13" si="0">RADIANS(F12)</f>
-        <v>2.1630807897761804E-2</v>
+        <v>0.43722243091709945</v>
       </c>
       <c r="F12" s="25">
-        <v>1.2393540000000001</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+        <v>25.050999999999998</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="9">
         <f>COS(E11)</f>
-        <v>0.73160589054183078</v>
+        <v>0.80738273405365102</v>
       </c>
       <c r="L12" s="9">
         <f>-SIN(E11)</f>
-        <v>-0.68172782026589962</v>
+        <v>-0.59002806776631522</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
@@ -1014,15 +1030,15 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-      <c r="V12" s="30"/>
-      <c r="W12" s="31"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="32"/>
       <c r="X12" s="9">
         <f>-Y11</f>
-        <v>-0.6025838322659639</v>
+        <v>-0.473642498703985</v>
       </c>
       <c r="Y12" s="9">
         <f>X11</f>
-        <v>0.79805559022643568</v>
+        <v>0.88071719832273376</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
@@ -1040,45 +1056,45 @@
       </c>
       <c r="E13" s="10">
         <f t="shared" si="0"/>
-        <v>-0.64673482610598243</v>
+        <v>-0.49342203283131691</v>
       </c>
       <c r="F13" s="25">
-        <v>-37.055176000000003</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+        <v>-28.271000000000001</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="3">
         <v>0</v>
       </c>
       <c r="K13" s="9">
         <f>-L12</f>
-        <v>0.68172782026589962</v>
+        <v>0.59002806776631522</v>
       </c>
       <c r="L13" s="9">
         <f>K12</f>
-        <v>0.73160589054183078</v>
+        <v>0.80738273405365102</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="9">
         <f>-S11</f>
-        <v>-2.1629121124101841E-2</v>
+        <v>-0.42342481501279633</v>
       </c>
       <c r="R13" s="3">
         <v>0</v>
       </c>
       <c r="S13" s="9">
         <f>Q11</f>
-        <v>0.99976606319648542</v>
+        <v>0.9059312479605609</v>
       </c>
       <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="W13" s="31"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="32"/>
       <c r="X13" s="3">
         <v>0</v>
       </c>
@@ -1093,8 +1109,8 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1107,8 +1123,8 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="32"/>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -1121,8 +1137,1886 @@
       <c r="T14" s="3">
         <v>1</v>
       </c>
-      <c r="V14" s="30"/>
-      <c r="W14" s="31"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="33" t="str">
+        <f>H11</f>
+        <v>Rx(α)</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="6">
+        <f>J11</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" ref="K18:M18" si="1">K11</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="34" t="str">
+        <f>H18&amp;" x "&amp;O23</f>
+        <v>Rx(α) x Ry(β)</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>Q23*J18+R23*J19+S23*J20+T23*J21</f>
+        <v>0.9059312479605609</v>
+      </c>
+      <c r="R18" s="13">
+        <f>Q23*K18+R23*K19+S23*K20+T23*K21</f>
+        <v>0.24983252544630968</v>
+      </c>
+      <c r="S18" s="13">
+        <f>Q23*L18+R23*L19+S23*L20+T23*L21</f>
+        <v>0.3418658848111929</v>
+      </c>
+      <c r="T18" s="13">
+        <f>Q23*M18+R23*M19+S23*M20+T23*M21</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="30"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="33"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="6">
+        <f t="shared" ref="J19:M19" si="2">J12</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.80738273405365102</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.59002806776631522</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="13">
+        <f>Q24*J18+R24*J19+S24*J20+T24*J21</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="13">
+        <f>Q24*K18+R24*K19+S24*K20+T24*K21</f>
+        <v>0.80738273405365102</v>
+      </c>
+      <c r="S19" s="13">
+        <f>Q24*L18+R24*L19+S24*L20+T24*L21</f>
+        <v>-0.59002806776631522</v>
+      </c>
+      <c r="T19" s="13">
+        <f>Q24*M18+R24*M19+S24*M20+T24*M21</f>
+        <v>0</v>
+      </c>
+      <c r="V19" s="30"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="33"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="6">
+        <f t="shared" ref="J20:M20" si="3">J13</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="3"/>
+        <v>0.59002806776631522</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="3"/>
+        <v>0.80738273405365102</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="13">
+        <f>Q25*J18+R25*J19+S25*J20+T25*J21</f>
+        <v>-0.42342481501279633</v>
+      </c>
+      <c r="R20" s="13">
+        <f>Q25*K18+R25*K19+S25*K20+T25*K21</f>
+        <v>0.53452486376329633</v>
+      </c>
+      <c r="S20" s="13">
+        <f>Q25*L18+R25*L19+S25*L20+T25*L21</f>
+        <v>0.73143324784303376</v>
+      </c>
+      <c r="T20" s="13">
+        <f>Q25*M18+R25*M19+S25*M20+T25*M21</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="30"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="33"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="6">
+        <f t="shared" ref="J21:M21" si="4">J14</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="13">
+        <f>Q26*J18+R26*J19+S26*J20+T26*J21</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
+        <f>Q26*K18+R26*K19+S26*K20+T26*K21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="13">
+        <f>Q26*L18+R26*L19+S26*L20+T26*L21</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="13">
+        <f>Q26*M18+R26*M19+S26*M20+T26*M21</f>
+        <v>1</v>
+      </c>
+      <c r="V21" s="30"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="25"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="O23" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>Q11</f>
+        <v>0.9059312479605609</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" ref="R23:T23" si="5">R11</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" si="5"/>
+        <v>0.42342481501279633</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="6">
+        <f t="shared" ref="Q24:T24" si="6">Q12</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="6">
+        <f t="shared" ref="Q25:T25" si="7">Q13</f>
+        <v>-0.42342481501279633</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <f t="shared" si="7"/>
+        <v>0.9059312479605609</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="6">
+        <f t="shared" ref="Q26:T26" si="8">Q14</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="33" t="str">
+        <f>O18</f>
+        <v>Rx(α) x Ry(β)</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="6">
+        <f>Q18</f>
+        <v>0.9059312479605609</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" ref="K30:M30" si="9">R18</f>
+        <v>0.24983252544630968</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="9"/>
+        <v>0.3418658848111929</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="34" t="str">
+        <f>H30&amp;" x "&amp;O35</f>
+        <v>Rx(α) x Ry(β) x Rz(γ)</v>
+      </c>
+      <c r="P30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="13">
+        <f>Q35*J30+R35*J31+S35*J32+T35*J33</f>
+        <v>0.797869230576843</v>
+      </c>
+      <c r="R30" s="13">
+        <f>Q35*K30+R35*K31+S35*K32+T35*K33</f>
+        <v>0.6024425774285932</v>
+      </c>
+      <c r="S30" s="13">
+        <f>Q35*L30+R35*L31+S35*L32+T35*L33</f>
+        <v>2.1624795950714482E-2</v>
+      </c>
+      <c r="T30" s="13">
+        <f>Q35*M30+R35*M31+S35*M32+T35*M33</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="30"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="33"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="6">
+        <f t="shared" ref="J31:J33" si="10">Q19</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" ref="K31:K33" si="11">R19</f>
+        <v>0.80738273405365102</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" ref="L31:L33" si="12">S19</f>
+        <v>-0.59002806776631522</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" ref="M31:M33" si="13">T19</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="13">
+        <f>Q36*J30+R36*J31+S36*J32+T36*J33</f>
+        <v>-0.42908753993805948</v>
+      </c>
+      <c r="R31" s="13">
+        <f>Q36*K30+R36*K31+S36*K32+T36*K33</f>
+        <v>0.59274455789996339</v>
+      </c>
+      <c r="S31" s="13">
+        <f>Q36*L30+R36*L31+S36*L32+T36*L33</f>
+        <v>-0.68157007867854735</v>
+      </c>
+      <c r="T31" s="13">
+        <f>Q36*M30+R36*M31+S36*M32+T36*M33</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="30"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="33"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="6">
+        <f t="shared" si="10"/>
+        <v>-0.42342481501279633</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="11"/>
+        <v>0.53452486376329633</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="12"/>
+        <v>0.73143324784303376</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="13">
+        <f>Q37*J30+R37*J31+S37*J32+T37*J33</f>
+        <v>-0.42342481501279633</v>
+      </c>
+      <c r="R32" s="13">
+        <f>Q37*K30+R37*K31+S37*K32+T37*K33</f>
+        <v>0.53452486376329633</v>
+      </c>
+      <c r="S32" s="13">
+        <f>Q37*L30+R37*L31+S37*L32+T37*L33</f>
+        <v>0.73143324784303376</v>
+      </c>
+      <c r="T32" s="13">
+        <f>Q37*M30+R37*M31+S37*M32+T37*M33</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="30"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="33"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="13">
+        <f>Q38*J30+R38*J31+S38*J32+T38*J33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="13">
+        <f>Q38*K30+R38*K31+S38*K32+T38*K33</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="13">
+        <f>Q38*L30+R38*L31+S38*L32+T38*L33</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="13">
+        <f>Q38*M30+R38*M31+S38*M32+T38*M33</f>
+        <v>1</v>
+      </c>
+      <c r="V33" s="30"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+    </row>
+    <row r="35" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="25"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="O35" s="33" t="str">
+        <f>V11</f>
+        <v>Rz(γ)</v>
+      </c>
+      <c r="P35" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="6">
+        <f>X11</f>
+        <v>0.88071719832273376</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" ref="R35:T35" si="14">Y11</f>
+        <v>0.473642498703985</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="6">
+        <f t="shared" ref="Q36:Q38" si="15">X12</f>
+        <v>-0.473642498703985</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" ref="R36:R38" si="16">Y12</f>
+        <v>0.88071719832273376</v>
+      </c>
+      <c r="S36" s="6">
+        <f t="shared" ref="S36:S38" si="17">Z12</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" ref="T36:T38" si="18">AA12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="T37" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+    </row>
+    <row r="40" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="15"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+    </row>
+    <row r="41" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="15"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+    </row>
+    <row r="42" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="9">
+        <f>COS(E12)*COS(E13)</f>
+        <v>0.797869230576843</v>
+      </c>
+      <c r="K42" s="9">
+        <f>COS(E13)*SIN(E11)*SIN(E12) - COS(E11)*SIN(E13)</f>
+        <v>0.6024425774285932</v>
+      </c>
+      <c r="L42" s="9">
+        <f>COS(E11)*COS(E13)*SIN(E12)+ SIN(E11)*SIN(E13)</f>
+        <v>2.1624795950714537E-2</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11"/>
+      <c r="O42" s="34" t="str">
+        <f>H42&amp;" x "&amp;O47</f>
+        <v>RxRyRz x SxT</v>
+      </c>
+      <c r="P42" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="13">
+        <f>Q47*J42+R47*J43+S47*J44+T47*J45</f>
+        <v>0.86734369382932164</v>
+      </c>
+      <c r="R42" s="13">
+        <f>Q47*K42+R47*K43+S47*K44+T47*K45</f>
+        <v>0.65490026485818797</v>
+      </c>
+      <c r="S42" s="13">
+        <f>Q47*L42+R47*L43+S47*L44+T47*L45</f>
+        <v>2.3507775058123005E-2</v>
+      </c>
+      <c r="T42" s="13">
+        <f>Q47*M42+R47*M43+S47*M44+T47*M45</f>
+        <v>-522.02002000000005</v>
+      </c>
+      <c r="V42" s="15"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+    </row>
+    <row r="43" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="33"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="9">
+        <f>COS(E12)*SIN(E13)</f>
+        <v>-0.42908753993805948</v>
+      </c>
+      <c r="K43" s="9">
+        <f>COS(E11)*COS(E13) + SIN(E11)*SIN(E12)*SIN(E13)</f>
+        <v>0.59274455789996339</v>
+      </c>
+      <c r="L43" s="9">
+        <f>-COS(E13)*SIN(E11) + COS(E11)*SIN(E12)*SIN(E13)</f>
+        <v>-0.68157007867854735</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="13">
+        <f>Q48*J42+R48*J43+S48*J44+T48*J45</f>
+        <v>-0.466450337478166</v>
+      </c>
+      <c r="R43" s="13">
+        <f>Q48*K42+R48*K43+S48*K44+T48*K45</f>
+        <v>0.64435779027910267</v>
+      </c>
+      <c r="S43" s="13">
+        <f>Q48*L42+R48*L43+S48*L44+T48*L45</f>
+        <v>-0.74091779327948182</v>
+      </c>
+      <c r="T43" s="13">
+        <f>Q48*M42+R48*M43+S48*M44+T48*M45</f>
+        <v>268.93338</v>
+      </c>
+      <c r="V43" s="15"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+    </row>
+    <row r="44" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="33"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="9">
+        <f>-SIN(E12)</f>
+        <v>-0.42342481501279633</v>
+      </c>
+      <c r="K44" s="9">
+        <f>COS(E12)*SIN(E11)</f>
+        <v>0.53452486376329633</v>
+      </c>
+      <c r="L44" s="9">
+        <f>COS(E11)*COS(E12)</f>
+        <v>0.73143324784303376</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="13">
+        <f>Q49*J42+R49*J43+S49*J44+T49*J45</f>
+        <v>-0.46029453078003557</v>
+      </c>
+      <c r="R44" s="13">
+        <f>Q49*K42+R49*K43+S49*K44+T49*K45</f>
+        <v>0.58106861627548534</v>
+      </c>
+      <c r="S44" s="13">
+        <f>Q49*L42+R49*L43+S49*L44+T49*L45</f>
+        <v>0.79512279789896589</v>
+      </c>
+      <c r="T44" s="13">
+        <f>Q49*M42+R49*M43+S49*M44+T49*M45</f>
+        <v>-346.48529100000002</v>
+      </c>
+      <c r="V44" s="15"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+    </row>
+    <row r="45" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="33"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="13">
+        <f>Q50*J42+R50*J43+S50*J44+T50*J45</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="13">
+        <f>Q50*K42+R50*K43+S50*K44+T50*K45</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="13">
+        <f>Q50*L42+R50*L43+S50*L44+T50*L45</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="13">
+        <f>Q50*M42+R50*M43+S50*M44+T50*M45</f>
+        <v>1</v>
+      </c>
+      <c r="V45" s="15"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+    </row>
+    <row r="46" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="15"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+    </row>
+    <row r="47" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="25">
+        <v>1.087075</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="9">
+        <f>E47</f>
+        <v>1.087075</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="6">
+        <f>J47</f>
+        <v>1.087075</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="9">
+        <f>M6</f>
+        <v>-522.02002000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="10">
+        <f>E47</f>
+        <v>1.087075</v>
+      </c>
+      <c r="H48" s="33"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <f>E48</f>
+        <v>1.087075</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="33"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="6">
+        <f>K48</f>
+        <v>1.087075</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="9">
+        <f>M7</f>
+        <v>268.93338</v>
+      </c>
+    </row>
+    <row r="49" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="10">
+        <f>E48</f>
+        <v>1.087075</v>
+      </c>
+      <c r="H49" s="33"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <f>E49</f>
+        <v>1.087075</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="33"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="6">
+        <f>L49</f>
+        <v>1.087075</v>
+      </c>
+      <c r="T49" s="9">
+        <f>M8</f>
+        <v>-346.48529100000002</v>
+      </c>
+    </row>
+    <row r="50" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="33"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="33"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+    </row>
+    <row r="54" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="9">
+        <f>Q42</f>
+        <v>0.86734369382932164</v>
+      </c>
+      <c r="K55" s="9">
+        <f t="shared" ref="K55:M55" si="19">R42</f>
+        <v>0.65490026485818797</v>
+      </c>
+      <c r="L55" s="9">
+        <f t="shared" si="19"/>
+        <v>2.3507775058123005E-2</v>
+      </c>
+      <c r="M55" s="9">
+        <f t="shared" si="19"/>
+        <v>-522.02002000000005</v>
+      </c>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="19">
+        <f>-M55</f>
+        <v>522.02002000000005</v>
+      </c>
+      <c r="R55" s="19">
+        <f>DEGREES(ATAN2(L57,K57))</f>
+        <v>36.158999999999992</v>
+      </c>
+      <c r="S55" s="19">
+        <f>(J55+K55+L55+J56+K56+L56+J57+K57+L57)/(X55+Y55+Z55+X56+Y57+Y56+Z56+Z57+X57)</f>
+        <v>1.087075</v>
+      </c>
+      <c r="V55" s="14">
+        <f>RADIANS(R55)</f>
+        <v>0.63109360422862948</v>
+      </c>
+      <c r="X55" s="28">
+        <f>COS(V56)*COS(V57)</f>
+        <v>0.79786923057684289</v>
+      </c>
+      <c r="Y55" s="28">
+        <f>COS(V57)*SIN(V55)*SIN(V56)-COS(V55)*SIN(V57)</f>
+        <v>0.6024425774285932</v>
+      </c>
+      <c r="Z55" s="29">
+        <f>COS(V55)*COS(V57)*SIN(V56) + SIN(V55)*SIN(V57)</f>
+        <v>2.1624795950714593E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="33"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="9">
+        <f t="shared" ref="J56:J58" si="20">Q43</f>
+        <v>-0.466450337478166</v>
+      </c>
+      <c r="K56" s="9">
+        <f t="shared" ref="K56:K58" si="21">R43</f>
+        <v>0.64435779027910267</v>
+      </c>
+      <c r="L56" s="9">
+        <f t="shared" ref="L56:L58" si="22">S43</f>
+        <v>-0.74091779327948182</v>
+      </c>
+      <c r="M56" s="9">
+        <f t="shared" ref="M56:M58" si="23">T43</f>
+        <v>268.93338</v>
+      </c>
+      <c r="N56" s="16"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="19">
+        <f t="shared" ref="Q56:Q57" si="24">-M56</f>
+        <v>-268.93338</v>
+      </c>
+      <c r="R56" s="19">
+        <f>DEGREES(ATAN2(SQRT(K57*K57 + L57*L57),-J57))</f>
+        <v>25.051000000000002</v>
+      </c>
+      <c r="S56" s="19">
+        <f>S55</f>
+        <v>1.087075</v>
+      </c>
+      <c r="V56" s="14">
+        <f t="shared" ref="V56:V57" si="25">RADIANS(R56)</f>
+        <v>0.4372224309170995</v>
+      </c>
+      <c r="X56" s="28">
+        <f>COS(V56)*SIN(V57)</f>
+        <v>-0.42908753993805937</v>
+      </c>
+      <c r="Y56" s="28">
+        <f>COS(V55)*COS(V57) + SIN(V55)*SIN(V56)*SIN(V57)</f>
+        <v>0.59274455789996339</v>
+      </c>
+      <c r="Z56" s="29">
+        <f>-COS(V57)*SIN(V55) + COS(V55)*SIN(V56)*SIN(V57)</f>
+        <v>-0.68157007867854735</v>
+      </c>
+    </row>
+    <row r="57" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="33"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="9">
+        <f t="shared" si="20"/>
+        <v>-0.46029453078003557</v>
+      </c>
+      <c r="K57" s="9">
+        <f t="shared" si="21"/>
+        <v>0.58106861627548534</v>
+      </c>
+      <c r="L57" s="9">
+        <f t="shared" si="22"/>
+        <v>0.79512279789896589</v>
+      </c>
+      <c r="M57" s="9">
+        <f t="shared" si="23"/>
+        <v>-346.48529100000002</v>
+      </c>
+      <c r="N57" s="16"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="19">
+        <f t="shared" si="24"/>
+        <v>346.48529100000002</v>
+      </c>
+      <c r="R57" s="19">
+        <f>DEGREES(ATAN2(J55,J56))</f>
+        <v>-28.270999999999997</v>
+      </c>
+      <c r="S57" s="19">
+        <f>S56</f>
+        <v>1.087075</v>
+      </c>
+      <c r="V57" s="14">
+        <f t="shared" si="25"/>
+        <v>-0.49342203283131686</v>
+      </c>
+      <c r="X57" s="28">
+        <f>-SIN(V56)</f>
+        <v>-0.42342481501279639</v>
+      </c>
+      <c r="Y57" s="28">
+        <f>COS(V56)*SIN(V55)</f>
+        <v>0.53452486376329633</v>
+      </c>
+      <c r="Z57" s="29">
+        <f>COS(V55)*COS(V56)</f>
+        <v>0.73143324784303365</v>
+      </c>
+    </row>
+    <row r="58" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="33"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="9">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4">
+        <f>E6</f>
+        <v>522.02002000000005</v>
+      </c>
+      <c r="R58" s="4">
+        <f>F11</f>
+        <v>36.158999999999999</v>
+      </c>
+      <c r="S58" s="4">
+        <f>E47</f>
+        <v>1.087075</v>
+      </c>
+    </row>
+    <row r="59" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q59" s="4">
+        <f t="shared" ref="Q59:Q60" si="26">E7</f>
+        <v>-268.93338</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" ref="R59:R60" si="27">F12</f>
+        <v>25.050999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q60" s="4">
+        <f t="shared" si="26"/>
+        <v>346.48529100000002</v>
+      </c>
+      <c r="R60" s="4">
+        <f t="shared" si="27"/>
+        <v>-28.271000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="J40:T40"/>
+    <mergeCell ref="J53:S53"/>
+    <mergeCell ref="P42:P45"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="J16:T16"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="P18:P21"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="P23:P26"/>
+    <mergeCell ref="J28:T28"/>
+    <mergeCell ref="O30:O33"/>
+    <mergeCell ref="P30:P33"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="P35:P38"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="O42:O45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:AA60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="22" style="10" customWidth="1"/>
+    <col min="7" max="7" width="1.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="7.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="23.140625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="7.42578125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="2"/>
+    <col min="22" max="22" width="7.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" style="4" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" style="4" customWidth="1"/>
+    <col min="26" max="27" width="6.28515625" style="4" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="25">
+        <v>-78.604857999999993</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <f>-E6</f>
+        <v>78.604857999999993</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="W6" s="7"/>
+    </row>
+    <row r="7" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="25">
+        <v>-113.293747</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <f>-E7</f>
+        <v>113.293747</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="W7" s="7"/>
+    </row>
+    <row r="8" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="25">
+        <v>255.59165999999999</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="9">
+        <f>-E8</f>
+        <v>-255.59165999999999</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="W8" s="7"/>
+    </row>
+    <row r="9" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="33"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="W9" s="7"/>
+    </row>
+    <row r="10" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10">
+        <f>RADIANS(F11)</f>
+        <v>9.1961398287581222E-2</v>
+      </c>
+      <c r="F11" s="25">
+        <v>5.2690000000000001</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="9">
+        <f>COS(E12)</f>
+        <v>0.92402640429119276</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9">
+        <f>SIN(E12)</f>
+        <v>-0.3823286598892231</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="W11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="9">
+        <f>COS(E13)</f>
+        <v>0.99777129141673526</v>
+      </c>
+      <c r="Y11" s="9">
+        <f>-SIN(E13)</f>
+        <v>6.6726681504330282E-2</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" ref="E12:E13" si="0">RADIANS(F12)</f>
+        <v>-0.39231510926328544</v>
+      </c>
+      <c r="F12" s="25">
+        <v>-22.478000000000002</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <f>COS(E11)</f>
+        <v>0.99577452973661862</v>
+      </c>
+      <c r="L12" s="9">
+        <f>-SIN(E11)</f>
+        <v>-9.1831835045457513E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="33"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="33"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="9">
+        <f>-Y11</f>
+        <v>-6.6726681504330282E-2</v>
+      </c>
+      <c r="Y12" s="9">
+        <f>X11</f>
+        <v>0.99777129141673526</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="0"/>
+        <v>-6.6776297181303054E-2</v>
+      </c>
+      <c r="F13" s="25">
+        <v>-3.8260000000000001</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <f>-L12</f>
+        <v>9.1831835045457513E-2</v>
+      </c>
+      <c r="L13" s="9">
+        <f>K12</f>
+        <v>0.99577452973661862</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="33"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="9">
+        <f>-S11</f>
+        <v>0.3823286598892231</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
+        <f>Q11</f>
+        <v>0.92402640429119276</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="33"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="33"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="33"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="33"/>
+      <c r="W14" s="32"/>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -1157,207 +3051,215 @@
       <c r="AA15" s="5"/>
     </row>
     <row r="16" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="15"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="33" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="8"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="31"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="15"/>
-      <c r="I17" s="8"/>
+    <row r="17" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="8"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="8"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="31"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="31" t="s">
+    <row r="18" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="33" t="str">
+        <f>H11</f>
+        <v>Rx(α)</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="9">
-        <f>COS(E12)*COS(E13)</f>
-        <v>0.79786889565263119</v>
-      </c>
-      <c r="K18" s="9">
-        <f>COS(E13)*SIN(E11)*SIN(E12) - COS(E11)*SIN(E13)</f>
-        <v>0.4526213494499533</v>
-      </c>
-      <c r="L18" s="9">
-        <f>COS(E11)*COS(E13)*SIN(E12)+ SIN(E11)*SIN(E13)</f>
-        <v>-0.39816973688636098</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="J18" s="6">
+        <f>J11</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" ref="K18:M18" si="1">K11</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="11"/>
-      <c r="O18" s="32" t="str">
+      <c r="O18" s="34" t="str">
         <f>H18&amp;" x "&amp;O23</f>
-        <v>RxRyRz x SxT</v>
-      </c>
-      <c r="P18" s="35" t="s">
+        <v>Rx(α) x Ry(β)</v>
+      </c>
+      <c r="P18" s="37" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="13">
         <f>Q23*J18+R23*J19+S23*J20+T23*J21</f>
-        <v>0.86734332974158401</v>
+        <v>0.92402640429119276</v>
       </c>
       <c r="R18" s="13">
         <f>Q23*K18+R23*K19+S23*K20+T23*K21</f>
-        <v>0.49203335345330801</v>
+        <v>-3.5109942428097965E-2</v>
       </c>
       <c r="S18" s="13">
         <f>Q23*L18+R23*L19+S23*L20+T23*L21</f>
-        <v>-0.43284036672574089</v>
+        <v>-0.38071314150602276</v>
       </c>
       <c r="T18" s="13">
         <f>Q23*M18+R23*M19+S23*M20+T23*M21</f>
-        <v>-522.02002000000005</v>
-      </c>
-      <c r="V18" s="15"/>
-      <c r="W18" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="30"/>
+      <c r="W18" s="31"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="9">
-        <f>COS(E12)*SIN(E13)</f>
-        <v>-0.60244286573039407</v>
-      </c>
-      <c r="K19" s="9">
-        <f>COS(E11)*COS(E13) + SIN(E11)*SIN(E12)*SIN(E13)</f>
-        <v>0.57497696757526695</v>
-      </c>
-      <c r="L19" s="9">
-        <f>-COS(E13)*SIN(E11) + COS(E11)*SIN(E12)*SIN(E13)</f>
-        <v>-0.55359197997126075</v>
-      </c>
-      <c r="M19" s="3">
+    <row r="19" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="33"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="6">
+        <f t="shared" ref="J19:M21" si="2">J12</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.99577452973661862</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="2"/>
+        <v>-9.1831835045457513E-2</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N19" s="11"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="37"/>
       <c r="Q19" s="13">
         <f>Q24*J18+R24*J19+S24*J20+T24*J21</f>
-        <v>-0.65490057826386816</v>
+        <v>0</v>
       </c>
       <c r="R19" s="13">
         <f>Q24*K18+R24*K19+S24*K20+T24*K21</f>
-        <v>0.62504308702688338</v>
+        <v>0.99577452973661862</v>
       </c>
       <c r="S19" s="13">
         <f>Q24*L18+R24*L19+S24*L20+T24*L21</f>
-        <v>-0.60179600162725833</v>
+        <v>-9.1831835045457513E-2</v>
       </c>
       <c r="T19" s="13">
         <f>Q24*M18+R24*M19+S24*M20+T24*M21</f>
-        <v>268.93338</v>
-      </c>
-      <c r="V19" s="15"/>
-      <c r="W19" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="30"/>
+      <c r="W19" s="31"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="9">
-        <f>-SIN(E12)</f>
-        <v>-2.1629121124101841E-2</v>
-      </c>
-      <c r="K20" s="9">
-        <f>COS(E12)*SIN(E11)</f>
-        <v>0.68156833903875969</v>
-      </c>
-      <c r="L20" s="9">
-        <f>COS(E11)*COS(E12)</f>
-        <v>0.73143474099836503</v>
-      </c>
-      <c r="M20" s="3">
+    <row r="20" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="33"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="2"/>
+        <v>9.1831835045457513E-2</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="2"/>
+        <v>0.99577452973661862</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N20" s="11"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="37"/>
       <c r="Q20" s="13">
         <f>Q25*J18+R25*J19+S25*J20+T25*J21</f>
-        <v>-2.351247684598301E-2</v>
+        <v>0.3823286598892231</v>
       </c>
       <c r="R20" s="13">
         <f>Q25*K18+R25*K19+S25*K20+T25*K21</f>
-        <v>0.74091590216055969</v>
+        <v>8.4855040336516044E-2</v>
       </c>
       <c r="S20" s="13">
         <f>Q25*L18+R25*L19+S25*L20+T25*L21</f>
-        <v>0.79512442107079773</v>
+        <v>0.92012195819728115</v>
       </c>
       <c r="T20" s="13">
         <f>Q25*M18+R25*M19+S25*M20+T25*M21</f>
-        <v>-346.48529100000002</v>
-      </c>
-      <c r="V20" s="15"/>
-      <c r="W20" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="30"/>
+      <c r="W20" s="31"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+    <row r="21" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="33"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N21" s="11"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="37"/>
       <c r="Q21" s="13">
         <f>Q26*J18+R26*J19+S26*J20+T26*J21</f>
         <v>0</v>
@@ -1374,1475 +3276,1235 @@
         <f>Q26*M18+R26*M19+S26*M20+T26*M21</f>
         <v>1</v>
       </c>
-      <c r="V21" s="15"/>
-      <c r="W21" s="8"/>
+      <c r="V21" s="30"/>
+      <c r="W21" s="31"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="15"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="8"/>
+    <row r="22" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="31"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="8"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="31"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="23" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="25"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="O23" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>Q11</f>
+        <v>0.92402640429119276</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" ref="R23:T23" si="3">R11</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.3823286598892231</v>
+      </c>
+      <c r="T23" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="6">
+        <f t="shared" ref="Q24:T26" si="4">Q12</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="6">
+        <f t="shared" si="4"/>
+        <v>0.3823286598892231</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <f t="shared" si="4"/>
+        <v>0.92402640429119276</v>
+      </c>
+      <c r="T25" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="V29" s="30"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="33" t="str">
+        <f>O18</f>
+        <v>Rx(α) x Ry(β)</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="6">
+        <f>Q18</f>
+        <v>0.92402640429119276</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" ref="K30:M33" si="5">R18</f>
+        <v>-3.5109942428097965E-2</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.38071314150602276</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="34" t="str">
+        <f>H30&amp;" x "&amp;O35</f>
+        <v>Rx(α) x Ry(β) x Rz(γ)</v>
+      </c>
+      <c r="P30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="13">
+        <f>Q35*J30+R35*J31+S35*J32+T35*J33</f>
+        <v>0.92196701871278575</v>
+      </c>
+      <c r="R30" s="13">
+        <f>Q35*K30+R35*K31+S35*K32+T35*K33</f>
+        <v>3.1413037297809088E-2</v>
+      </c>
+      <c r="S30" s="13">
+        <f>Q35*L30+R35*L31+S35*L32+T35*L33</f>
+        <v>-0.38599227646882306</v>
+      </c>
+      <c r="T30" s="13">
+        <f>Q35*M30+R35*M31+S35*M32+T35*M33</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="30"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="33"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="6">
+        <f t="shared" ref="J31:J33" si="6">Q19</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="5"/>
+        <v>0.99577452973661862</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="5"/>
+        <v>-9.1831835045457513E-2</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="13">
+        <f>Q36*J30+R36*J31+S36*J32+T36*J33</f>
+        <v>-6.1657215580729945E-2</v>
+      </c>
+      <c r="R31" s="13">
+        <f>Q36*K30+R36*K31+S36*K32+T36*K33</f>
+        <v>0.99589800844123333</v>
+      </c>
+      <c r="S31" s="13">
+        <f>Q36*L30+R36*L31+S36*L32+T36*L33</f>
+        <v>-6.6223444108689342E-2</v>
+      </c>
+      <c r="T31" s="13">
+        <f>Q36*M30+R36*M31+S36*M32+T36*M33</f>
+        <v>0</v>
+      </c>
+      <c r="V31" s="30"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+    </row>
+    <row r="32" spans="5:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="33"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="6">
+        <f t="shared" si="6"/>
+        <v>0.3823286598892231</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="5"/>
+        <v>8.4855040336516044E-2</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="5"/>
+        <v>0.92012195819728115</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="13">
+        <f>Q37*J30+R37*J31+S37*J32+T37*J33</f>
+        <v>0.3823286598892231</v>
+      </c>
+      <c r="R32" s="13">
+        <f>Q37*K30+R37*K31+S37*K32+T37*K33</f>
+        <v>8.4855040336516044E-2</v>
+      </c>
+      <c r="S32" s="13">
+        <f>Q37*L30+R37*L31+S37*L32+T37*L33</f>
+        <v>0.92012195819728115</v>
+      </c>
+      <c r="T32" s="13">
+        <f>Q37*M30+R37*M31+S37*M32+T37*M33</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="30"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+    </row>
+    <row r="33" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="33"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="13">
+        <f>Q38*J30+R38*J31+S38*J32+T38*J33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="13">
+        <f>Q38*K30+R38*K31+S38*K32+T38*K33</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="13">
+        <f>Q38*L30+R38*L31+S38*L32+T38*L33</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="13">
+        <f>Q38*M30+R38*M31+S38*M32+T38*M33</f>
+        <v>1</v>
+      </c>
+      <c r="V33" s="30"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+    </row>
+    <row r="34" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+    </row>
+    <row r="35" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="25"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="O35" s="33" t="str">
+        <f>V11</f>
+        <v>Rz(γ)</v>
+      </c>
+      <c r="P35" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="6">
+        <f>X11</f>
+        <v>0.99777129141673526</v>
+      </c>
+      <c r="R35" s="6">
+        <f t="shared" ref="R35:T38" si="7">Y11</f>
+        <v>6.6726681504330282E-2</v>
+      </c>
+      <c r="S35" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="6">
+        <f t="shared" ref="Q36:Q38" si="8">X12</f>
+        <v>-6.6726681504330282E-2</v>
+      </c>
+      <c r="R36" s="6">
+        <f t="shared" si="7"/>
+        <v>0.99777129141673526</v>
+      </c>
+      <c r="S36" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="T37" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+    </row>
+    <row r="40" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="15"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+    </row>
+    <row r="41" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="15"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+    </row>
+    <row r="42" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="9">
+        <f>COS(E12)*COS(E13)</f>
+        <v>0.92196701871278575</v>
+      </c>
+      <c r="K42" s="9">
+        <f>COS(E13)*SIN(E11)*SIN(E12) - COS(E11)*SIN(E13)</f>
+        <v>3.1413037297809088E-2</v>
+      </c>
+      <c r="L42" s="9">
+        <f>COS(E11)*COS(E13)*SIN(E12)+ SIN(E11)*SIN(E13)</f>
+        <v>-0.38599227646882306</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11"/>
+      <c r="O42" s="34" t="str">
+        <f>H42&amp;" x "&amp;O47</f>
+        <v>RxRyRz x SxT</v>
+      </c>
+      <c r="P42" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="13">
+        <f>Q47*J42+R47*J43+S47*J44+T47*J45</f>
+        <v>0.52894538617378706</v>
+      </c>
+      <c r="R42" s="13">
+        <f>Q47*K42+R47*K43+S47*K44+T47*K45</f>
+        <v>1.802209928027524E-2</v>
+      </c>
+      <c r="S42" s="13">
+        <f>Q47*L42+R47*L43+S47*L44+T47*L45</f>
+        <v>-0.22144917290203434</v>
+      </c>
+      <c r="T42" s="13">
+        <f>Q47*M42+R47*M43+S47*M44+T47*M45</f>
+        <v>78.604857999999993</v>
+      </c>
+      <c r="V42" s="15"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+    </row>
+    <row r="43" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="33"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="9">
+        <f>COS(E12)*SIN(E13)</f>
+        <v>-6.1657215580729945E-2</v>
+      </c>
+      <c r="K43" s="9">
+        <f>COS(E11)*COS(E13) + SIN(E11)*SIN(E12)*SIN(E13)</f>
+        <v>0.99589800844123333</v>
+      </c>
+      <c r="L43" s="9">
+        <f>-COS(E13)*SIN(E11) + COS(E11)*SIN(E12)*SIN(E13)</f>
+        <v>-6.6223444108689342E-2</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="13">
+        <f>Q48*J42+R48*J43+S48*J44+T48*J45</f>
+        <v>-3.5373607779682896E-2</v>
+      </c>
+      <c r="R43" s="13">
+        <f>Q48*K42+R48*K43+S48*K44+T48*K45</f>
+        <v>0.57136063001485371</v>
+      </c>
+      <c r="S43" s="13">
+        <f>Q48*L42+R48*L43+S48*L44+T48*L45</f>
+        <v>-3.7993317013372593E-2</v>
+      </c>
+      <c r="T43" s="13">
+        <f>Q48*M42+R48*M43+S48*M44+T48*M45</f>
+        <v>113.293747</v>
+      </c>
+      <c r="V43" s="15"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+    </row>
+    <row r="44" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="33"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="9">
+        <f>-SIN(E12)</f>
+        <v>0.3823286598892231</v>
+      </c>
+      <c r="K44" s="9">
+        <f>COS(E12)*SIN(E11)</f>
+        <v>8.4855040336516044E-2</v>
+      </c>
+      <c r="L44" s="9">
+        <f>COS(E11)*COS(E12)</f>
+        <v>0.92012195819728115</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="13">
+        <f>Q49*J42+R49*J43+S49*J44+T49*J45</f>
+        <v>0.21934730477968573</v>
+      </c>
+      <c r="R44" s="13">
+        <f>Q49*K42+R49*K43+S49*K44+T49*K45</f>
+        <v>4.8682524611623958E-2</v>
+      </c>
+      <c r="S44" s="13">
+        <f>Q49*L42+R49*L43+S49*L44+T49*L45</f>
+        <v>0.5278868491251949</v>
+      </c>
+      <c r="T44" s="13">
+        <f>Q49*M42+R49*M43+S49*M44+T49*M45</f>
+        <v>-255.59165999999999</v>
+      </c>
+      <c r="V44" s="15"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+    </row>
+    <row r="45" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="33"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>1</v>
+      </c>
+      <c r="N45" s="11"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="13">
+        <f>Q50*J42+R50*J43+S50*J44+T50*J45</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="13">
+        <f>Q50*K42+R50*K43+S50*K44+T50*K45</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="13">
+        <f>Q50*L42+R50*L43+S50*L44+T50*L45</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="13">
+        <f>Q50*M42+R50*M43+S50*M44+T50*M45</f>
+        <v>1</v>
+      </c>
+      <c r="V45" s="15"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+    </row>
+    <row r="46" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="15"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+    </row>
+    <row r="47" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="25">
-        <v>1.087075</v>
-      </c>
-      <c r="H23" s="30" t="s">
+      <c r="E47" s="25">
+        <v>0.57371399999999995</v>
+      </c>
+      <c r="H47" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I47" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J23" s="9">
-        <f>E23</f>
-        <v>1.087075</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="30" t="s">
+      <c r="J47" s="9">
+        <f>E47</f>
+        <v>0.57371399999999995</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P47" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="Q23" s="6">
-        <f>J23</f>
-        <v>1.087075</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
-        <f>M6</f>
-        <v>-522.02002000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="10">
-        <f>E23</f>
-        <v>1.087075</v>
-      </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <f>E24</f>
-        <v>1.087075</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <f>K24</f>
-        <v>1.087075</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
-        <f>M7</f>
-        <v>268.93338</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="10">
-        <f>E24</f>
-        <v>1.087075</v>
-      </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <f>E25</f>
-        <v>1.087075</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <f>L25</f>
-        <v>1.087075</v>
-      </c>
-      <c r="T25" s="9">
-        <f>M8</f>
-        <v>-346.48529100000002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-    </row>
-    <row r="30" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S30" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="9">
-        <f>Q18</f>
-        <v>0.86734332974158401</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" ref="K31:M31" si="1">R18</f>
-        <v>0.49203335345330801</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" si="1"/>
-        <v>-0.43284036672574089</v>
-      </c>
-      <c r="M31" s="9">
-        <f t="shared" si="1"/>
-        <v>-522.02002000000005</v>
-      </c>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="19">
-        <f>-M31</f>
-        <v>522.02002000000005</v>
-      </c>
-      <c r="R31" s="19">
-        <f>DEGREES(ATAN2(L33,K33))</f>
-        <v>42.978808999999991</v>
-      </c>
-      <c r="S31" s="19">
-        <f>(J31+K31+L31+J32+K32+L32+J33+K33+L33)/(X31+Y31+Z31+X32+Y33+Y32+Z32+Z33+X33)</f>
-        <v>1.087075</v>
-      </c>
-      <c r="V31" s="14">
-        <f>RADIANS(R31)</f>
-        <v>0.7501217256357714</v>
-      </c>
-      <c r="X31" s="28">
-        <f>COS(V32)*COS(V33)</f>
-        <v>0.79786889565263119</v>
-      </c>
-      <c r="Y31" s="28">
-        <f>COS(V33)*SIN(V31)*SIN(V32)-COS(V31)*SIN(V33)</f>
-        <v>0.45262134944995341</v>
-      </c>
-      <c r="Z31" s="29">
-        <f>COS(V31)*COS(V33)*SIN(V32) + SIN(V31)*SIN(V33)</f>
-        <v>-0.39816973688636098</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="9">
-        <f t="shared" ref="J32:J34" si="2">Q19</f>
-        <v>-0.65490057826386816</v>
-      </c>
-      <c r="K32" s="9">
-        <f t="shared" ref="K32:K34" si="3">R19</f>
-        <v>0.62504308702688338</v>
-      </c>
-      <c r="L32" s="9">
-        <f t="shared" ref="L32:L34" si="4">S19</f>
-        <v>-0.60179600162725833</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="shared" ref="M32:M34" si="5">T19</f>
-        <v>268.93338</v>
-      </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="19">
-        <f t="shared" ref="Q32:Q33" si="6">-M32</f>
-        <v>-268.93338</v>
-      </c>
-      <c r="R32" s="19">
-        <f>DEGREES(ATAN2(SQRT(K33*K33 + L33*L33),-J33))</f>
-        <v>1.2393539999999998</v>
-      </c>
-      <c r="S32" s="19">
-        <f>S31</f>
-        <v>1.087075</v>
-      </c>
-      <c r="V32" s="14">
-        <f t="shared" ref="V32:V33" si="7">RADIANS(R32)</f>
-        <v>2.1630807897761801E-2</v>
-      </c>
-      <c r="X32" s="28">
-        <f>COS(V32)*SIN(V33)</f>
-        <v>-0.60244286573039418</v>
-      </c>
-      <c r="Y32" s="28">
-        <f>COS(V31)*COS(V33) + SIN(V31)*SIN(V32)*SIN(V33)</f>
-        <v>0.57497696757526695</v>
-      </c>
-      <c r="Z32" s="29">
-        <f>-COS(V33)*SIN(V31) + COS(V31)*SIN(V32)*SIN(V33)</f>
-        <v>-0.55359197997126075</v>
-      </c>
-    </row>
-    <row r="33" spans="8:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="9">
-        <f t="shared" si="2"/>
-        <v>-2.351247684598301E-2</v>
-      </c>
-      <c r="K33" s="9">
-        <f t="shared" si="3"/>
-        <v>0.74091590216055969</v>
-      </c>
-      <c r="L33" s="9">
-        <f t="shared" si="4"/>
-        <v>0.79512442107079773</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="shared" si="5"/>
-        <v>-346.48529100000002</v>
-      </c>
-      <c r="N33" s="16"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="19">
-        <f t="shared" si="6"/>
-        <v>346.48529100000002</v>
-      </c>
-      <c r="R33" s="19">
-        <f>DEGREES(ATAN2(J31,J32))</f>
-        <v>-37.05517600000001</v>
-      </c>
-      <c r="S33" s="19">
-        <f>S32</f>
-        <v>1.087075</v>
-      </c>
-      <c r="V33" s="14">
-        <f t="shared" si="7"/>
-        <v>-0.64673482610598254</v>
-      </c>
-      <c r="X33" s="28">
-        <f>-SIN(V32)</f>
-        <v>-2.1629121124101838E-2</v>
-      </c>
-      <c r="Y33" s="28">
-        <f>COS(V32)*SIN(V31)</f>
-        <v>0.68156833903875957</v>
-      </c>
-      <c r="Z33" s="29">
-        <f>COS(V31)*COS(V32)</f>
-        <v>0.73143474099836503</v>
-      </c>
-    </row>
-    <row r="34" spans="8:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="J16:T16"/>
-    <mergeCell ref="J29:S29"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="P23:P26"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="O18:O21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:AA34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="22" style="10" customWidth="1"/>
-    <col min="7" max="7" width="1.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="7.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="2"/>
-    <col min="15" max="15" width="18.85546875" style="14" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="7.42578125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="2"/>
-    <col min="22" max="22" width="7.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" style="4" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" style="4" customWidth="1"/>
-    <col min="26" max="27" width="6.28515625" style="4" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="25">
-        <v>-78.604857999999993</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <f>-E6</f>
-        <v>78.604857999999993</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="25">
-        <v>-113.293747</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <f>-E7</f>
-        <v>113.293747</v>
-      </c>
-      <c r="P7" s="8"/>
-      <c r="W7" s="7"/>
-    </row>
-    <row r="8" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="25">
-        <v>255.59165999999999</v>
-      </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
-        <f>-E8</f>
-        <v>-255.59165999999999</v>
-      </c>
-      <c r="P8" s="8"/>
-      <c r="W8" s="7"/>
-    </row>
-    <row r="9" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="W9" s="7"/>
-    </row>
-    <row r="10" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10">
-        <f>RADIANS(F11)</f>
-        <v>7.1845989966156015E-2</v>
-      </c>
-      <c r="F11" s="25">
-        <v>4.1164719999999999</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="9">
-        <f>COS(E12)</f>
-        <v>0.92250110825387976</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="S11" s="9">
-        <f>SIN(E12)</f>
-        <v>-0.38599443683862017</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="X11" s="9">
-        <f>COS(E13)</f>
-        <v>0.9994199460697053</v>
-      </c>
-      <c r="Y11" s="9">
-        <f>-SIN(E13)</f>
-        <v>3.4055416573980569E-2</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="10">
-        <f t="shared" ref="E12:E13" si="0">RADIANS(F12)</f>
-        <v>-0.3962855587786473</v>
-      </c>
-      <c r="F12" s="25">
-        <v>-22.705490000000001</v>
-      </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <f>COS(E11)</f>
-        <v>0.99742018686592737</v>
-      </c>
-      <c r="L12" s="9">
-        <f>-SIN(E11)</f>
-        <v>-7.1784196257522831E-2</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="30"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="9">
-        <f>-Y11</f>
-        <v>-3.4055416573980569E-2</v>
-      </c>
-      <c r="Y12" s="9">
-        <f>X11</f>
-        <v>0.9994199460697053</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>-3.4062002761554015E-2</v>
-      </c>
-      <c r="F13" s="25">
-        <v>-1.9516089999999999</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <f>-L12</f>
-        <v>7.1784196257522831E-2</v>
-      </c>
-      <c r="L13" s="9">
-        <f>K12</f>
-        <v>0.99742018686592737</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="9">
-        <f>-S11</f>
-        <v>0.38599443683862017</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="9">
-        <f>Q11</f>
-        <v>0.92250110825387976</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="30"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>1</v>
-      </c>
-      <c r="V14" s="30"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="15"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-    </row>
-    <row r="16" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="15"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-    </row>
-    <row r="17" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="15"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-    </row>
-    <row r="18" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="9">
-        <f>COS(E12)*COS(E13)</f>
-        <v>0.92196600786033589</v>
-      </c>
-      <c r="K18" s="9">
-        <f>COS(E13)*SIN(E11)*SIN(E12) - COS(E11)*SIN(E13)</f>
-        <v>6.2753318632348329E-3</v>
-      </c>
-      <c r="L18" s="9">
-        <f>COS(E11)*COS(E13)*SIN(E12)+ SIN(E11)*SIN(E13)</f>
-        <v>-0.38721996405154691</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="32" t="str">
-        <f>H18&amp;" x "&amp;O23</f>
-        <v>RxRyRz x SxT</v>
-      </c>
-      <c r="P18" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="13">
-        <f>Q23*J18+R23*J19+S23*J20+T23*J21</f>
-        <v>0.52894480623358464</v>
-      </c>
-      <c r="R18" s="13">
-        <f>Q23*K18+R23*K19+S23*K20+T23*K21</f>
-        <v>3.6002457445839086E-3</v>
-      </c>
-      <c r="S18" s="13">
-        <f>Q23*L18+R23*L19+S23*L20+T23*L21</f>
-        <v>-0.22215351445586917</v>
-      </c>
-      <c r="T18" s="13">
-        <f>Q23*M18+R23*M19+S23*M20+T23*M21</f>
-        <v>78.604857999999993</v>
-      </c>
-      <c r="V18" s="15"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-    </row>
-    <row r="19" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="9">
-        <f>COS(E12)*SIN(E13)</f>
-        <v>-3.141615953154462E-2</v>
-      </c>
-      <c r="K19" s="9">
-        <f>COS(E11)*COS(E13) + SIN(E11)*SIN(E12)*SIN(E13)</f>
-        <v>0.99778524707934335</v>
-      </c>
-      <c r="L19" s="9">
-        <f>-COS(E13)*SIN(E11) + COS(E11)*SIN(E12)*SIN(E13)</f>
-        <v>-5.8631268373643915E-2</v>
-      </c>
-      <c r="M19" s="3">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="13">
-        <f>Q24*J18+R24*J19+S24*J20+T24*J21</f>
-        <v>-1.8023890549480587E-2</v>
-      </c>
-      <c r="R19" s="13">
-        <f>Q24*K18+R24*K19+S24*K20+T24*K21</f>
-        <v>0.57244336524287831</v>
-      </c>
-      <c r="S19" s="13">
-        <f>Q24*L18+R24*L19+S24*L20+T24*L21</f>
-        <v>-3.3637579503716743E-2</v>
-      </c>
-      <c r="T19" s="13">
-        <f>Q24*M18+R24*M19+S24*M20+T24*M21</f>
-        <v>113.293747</v>
-      </c>
-      <c r="V19" s="15"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-    </row>
-    <row r="20" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="9">
-        <f>-SIN(E12)</f>
-        <v>0.38599443683862017</v>
-      </c>
-      <c r="K20" s="9">
-        <f>COS(E12)*SIN(E11)</f>
-        <v>6.6221000602678826E-2</v>
-      </c>
-      <c r="L20" s="9">
-        <f>COS(E11)*COS(E12)</f>
-        <v>0.92012122777860983</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="13">
-        <f>Q25*J18+R25*J19+S25*J20+T25*J21</f>
-        <v>0.22145041233643212</v>
-      </c>
-      <c r="R20" s="13">
-        <f>Q25*K18+R25*K19+S25*K20+T25*K21</f>
-        <v>3.7991915139765277E-2</v>
-      </c>
-      <c r="S20" s="13">
-        <f>Q25*L18+R25*L19+S25*L20+T25*L21</f>
-        <v>0.52788643007377734</v>
-      </c>
-      <c r="T20" s="13">
-        <f>Q25*M18+R25*M19+S25*M20+T25*M21</f>
-        <v>-255.59165999999999</v>
-      </c>
-      <c r="V20" s="15"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-    </row>
-    <row r="21" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1</v>
-      </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="13">
-        <f>Q26*J18+R26*J19+S26*J20+T26*J21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="13">
-        <f>Q26*K18+R26*K19+S26*K20+T26*K21</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="13">
-        <f>Q26*L18+R26*L19+S26*L20+T26*L21</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="13">
-        <f>Q26*M18+R26*M19+S26*M20+T26*M21</f>
-        <v>1</v>
-      </c>
-      <c r="V21" s="15"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-    </row>
-    <row r="22" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="15"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-    </row>
-    <row r="23" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="Q47" s="6">
+        <f>J47</f>
         <v>0.57371399999999995</v>
       </c>
-      <c r="H23" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="9">
-        <f>E23</f>
-        <v>0.57371399999999995</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="6">
-        <f>J23</f>
-        <v>0.57371399999999995</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="9">
         <f>M6</f>
         <v>78.604857999999993</v>
       </c>
     </row>
-    <row r="24" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E24" s="10">
-        <f>E23</f>
+    <row r="48" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="10">
+        <f>E47</f>
         <v>0.57371399999999995</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
-        <f>E24</f>
+      <c r="H48" s="33"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <f>E48</f>
         <v>0.57371399999999995</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="6">
-        <f>K24</f>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="33"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="6">
+        <f>K48</f>
         <v>0.57371399999999995</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="9">
         <f>M7</f>
         <v>113.293747</v>
       </c>
     </row>
-    <row r="25" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E25" s="10">
-        <f>E24</f>
+    <row r="49" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E49" s="10">
+        <f>E48</f>
         <v>0.57371399999999995</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="9">
-        <f>E25</f>
+      <c r="H49" s="33"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <f>E49</f>
         <v>0.57371399999999995</v>
       </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="6">
-        <f>L25</f>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="33"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="6">
+        <f>L49</f>
         <v>0.57371399999999995</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T49" s="9">
         <f>M8</f>
         <v>-255.59165999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="34" t="s">
+    <row r="50" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="33"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="33"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-    </row>
-    <row r="30" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q30" s="4" t="s">
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="O53" s="36"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+    </row>
+    <row r="54" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q54" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="R54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="S54" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="30" t="s">
+    <row r="55" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I55" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J31" s="9">
-        <f>Q18</f>
-        <v>0.52894480623358464</v>
-      </c>
-      <c r="K31" s="9">
-        <f t="shared" ref="K31:M34" si="1">R18</f>
-        <v>3.6002457445839086E-3</v>
-      </c>
-      <c r="L31" s="9">
-        <f t="shared" si="1"/>
-        <v>-0.22215351445586917</v>
-      </c>
-      <c r="M31" s="9">
-        <f t="shared" si="1"/>
+      <c r="J55" s="9">
+        <f>Q42</f>
+        <v>0.52894538617378706</v>
+      </c>
+      <c r="K55" s="9">
+        <f t="shared" ref="K55:M58" si="9">R42</f>
+        <v>1.802209928027524E-2</v>
+      </c>
+      <c r="L55" s="9">
+        <f t="shared" si="9"/>
+        <v>-0.22144917290203434</v>
+      </c>
+      <c r="M55" s="9">
+        <f t="shared" si="9"/>
         <v>78.604857999999993</v>
       </c>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="19">
-        <f>-M31</f>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="19">
+        <f>-M55</f>
         <v>-78.604857999999993</v>
       </c>
-      <c r="R31" s="19">
-        <f>DEGREES(ATAN2(L33,K33))</f>
-        <v>4.1164720000000008</v>
-      </c>
-      <c r="S31" s="19">
-        <f>(J31+K31+L31+J32+K32+L32+J33+K33+L33)/(X31+Y31+Z31+X32+Y33+Y32+Z32+Z33+X33)</f>
+      <c r="R55" s="19">
+        <f>DEGREES(ATAN2(L57,K57))</f>
+        <v>5.2689999999999992</v>
+      </c>
+      <c r="S55" s="19">
+        <f>(J55+K55+L55+J56+K56+L56+J57+K57+L57)/(X55+Y55+Z55+X56+Y57+Y56+Z56+Z57+X57)</f>
         <v>0.57371399999999995</v>
       </c>
-      <c r="V31" s="14">
-        <f>RADIANS(R31)</f>
-        <v>7.1845989966156029E-2</v>
-      </c>
-      <c r="X31" s="28">
-        <f>COS(V32)*COS(V33)</f>
-        <v>0.92196600786033589</v>
-      </c>
-      <c r="Y31" s="28">
-        <f>COS(V33)*SIN(V31)*SIN(V32)-COS(V31)*SIN(V33)</f>
-        <v>6.2753318632348329E-3</v>
-      </c>
-      <c r="Z31" s="29">
-        <f>COS(V31)*COS(V33)*SIN(V32) + SIN(V31)*SIN(V33)</f>
-        <v>-0.38721996405154685</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="9">
-        <f t="shared" ref="J32:J34" si="2">Q19</f>
-        <v>-1.8023890549480587E-2</v>
-      </c>
-      <c r="K32" s="9">
-        <f t="shared" si="1"/>
-        <v>0.57244336524287831</v>
-      </c>
-      <c r="L32" s="9">
-        <f t="shared" si="1"/>
-        <v>-3.3637579503716743E-2</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="shared" si="1"/>
+      <c r="V55" s="14">
+        <f>RADIANS(R55)</f>
+        <v>9.1961398287581209E-2</v>
+      </c>
+      <c r="X55" s="28">
+        <f>COS(V56)*COS(V57)</f>
+        <v>0.92196701871278575</v>
+      </c>
+      <c r="Y55" s="28">
+        <f>COS(V57)*SIN(V55)*SIN(V56)-COS(V55)*SIN(V57)</f>
+        <v>3.1413037297809095E-2</v>
+      </c>
+      <c r="Z55" s="29">
+        <f>COS(V55)*COS(V57)*SIN(V56) + SIN(V55)*SIN(V57)</f>
+        <v>-0.38599227646882306</v>
+      </c>
+    </row>
+    <row r="56" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="33"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="9">
+        <f t="shared" ref="J56:J58" si="10">Q43</f>
+        <v>-3.5373607779682896E-2</v>
+      </c>
+      <c r="K56" s="9">
+        <f t="shared" si="9"/>
+        <v>0.57136063001485371</v>
+      </c>
+      <c r="L56" s="9">
+        <f t="shared" si="9"/>
+        <v>-3.7993317013372593E-2</v>
+      </c>
+      <c r="M56" s="9">
+        <f t="shared" si="9"/>
         <v>113.293747</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="17" t="s">
+      <c r="N56" s="16"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="Q32" s="19">
-        <f t="shared" ref="Q32:Q33" si="3">-M32</f>
+      <c r="Q56" s="19">
+        <f t="shared" ref="Q56:Q57" si="11">-M56</f>
         <v>-113.293747</v>
       </c>
-      <c r="R32" s="19">
-        <f>DEGREES(ATAN2(SQRT(K33*K33 + L33*L33),-J33))</f>
-        <v>-22.705489999999998</v>
-      </c>
-      <c r="S32" s="19">
-        <f>S31</f>
+      <c r="R56" s="19">
+        <f>DEGREES(ATAN2(SQRT(K57*K57 + L57*L57),-J57))</f>
+        <v>-22.478000000000002</v>
+      </c>
+      <c r="S56" s="19">
+        <f>S55</f>
         <v>0.57371399999999995</v>
       </c>
-      <c r="V32" s="14">
-        <f t="shared" ref="V32:V33" si="4">RADIANS(R32)</f>
-        <v>-0.39628555877864724</v>
-      </c>
-      <c r="X32" s="28">
-        <f>COS(V32)*SIN(V33)</f>
-        <v>-3.141615953154462E-2</v>
-      </c>
-      <c r="Y32" s="28">
-        <f>COS(V31)*COS(V33) + SIN(V31)*SIN(V32)*SIN(V33)</f>
-        <v>0.99778524707934335</v>
-      </c>
-      <c r="Z32" s="29">
-        <f>-COS(V33)*SIN(V31) + COS(V31)*SIN(V32)*SIN(V33)</f>
-        <v>-5.8631268373643936E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="8:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="9">
-        <f t="shared" si="2"/>
-        <v>0.22145041233643212</v>
-      </c>
-      <c r="K33" s="9">
-        <f t="shared" si="1"/>
-        <v>3.7991915139765277E-2</v>
-      </c>
-      <c r="L33" s="9">
-        <f t="shared" si="1"/>
-        <v>0.52788643007377734</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="shared" si="1"/>
+      <c r="V56" s="14">
+        <f t="shared" ref="V56:V57" si="12">RADIANS(R56)</f>
+        <v>-0.39231510926328544</v>
+      </c>
+      <c r="X56" s="28">
+        <f>COS(V56)*SIN(V57)</f>
+        <v>-6.1657215580729945E-2</v>
+      </c>
+      <c r="Y56" s="28">
+        <f>COS(V55)*COS(V57) + SIN(V55)*SIN(V56)*SIN(V57)</f>
+        <v>0.99589800844123333</v>
+      </c>
+      <c r="Z56" s="29">
+        <f>-COS(V57)*SIN(V55) + COS(V55)*SIN(V56)*SIN(V57)</f>
+        <v>-6.6223444108689328E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="33"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="9">
+        <f t="shared" si="10"/>
+        <v>0.21934730477968573</v>
+      </c>
+      <c r="K57" s="9">
+        <f t="shared" si="9"/>
+        <v>4.8682524611623958E-2</v>
+      </c>
+      <c r="L57" s="9">
+        <f t="shared" si="9"/>
+        <v>0.5278868491251949</v>
+      </c>
+      <c r="M57" s="9">
+        <f t="shared" si="9"/>
         <v>-255.59165999999999</v>
       </c>
-      <c r="N33" s="16"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="17" t="s">
+      <c r="N57" s="16"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Q33" s="19">
-        <f t="shared" si="3"/>
+      <c r="Q57" s="19">
+        <f t="shared" si="11"/>
         <v>255.59165999999999</v>
       </c>
-      <c r="R33" s="19">
-        <f>DEGREES(ATAN2(J31,J32))</f>
-        <v>-1.9516090000000001</v>
-      </c>
-      <c r="S33" s="19">
-        <f>S32</f>
+      <c r="R57" s="19">
+        <f>DEGREES(ATAN2(J55,J56))</f>
+        <v>-3.8260000000000005</v>
+      </c>
+      <c r="S57" s="19">
+        <f>S56</f>
         <v>0.57371399999999995</v>
       </c>
-      <c r="V33" s="14">
-        <f t="shared" si="4"/>
-        <v>-3.4062002761554015E-2</v>
-      </c>
-      <c r="X33" s="28">
-        <f>-SIN(V32)</f>
-        <v>0.38599443683862011</v>
-      </c>
-      <c r="Y33" s="28">
-        <f>COS(V32)*SIN(V31)</f>
-        <v>6.6221000602678839E-2</v>
-      </c>
-      <c r="Z33" s="29">
-        <f>COS(V31)*COS(V32)</f>
-        <v>0.92012122777860983</v>
-      </c>
-    </row>
-    <row r="34" spans="8:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+      <c r="V57" s="14">
+        <f t="shared" si="12"/>
+        <v>-6.6776297181303054E-2</v>
+      </c>
+      <c r="X57" s="28">
+        <f>-SIN(V56)</f>
+        <v>0.3823286598892231</v>
+      </c>
+      <c r="Y57" s="28">
+        <f>COS(V56)*SIN(V55)</f>
+        <v>8.485504033651603E-2</v>
+      </c>
+      <c r="Z57" s="29">
+        <f>COS(V55)*COS(V56)</f>
+        <v>0.92012195819728115</v>
+      </c>
+    </row>
+    <row r="58" spans="5:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="33"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="9">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="Q58" s="4">
+        <f>E6</f>
+        <v>-78.604857999999993</v>
+      </c>
+      <c r="R58" s="4">
+        <f>F11</f>
+        <v>5.2690000000000001</v>
+      </c>
+      <c r="S58" s="4">
+        <f>E47</f>
+        <v>0.57371399999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="Q59" s="4">
+        <f t="shared" ref="Q59:Q60" si="13">E7</f>
+        <v>-113.293747</v>
+      </c>
+      <c r="R59" s="4">
+        <f t="shared" ref="R59:R60" si="14">F12</f>
+        <v>-22.478000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="5:26" x14ac:dyDescent="0.25">
+      <c r="Q60" s="4">
+        <f t="shared" si="13"/>
+        <v>255.59165999999999</v>
+      </c>
+      <c r="R60" s="4">
+        <f t="shared" si="14"/>
+        <v>-3.8260000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="34">
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="I6:I9"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="O11:O14"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="I55:I58"/>
     <mergeCell ref="V11:V14"/>
     <mergeCell ref="W11:W14"/>
+    <mergeCell ref="J40:T40"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="O42:O45"/>
+    <mergeCell ref="P42:P45"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="H47:H50"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="J53:S53"/>
     <mergeCell ref="J16:T16"/>
     <mergeCell ref="H18:H21"/>
     <mergeCell ref="I18:I21"/>
     <mergeCell ref="O18:O21"/>
     <mergeCell ref="P18:P21"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
     <mergeCell ref="O23:O26"/>
     <mergeCell ref="P23:P26"/>
-    <mergeCell ref="J29:S29"/>
+    <mergeCell ref="O35:O38"/>
+    <mergeCell ref="P35:P38"/>
+    <mergeCell ref="J28:T28"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="O30:O33"/>
+    <mergeCell ref="P30:P33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2850,13 +4512,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:AA34"/>
+  <dimension ref="B6:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="11.42578125" style="2" customWidth="1"/>
@@ -2879,7 +4541,6 @@
     <col min="28" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:27" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -2893,10 +4554,10 @@
       <c r="E6" s="25">
         <v>-72.488708000000003</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="3">
@@ -2925,8 +4586,8 @@
       <c r="E7" s="25">
         <v>-94.601073999999997</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="3">
         <v>0</v>
       </c>
@@ -2953,8 +4614,8 @@
       <c r="E8" s="25">
         <v>797.53454599999998</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -2972,8 +4633,8 @@
       <c r="W8" s="7"/>
     </row>
     <row r="9" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -3020,10 +4681,10 @@
       <c r="F11" s="25">
         <v>51.093000000000004</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="3">
@@ -3038,10 +4699,10 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="O11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="9">
@@ -3058,10 +4719,10 @@
       <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="V11" s="30" t="s">
+      <c r="V11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="W11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="X11" s="9">
@@ -3093,8 +4754,8 @@
       <c r="F12" s="25">
         <v>6.9480000000000004</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="3">
         <v>0</v>
       </c>
@@ -3109,8 +4770,8 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
@@ -3123,8 +4784,8 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-      <c r="V12" s="30"/>
-      <c r="W12" s="31"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="32"/>
       <c r="X12" s="9">
         <f>-Y11</f>
         <v>6.0334273682440369E-2</v>
@@ -3154,8 +4815,8 @@
       <c r="F13" s="25">
         <v>3.4590000000000001</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="3">
         <v>0</v>
       </c>
@@ -3170,8 +4831,8 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="9">
         <f>-S11</f>
         <v>-0.12096848702495346</v>
@@ -3186,8 +4847,8 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="W13" s="31"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="32"/>
       <c r="X13" s="3">
         <v>0</v>
       </c>
@@ -3202,8 +4863,8 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -3216,8 +4877,8 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="32"/>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -3230,8 +4891,8 @@
       <c r="T14" s="3">
         <v>1</v>
       </c>
-      <c r="V14" s="30"/>
-      <c r="W14" s="31"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="32"/>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -3268,19 +4929,19 @@
     <row r="16" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H16" s="26"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
       <c r="V16" s="26"/>
       <c r="W16" s="27"/>
       <c r="X16" s="5"/>
@@ -3309,10 +4970,10 @@
       <c r="AA17" s="5"/>
     </row>
     <row r="18" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="9">
@@ -3331,11 +4992,11 @@
         <v>0</v>
       </c>
       <c r="N18" s="11"/>
-      <c r="O18" s="32" t="str">
+      <c r="O18" s="34" t="str">
         <f>H18&amp;" x "&amp;O23</f>
         <v>RxRyRz x SxT</v>
       </c>
-      <c r="P18" s="35" t="s">
+      <c r="P18" s="37" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="13">
@@ -3362,8 +5023,8 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="9">
         <f>COS(E12)*SIN(E13)</f>
         <v>5.9891199770479298E-2</v>
@@ -3380,8 +5041,8 @@
         <v>0</v>
       </c>
       <c r="N19" s="11"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="37"/>
       <c r="Q19" s="13">
         <f>Q24*J18+R24*J19+S24*J20+T24*J21</f>
         <v>5.5096310316854726E-2</v>
@@ -3406,8 +5067,8 @@
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="9">
         <f>-SIN(E12)</f>
         <v>-0.12096848702495346</v>
@@ -3424,8 +5085,8 @@
         <v>0</v>
       </c>
       <c r="N20" s="11"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="37"/>
       <c r="Q20" s="13">
         <f>Q25*J18+R25*J19+S25*J20+T25*J21</f>
         <v>-0.11128374995373568</v>
@@ -3450,8 +5111,8 @@
       <c r="AA20" s="5"/>
     </row>
     <row r="21" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -3465,8 +5126,8 @@
         <v>1</v>
       </c>
       <c r="N21" s="11"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="37"/>
       <c r="Q21" s="13">
         <f>Q26*J18+R26*J19+S26*J20+T26*J21</f>
         <v>0</v>
@@ -3523,10 +5184,10 @@
       <c r="E23" s="25">
         <v>0.91993999999999998</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J23" s="9">
@@ -3542,10 +5203,10 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="30" t="s">
+      <c r="O23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="32" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="6">
@@ -3568,8 +5229,8 @@
         <f>E23</f>
         <v>0.91993999999999998</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -3583,8 +5244,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="32"/>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -3605,8 +5266,8 @@
         <f>E24</f>
         <v>0.91993999999999998</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="3">
         <v>0</v>
       </c>
@@ -3620,8 +5281,8 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="32"/>
       <c r="Q25" s="3">
         <v>0</v>
       </c>
@@ -3638,8 +5299,8 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -3652,8 +5313,8 @@
       <c r="M26" s="3">
         <v>1</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -3668,18 +5329,18 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
     </row>
     <row r="30" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q30" s="4" t="s">
@@ -3693,10 +5354,10 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J31" s="9">
@@ -3750,8 +5411,8 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="9">
         <f t="shared" ref="J32:J34" si="2">Q19</f>
         <v>5.5096310316854726E-2</v>
@@ -3803,8 +5464,8 @@
       </c>
     </row>
     <row r="33" spans="8:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
         <v>-0.11128374995373568</v>
@@ -3856,8 +5517,8 @@
       </c>
     </row>
     <row r="34" spans="8:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3877,11 +5538,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="P23:P26"/>
-    <mergeCell ref="J29:S29"/>
     <mergeCell ref="H31:H34"/>
     <mergeCell ref="I31:I34"/>
     <mergeCell ref="V11:V14"/>
@@ -3891,12 +5547,17 @@
     <mergeCell ref="I18:I21"/>
     <mergeCell ref="O18:O21"/>
     <mergeCell ref="P18:P21"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="P23:P26"/>
+    <mergeCell ref="J29:S29"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="I6:I9"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3904,165 +5565,167 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:T19"/>
+  <dimension ref="B4:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="9">
-        <f>'C'!Q18</f>
-        <v>0.86734332974158401</v>
+        <f>'C'!Q42</f>
+        <v>0.86734369382932164</v>
       </c>
       <c r="E4" s="9">
-        <f>'C'!R18</f>
-        <v>0.49203335345330801</v>
+        <f>'C'!R42</f>
+        <v>0.65490026485818797</v>
       </c>
       <c r="F4" s="9">
-        <f>'C'!S18</f>
-        <v>-0.43284036672574089</v>
+        <f>'C'!S42</f>
+        <v>2.3507775058123005E-2</v>
       </c>
       <c r="G4" s="9">
-        <f>'C'!T18</f>
+        <f>'C'!T42</f>
         <v>-522.02002000000005</v>
       </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="32" t="str">
+      <c r="I4" s="34" t="str">
         <f>B4&amp;" x "&amp;I9</f>
         <v>C x B</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="37" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="13">
         <f>K9*D4+L9*D5+M9*D6+N9*D7</f>
-        <v>0.46164232583303161</v>
+        <v>0.55230287391916888</v>
       </c>
       <c r="L4" s="13">
         <f>K9*E4+L9*E5+M9*E6+N9*E7</f>
-        <v>9.7911723935861755E-2</v>
+        <v>0.22934198909562262</v>
       </c>
       <c r="M4" s="13">
         <f>K9*F4+L9*F5+M9*F6+N9*F7</f>
-        <v>-0.40775496197235295</v>
+        <v>-0.17699785082307729</v>
       </c>
       <c r="N4" s="13">
         <f>K9*G4+L9*G5+M9*G6+N9*G7</f>
-        <v>-119.5737689691159</v>
+        <v>-115.93959788053745</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="9">
-        <f>'C'!Q19</f>
-        <v>-0.65490057826386816</v>
+        <f>'C'!Q43</f>
+        <v>-0.466450337478166</v>
       </c>
       <c r="E5" s="9">
-        <f>'C'!R19</f>
-        <v>0.62504308702688338</v>
+        <f>'C'!R43</f>
+        <v>0.64435779027910267</v>
       </c>
       <c r="F5" s="9">
-        <f>'C'!S19</f>
-        <v>-0.60179600162725833</v>
+        <f>'C'!S43</f>
+        <v>-0.74091779327948182</v>
       </c>
       <c r="G5" s="9">
-        <f>'C'!T19</f>
+        <f>'C'!T43</f>
         <v>268.93338</v>
       </c>
       <c r="H5" s="11"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="35"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="13">
         <f>K10*D4+L10*D5+M10*D6+N10*D7</f>
-        <v>-0.389735489355724</v>
+        <v>-0.27970431830041836</v>
       </c>
       <c r="L5" s="13">
         <f>K10*E4+L10*E5+M10*E6+N10*E7</f>
-        <v>0.32401079528563625</v>
+        <v>0.32291776376026682</v>
       </c>
       <c r="M5" s="13">
         <f>K10*F4+L10*F5+M10*F6+N10*F7</f>
-        <v>-0.36343872189507032</v>
+        <v>-0.45437216449719409</v>
       </c>
       <c r="N5" s="13">
         <f>K10*G4+L10*G5+M10*G6+N10*G7</f>
-        <v>288.30663430134041</v>
+        <v>298.58154937087994</v>
       </c>
     </row>
     <row r="6" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="9">
-        <f>'C'!Q20</f>
-        <v>-2.351247684598301E-2</v>
+        <f>'C'!Q44</f>
+        <v>-0.46029453078003557</v>
       </c>
       <c r="E6" s="9">
-        <f>'C'!R20</f>
-        <v>0.74091590216055969</v>
+        <f>'C'!R44</f>
+        <v>0.58106861627548534</v>
       </c>
       <c r="F6" s="9">
-        <f>'C'!S20</f>
-        <v>0.79512442107079773</v>
+        <f>'C'!S44</f>
+        <v>0.79512279789896589</v>
       </c>
       <c r="G6" s="9">
-        <f>'C'!T20</f>
+        <f>'C'!T44</f>
         <v>-346.48529100000002</v>
       </c>
       <c r="H6" s="11"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="13">
         <f>K11*D4+L11*D5+M11*D6+N11*D7</f>
-        <v>0.15478069334972536</v>
+        <v>-7.5441907998295504E-2</v>
       </c>
       <c r="L6" s="13">
         <f>K11*E4+L11*E5+M11*E6+N11*E7</f>
-        <v>0.52382702350296473</v>
+        <v>0.48175805295130281</v>
       </c>
       <c r="M6" s="13">
         <f>K11*F4+L11*F5+M11*F6+N11*F7</f>
-        <v>0.30101933179100165</v>
+        <v>0.38882148684434215</v>
       </c>
       <c r="N6" s="13">
         <f>K11*G4+L11*G5+M11*G6+N11*G7</f>
-        <v>-543.88079786472622</v>
+        <v>-539.90801707151672</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="9">
-        <f>'C'!Q21</f>
+        <f>'C'!Q45</f>
         <v>0</v>
       </c>
       <c r="E7" s="9">
-        <f>'C'!R21</f>
+        <f>'C'!R45</f>
         <v>0</v>
       </c>
       <c r="F7" s="9">
-        <f>'C'!S21</f>
+        <f>'C'!S45</f>
         <v>0</v>
       </c>
       <c r="G7" s="9">
-        <f>'C'!T21</f>
+        <f>'C'!T45</f>
         <v>1</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="35"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="13">
         <f>K12*D4+L12*D5+M12*D6+N12*D7</f>
         <v>0</v>
@@ -4097,107 +5760,107 @@
     </row>
     <row r="9" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H9" s="2"/>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="32" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="9">
-        <f>B!Q18</f>
-        <v>0.52894480623358464</v>
+        <f>B!Q42</f>
+        <v>0.52894538617378706</v>
       </c>
       <c r="L9" s="9">
-        <f>B!R18</f>
-        <v>3.6002457445839086E-3</v>
+        <f>B!R42</f>
+        <v>1.802209928027524E-2</v>
       </c>
       <c r="M9" s="9">
-        <f>B!S18</f>
-        <v>-0.22215351445586917</v>
+        <f>B!S42</f>
+        <v>-0.22144917290203434</v>
       </c>
       <c r="N9" s="9">
-        <f>B!T18</f>
+        <f>B!T42</f>
         <v>78.604857999999993</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="2"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="9">
-        <f>B!Q19</f>
-        <v>-1.8023890549480587E-2</v>
+        <f>B!Q43</f>
+        <v>-3.5373607779682896E-2</v>
       </c>
       <c r="L10" s="9">
-        <f>B!R19</f>
-        <v>0.57244336524287831</v>
+        <f>B!R43</f>
+        <v>0.57136063001485371</v>
       </c>
       <c r="M10" s="9">
-        <f>B!S19</f>
-        <v>-3.3637579503716743E-2</v>
+        <f>B!S43</f>
+        <v>-3.7993317013372593E-2</v>
       </c>
       <c r="N10" s="9">
-        <f>B!T19</f>
+        <f>B!T43</f>
         <v>113.293747</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="9">
-        <f>B!Q20</f>
-        <v>0.22145041233643212</v>
+        <f>B!Q44</f>
+        <v>0.21934730477968573</v>
       </c>
       <c r="L11" s="9">
-        <f>B!R20</f>
-        <v>3.7991915139765277E-2</v>
+        <f>B!R44</f>
+        <v>4.8682524611623958E-2</v>
       </c>
       <c r="M11" s="9">
-        <f>B!S20</f>
-        <v>0.52788643007377734</v>
+        <f>B!S44</f>
+        <v>0.5278868491251949</v>
       </c>
       <c r="N11" s="9">
-        <f>B!T20</f>
+        <f>B!T44</f>
         <v>-255.59165999999999</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" s="2"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="32"/>
       <c r="K12" s="9">
-        <f>B!Q21</f>
+        <f>B!Q45</f>
         <v>0</v>
       </c>
       <c r="L12" s="9">
-        <f>B!R21</f>
+        <f>B!R45</f>
         <v>0</v>
       </c>
       <c r="M12" s="9">
-        <f>B!S21</f>
+        <f>B!S45</f>
         <v>0</v>
       </c>
       <c r="N12" s="9">
-        <f>B!T21</f>
+        <f>B!T45</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
@@ -4220,27 +5883,27 @@
       </c>
     </row>
     <row r="16" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="9">
         <f>K4</f>
-        <v>0.46164232583303161</v>
+        <v>0.55230287391916888</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" ref="E16:G16" si="0">L4</f>
-        <v>9.7911723935861755E-2</v>
+        <v>0.22934198909562262</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>-0.40775496197235295</v>
+        <v>-0.17699785082307729</v>
       </c>
       <c r="G16" s="9">
         <f t="shared" si="0"/>
-        <v>-119.5737689691159</v>
+        <v>-115.93959788053745</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -4249,54 +5912,54 @@
       </c>
       <c r="K16" s="19">
         <f>-G16</f>
-        <v>119.5737689691159</v>
+        <v>115.93959788053745</v>
       </c>
       <c r="L16" s="19">
         <f>DEGREES(ATAN2(F18,E18))</f>
-        <v>60.115995828884778</v>
+        <v>51.093392220478535</v>
       </c>
       <c r="M16" s="19">
         <f>(D16+E16+F16+D17+E17+F17+D18+E18+F18)/(R16+S16+T16+R17+S18+S17+T17+T18+R18)</f>
-        <v>0.62367014654999975</v>
+        <v>0.62367014655000008</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="2"/>
       <c r="P16" s="14">
         <f>RADIANS(L16)</f>
-        <v>1.0492220603292171</v>
+        <v>0.89174792026020699</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="28">
         <f>COS(P17)*COS(P18)</f>
-        <v>0.74020269911383607</v>
+        <v>0.88556888120167632</v>
       </c>
       <c r="S16" s="28">
         <f>COS(P18)*SIN(P16)*SIN(P17)-COS(P16)*SIN(P18)</f>
-        <v>0.15699280216872175</v>
+        <v>0.36772962496968942</v>
       </c>
       <c r="T16" s="29">
         <f>COS(P16)*COS(P18)*SIN(P17) + SIN(P16)*SIN(P18)</f>
-        <v>-0.65379907027450279</v>
+        <v>-0.2838004220695648</v>
       </c>
     </row>
     <row r="17" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="9">
         <f t="shared" ref="D17:D19" si="1">K5</f>
-        <v>-0.389735489355724</v>
+        <v>-0.27970431830041836</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" ref="E17:E19" si="2">L5</f>
-        <v>0.32401079528563625</v>
+        <v>0.32291776376026682</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" ref="F17:F19" si="3">M5</f>
-        <v>-0.36343872189507032</v>
+        <v>-0.45437216449719409</v>
       </c>
       <c r="G17" s="9">
         <f t="shared" ref="G17:G19" si="4">N5</f>
-        <v>288.30663430134041</v>
+        <v>298.58154937087994</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="18"/>
@@ -4305,54 +5968,54 @@
       </c>
       <c r="K17" s="19">
         <f t="shared" ref="K17:K18" si="5">-G17</f>
-        <v>-288.30663430134041</v>
+        <v>-298.58154937087994</v>
       </c>
       <c r="L17" s="19">
         <f>DEGREES(ATAN2(SQRT(E18*E18 + F18*F18),-D18))</f>
-        <v>-14.369672805914702</v>
+        <v>6.9477662198805392</v>
       </c>
       <c r="M17" s="19">
         <f>M16</f>
-        <v>0.62367014654999975</v>
+        <v>0.62367014655000008</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="2"/>
       <c r="P17" s="14">
         <f t="shared" ref="P17:P18" si="6">RADIANS(L17)</f>
-        <v>-0.25079810289750365</v>
+        <v>0.12126139619575572</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="28">
         <f>COS(P17)*SIN(P18)</f>
-        <v>-0.62490643733975615</v>
+        <v>-0.44848117205493715</v>
       </c>
       <c r="S17" s="28">
         <f>COS(P16)*COS(P18) + SIN(P16)*SIN(P17)*SIN(P18)</f>
-        <v>0.51952269493415626</v>
+        <v>0.51777011541529394</v>
       </c>
       <c r="T17" s="29">
         <f>-COS(P18)*SIN(P16) + COS(P16)*SIN(P17)*SIN(P18)</f>
-        <v>-0.58274189313939406</v>
+        <v>-0.72854563748269274</v>
       </c>
     </row>
     <row r="18" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="30"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="9">
         <f t="shared" si="1"/>
-        <v>0.15478069334972536</v>
+        <v>-7.5441907998295504E-2</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>0.52382702350296473</v>
+        <v>0.48175805295130281</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="3"/>
-        <v>0.30101933179100165</v>
+        <v>0.38882148684434215</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" si="4"/>
-        <v>-543.88079786472622</v>
+        <v>-539.90801707151672</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="18"/>
@@ -4361,39 +6024,39 @@
       </c>
       <c r="K18" s="19">
         <f t="shared" si="5"/>
-        <v>543.88079786472622</v>
+        <v>539.90801707151672</v>
       </c>
       <c r="L18" s="19">
         <f>DEGREES(ATAN2(D16,D17))</f>
-        <v>-40.172291931503224</v>
+        <v>-26.859151932501064</v>
       </c>
       <c r="M18" s="19">
         <f>M17</f>
-        <v>0.62367014654999975</v>
+        <v>0.62367014655000008</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="2"/>
       <c r="P18" s="14">
         <f t="shared" si="6"/>
-        <v>-0.7011387622770836</v>
+        <v>-0.46878063551554133</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="28">
         <f>-SIN(P17)</f>
-        <v>0.24817717218939631</v>
+        <v>-0.1209644367549462</v>
       </c>
       <c r="S18" s="28">
         <f>COS(P17)*SIN(P16)</f>
-        <v>0.83991036992977064</v>
+        <v>0.77245649100935454</v>
       </c>
       <c r="T18" s="29">
         <f>COS(P16)*COS(P17)</f>
-        <v>0.48265791373239764</v>
+        <v>0.62344091503371346</v>
       </c>
     </row>
     <row r="19" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4413,9 +6076,33 @@
       <c r="H19" s="2"/>
       <c r="I19" s="14"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="K19" s="39">
+        <v>115.938</v>
+      </c>
+      <c r="L19" s="39">
+        <v>51.093000000000004</v>
+      </c>
+      <c r="M19" s="39">
+        <v>0.62366999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="39">
+        <v>-298.58199999999999</v>
+      </c>
+      <c r="L20" s="39">
+        <v>6.9480000000000004</v>
+      </c>
+      <c r="M20" s="40"/>
+    </row>
+    <row r="21" spans="2:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="39">
+        <v>539.90899999999999</v>
+      </c>
+      <c r="L21" s="39">
+        <v>-26.859000000000002</v>
+      </c>
+      <c r="M21" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4725,10 +6412,10 @@
       <c r="E6" s="25">
         <v>32</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="3">
@@ -4757,8 +6444,8 @@
       <c r="E7" s="25">
         <v>-143</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="3">
         <v>0</v>
       </c>
@@ -4785,8 +6472,8 @@
       <c r="E8" s="25">
         <v>225</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="32"/>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -4805,8 +6492,8 @@
     </row>
     <row r="9" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="24"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -4853,10 +6540,10 @@
       <c r="F11" s="25">
         <v>75</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J11" s="3">
@@ -4871,10 +6558,10 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="30" t="s">
+      <c r="O11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="9">
@@ -4891,10 +6578,10 @@
       <c r="T11" s="3">
         <v>0</v>
       </c>
-      <c r="V11" s="30" t="s">
+      <c r="V11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="31" t="s">
+      <c r="W11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="X11" s="9">
@@ -4926,8 +6613,8 @@
       <c r="F12" s="25">
         <v>-11</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="3">
         <v>0</v>
       </c>
@@ -4942,8 +6629,8 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="30"/>
-      <c r="P12" s="31"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="32"/>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
@@ -4956,8 +6643,8 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-      <c r="V12" s="30"/>
-      <c r="W12" s="31"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="32"/>
       <c r="X12" s="9">
         <f>-Y11</f>
         <v>0.79863551004729272</v>
@@ -4987,8 +6674,8 @@
       <c r="F13" s="25">
         <v>127</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="3">
         <v>0</v>
       </c>
@@ -5003,8 +6690,8 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="9">
         <f>-S11</f>
         <v>0.1908089953765448</v>
@@ -5019,8 +6706,8 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="W13" s="31"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="32"/>
       <c r="X13" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +6722,8 @@
       </c>
     </row>
     <row r="14" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -5049,8 +6736,8 @@
       <c r="M14" s="3">
         <v>1</v>
       </c>
-      <c r="O14" s="30"/>
-      <c r="P14" s="31"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="32"/>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
@@ -5063,8 +6750,8 @@
       <c r="T14" s="3">
         <v>1</v>
       </c>
-      <c r="V14" s="30"/>
-      <c r="W14" s="31"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="32"/>
       <c r="X14" s="3">
         <v>0</v>
       </c>
@@ -5101,19 +6788,19 @@
     <row r="16" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H16" s="15"/>
       <c r="I16" s="8"/>
-      <c r="J16" s="33" t="s">
+      <c r="J16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
       <c r="V16" s="15"/>
       <c r="W16" s="8"/>
       <c r="X16" s="5"/>
@@ -5142,10 +6829,10 @@
       <c r="AA17" s="5"/>
     </row>
     <row r="18" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J18" s="9">
@@ -5164,11 +6851,11 @@
         <v>0</v>
       </c>
       <c r="N18" s="11"/>
-      <c r="O18" s="32" t="str">
+      <c r="O18" s="34" t="str">
         <f>H18&amp;" x "&amp;O23</f>
         <v>RxRyRz x SxT</v>
       </c>
-      <c r="P18" s="35" t="s">
+      <c r="P18" s="37" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="13">
@@ -5195,8 +6882,8 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="9">
         <f>COS(E12)*SIN(E13)</f>
         <v>0.78396232632901253</v>
@@ -5213,8 +6900,8 @@
         <v>0</v>
       </c>
       <c r="N19" s="11"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="37"/>
       <c r="Q19" s="13">
         <f>Q24*J18+R24*J19+S24*J20+T24*J21</f>
         <v>0.4703773957974075</v>
@@ -5239,8 +6926,8 @@
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="9">
         <f>-SIN(E12)</f>
         <v>0.1908089953765448</v>
@@ -5257,8 +6944,8 @@
         <v>0</v>
       </c>
       <c r="N20" s="11"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="37"/>
       <c r="Q20" s="13">
         <f>Q25*J18+R25*J19+S25*J20+T25*J21</f>
         <v>0.11448539722592688</v>
@@ -5283,8 +6970,8 @@
       <c r="AA20" s="5"/>
     </row>
     <row r="21" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="3">
         <v>0</v>
       </c>
@@ -5298,8 +6985,8 @@
         <v>1</v>
       </c>
       <c r="N21" s="11"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="37"/>
       <c r="Q21" s="13">
         <f>Q26*J18+R26*J19+S26*J20+T26*J21</f>
         <v>0</v>
@@ -5356,10 +7043,10 @@
       <c r="E23" s="25">
         <v>0.6</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J23" s="9">
@@ -5375,10 +7062,10 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="30" t="s">
+      <c r="O23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="32" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="6">
@@ -5401,8 +7088,8 @@
         <f>E23</f>
         <v>0.6</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -5416,8 +7103,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="32"/>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -5438,8 +7125,8 @@
         <f>E24</f>
         <v>0.6</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="3">
         <v>0</v>
       </c>
@@ -5453,8 +7140,8 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="32"/>
       <c r="Q25" s="3">
         <v>0</v>
       </c>
@@ -5471,8 +7158,8 @@
       </c>
     </row>
     <row r="26" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -5485,8 +7172,8 @@
       <c r="M26" s="3">
         <v>1</v>
       </c>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -5501,18 +7188,18 @@
       </c>
     </row>
     <row r="29" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J29" s="34" t="s">
+      <c r="J29" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
     </row>
     <row r="30" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q30" s="4" t="s">
@@ -5526,10 +7213,10 @@
       </c>
     </row>
     <row r="31" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="30" t="s">
+      <c r="H31" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="31" t="s">
+      <c r="I31" s="32" t="s">
         <v>11</v>
       </c>
       <c r="J31" s="9">
@@ -5583,8 +7270,8 @@
       </c>
     </row>
     <row r="32" spans="2:27" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="9">
         <f t="shared" ref="J32:J34" si="2">Q19</f>
         <v>0.4703773957974075</v>
@@ -5636,8 +7323,8 @@
       </c>
     </row>
     <row r="33" spans="8:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="9">
         <f t="shared" si="2"/>
         <v>0.11448539722592688</v>
@@ -5689,8 +7376,8 @@
       </c>
     </row>
     <row r="34" spans="8:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5783,7 +7470,7 @@
         <f xml:space="preserve"> D1 * C2 * B3 - C1 * D2 * B3 - D1 * B2 * C3 + B1 * D2 * C3 + C1 * B2 * D3 - B1 * C2 * D3</f>
         <v>-31.708383934172307</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="38" t="s">
         <v>34</v>
       </c>
       <c r="L1" s="21">
@@ -5836,7 +7523,7 @@
         <f xml:space="preserve"> C1 * D2 * A3 - D1 * C2 * A3 + D1 * A2 * C3 - A1 * D2 * C3 - C1 * A2 * D3 + A1 * C2 * D3</f>
         <v>91.295233867388617</v>
       </c>
-      <c r="K2" s="36"/>
+      <c r="K2" s="38"/>
       <c r="L2" s="21">
         <f t="shared" ref="L2:L4" si="1">F2/$A$5</f>
         <v>-0.15963859349839779</v>
@@ -5887,7 +7574,7 @@
         <f xml:space="preserve"> D1 * B2 * A3 - B1 * D2 * A3 - D1 * A2 * B3 + A1 * D2 * B3 + B1 * A2 * D3 - A1 * B2 * D3</f>
         <v>1.9129718717068602</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="38"/>
       <c r="L3" s="21">
         <f t="shared" si="1"/>
         <v>1.3352388350939641</v>
@@ -5938,7 +7625,7 @@
         <f xml:space="preserve"> B1 * C2 * A3 - C1 * B2 * A3 + C1 * A2 * B3 - A1 * C2 * B3 - B1 * A2 * C3 + A1 * B2 * C3</f>
         <v>0.21599999999999991</v>
       </c>
-      <c r="K4" s="36"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5967,51 +7654,51 @@
         <f>D1 * C2 * B3 * A4 - C1 * D2 * B3 * A4 - D1 * B2 * C3 * A4 + B1 * D2 * C3 * A4</f>
         <v>0</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="9">
         <f>CxB!K4</f>
-        <v>0.46164232583303161</v>
+        <v>0.55230287391916888</v>
       </c>
       <c r="G6" s="9">
         <f>CxB!L4</f>
-        <v>9.7911723935861755E-2</v>
+        <v>0.22934198909562262</v>
       </c>
       <c r="H6" s="9">
         <f>CxB!M4</f>
-        <v>-0.40775496197235295</v>
+        <v>-0.17699785082307729</v>
       </c>
       <c r="I6" s="9">
         <f>CxB!N4</f>
-        <v>-119.5737689691159</v>
+        <v>-115.93959788053745</v>
       </c>
       <c r="J6" s="11"/>
-      <c r="K6" s="32" t="str">
+      <c r="K6" s="34" t="str">
         <f>D6&amp;" x "&amp;K11</f>
         <v>CxB x Inv(D)</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="37" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="13">
         <f>M11*F6+N11*F7+O11*F8+P11*F9</f>
-        <v>-0.91453880501588047</v>
+        <v>-0.93324996044266317</v>
       </c>
       <c r="N6" s="13">
         <f>M11*G6+N11*G7+O11*G8+P11*G9</f>
-        <v>0.49353505347057369</v>
+        <v>0.34932253295789834</v>
       </c>
       <c r="O6" s="13">
         <f>M11*H6+N11*H7+O11*H8+P11*H9</f>
-        <v>2.233238427279835E-2</v>
+        <v>-0.29576187985105595</v>
       </c>
       <c r="P6" s="13">
         <f>M11*I6+N11*I7+O11*I8+P11*I9</f>
-        <v>174.67417627795103</v>
+        <v>185.78463134328521</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6019,42 +7706,42 @@
         <f>C1 * B2 * D3 * A4 - B1 * C2 * D3 * A4 - D1 * C2 * A3 * B4 + C1 * D2 * A3 * B4</f>
         <v>0</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="9">
         <f>CxB!K5</f>
-        <v>-0.389735489355724</v>
+        <v>-0.27970431830041836</v>
       </c>
       <c r="G7" s="9">
         <f>CxB!L5</f>
-        <v>0.32401079528563625</v>
+        <v>0.32291776376026682</v>
       </c>
       <c r="H7" s="9">
         <f>CxB!M5</f>
-        <v>-0.36343872189507032</v>
+        <v>-0.45437216449719409</v>
       </c>
       <c r="I7" s="9">
         <f>CxB!N5</f>
-        <v>288.30663430134041</v>
+        <v>298.58154937087994</v>
       </c>
       <c r="J7" s="11"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="35"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="13">
         <f>M12*F6+N12*F7+O12*F8+P12*F9</f>
-        <v>0.36769131696644958</v>
+        <v>-6.6159611332130511E-2</v>
       </c>
       <c r="N7" s="13">
         <f>M12*G6+N12*G7+O12*G8+P12*G9</f>
-        <v>0.6485710640328195</v>
+        <v>0.56166009391403171</v>
       </c>
       <c r="O7" s="13">
         <f>M12*H6+N12*H7+O12*H8+P12*H9</f>
-        <v>0.72430344510998934</v>
+        <v>0.87213396620258266</v>
       </c>
       <c r="P7" s="13">
         <f>M12*I6+N12*I7+O12*I8+P12*I9</f>
-        <v>-563.31575692332797</v>
+        <v>-562.80580300823681</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6062,42 +7749,42 @@
         <f>D1 * A2 * C3 * B4 - A1 * D2 * C3 * B4 - C1 * A2 * D3 * B4 + A1 * C2 * D3 * B4</f>
         <v>0</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="9">
         <f>CxB!K6</f>
-        <v>0.15478069334972536</v>
+        <v>-7.5441907998295504E-2</v>
       </c>
       <c r="G8" s="9">
         <f>CxB!L6</f>
-        <v>0.52382702350296473</v>
+        <v>0.48175805295130281</v>
       </c>
       <c r="H8" s="9">
         <f>CxB!M6</f>
-        <v>0.30101933179100165</v>
+        <v>0.38882148684434215</v>
       </c>
       <c r="I8" s="9">
         <f>CxB!N6</f>
-        <v>-543.88079786472622</v>
+        <v>-539.90801707151672</v>
       </c>
       <c r="J8" s="11"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="35"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="13">
         <f>M13*F6+N13*F7+O13*F8+P13*F9</f>
-        <v>0.32996769511421536</v>
+        <v>0.45290642238053325</v>
       </c>
       <c r="N8" s="13">
         <f>M13*G6+N13*G7+O13*G8+P13*G9</f>
-        <v>0.6451631856875587</v>
+        <v>0.80185317679968338</v>
       </c>
       <c r="O8" s="13">
         <f>M13*H6+N13*H7+O13*H8+P13*H9</f>
-        <v>-0.74521312004411067</v>
+        <v>-0.48204156013159988</v>
       </c>
       <c r="P8" s="13">
         <f>M13*I6+N13*I7+O13*I8+P13*I9</f>
-        <v>-120.73030874582287</v>
+        <v>-104.91617555334045</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -6105,8 +7792,8 @@
         <f>D1 * B2 * A3 * C4 - B1 * D2 * A3 * C4 - D1 * A2 * B3 * C4 + A1 * D2 * B3 * C4</f>
         <v>0</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="9">
         <f>CxB!K7</f>
         <v>0</v>
@@ -6124,8 +7811,8 @@
         <v>1</v>
       </c>
       <c r="J9" s="11"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="35"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="13">
         <f>M14*F6+N14*F7+O14*F8+P14*F9</f>
         <v>0</v>
@@ -6174,10 +7861,10 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="32" t="s">
         <v>11</v>
       </c>
       <c r="M11" s="9">
@@ -6206,8 +7893,8 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="9">
         <f t="shared" ref="M12:P12" si="3">L2</f>
         <v>-0.15963859349839779</v>
@@ -6233,8 +7920,8 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="9">
         <f t="shared" ref="M13:P13" si="4">L3</f>
         <v>1.3352388350939641</v>
@@ -6260,8 +7947,8 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="9">
         <f t="shared" ref="M14:P14" si="5">L4</f>
         <v>0</v>
@@ -6282,18 +7969,18 @@
     <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="14"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="4:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="14"/>
@@ -6311,27 +7998,27 @@
       </c>
     </row>
     <row r="18" spans="4:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="32" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="9">
         <f>M6</f>
-        <v>-0.91453880501588047</v>
+        <v>-0.93324996044266317</v>
       </c>
       <c r="G18" s="9">
         <f t="shared" ref="G18:I18" si="6">N6</f>
-        <v>0.49353505347057369</v>
+        <v>0.34932253295789834</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="6"/>
-        <v>2.233238427279835E-2</v>
+        <v>-0.29576187985105595</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="6"/>
-        <v>174.67417627795103</v>
+        <v>185.78463134328521</v>
       </c>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
@@ -6340,53 +8027,53 @@
       </c>
       <c r="M18" s="19">
         <f>-I18</f>
-        <v>-174.67417627795103</v>
+        <v>-185.78463134328521</v>
       </c>
       <c r="N18" s="19">
         <f>DEGREES(ATAN2(H20,G20))</f>
-        <v>139.11584636243788</v>
+        <v>121.01257543885576</v>
       </c>
       <c r="O18" s="19">
         <f>(F18+G18+H18+F19+G19+H19+F20+G20+H20)/(T18+U18+V18+T19+U20+U19+V19+V20+T20)</f>
-        <v>1.0394502442500007</v>
+        <v>1.0394502442500002</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="14">
         <f>RADIANS(N18)</f>
-        <v>2.4280295607231177</v>
+        <v>2.1120678777260551</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="28">
         <f>COS(R19)*COS(R20)</f>
-        <v>-0.87982932331287544</v>
+        <v>-0.89783033445341653</v>
       </c>
       <c r="U18" s="28">
         <f>COS(R20)*SIN(R18)*SIN(R19)-COS(R18)*SIN(R20)</f>
-        <v>0.47480392274733313</v>
+        <v>0.33606469851757736</v>
       </c>
       <c r="V18" s="29">
         <f>COS(R18)*COS(R20)*SIN(R19) + SIN(R18)*SIN(R20)</f>
-        <v>2.1484803526032797E-2</v>
+        <v>-0.2845368323179901</v>
       </c>
     </row>
     <row r="19" spans="4:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="9">
         <f t="shared" ref="F19:F21" si="7">M7</f>
-        <v>0.36769131696644958</v>
+        <v>-6.6159611332130511E-2</v>
       </c>
       <c r="G19" s="9">
         <f t="shared" ref="G19:G21" si="8">N7</f>
-        <v>0.6485710640328195</v>
+        <v>0.56166009391403171</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" ref="H19:H21" si="9">O7</f>
-        <v>0.72430344510998934</v>
+        <v>0.87213396620258266</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" ref="I19:I21" si="10">P7</f>
-        <v>-563.31575692332797</v>
+        <v>-562.80580300823681</v>
       </c>
       <c r="J19" s="16"/>
       <c r="K19" s="18"/>
@@ -6395,53 +8082,53 @@
       </c>
       <c r="M19" s="19">
         <f t="shared" ref="M19:M20" si="11">-I19</f>
-        <v>563.31575692332797</v>
+        <v>562.80580300823681</v>
       </c>
       <c r="N19" s="19">
         <f>DEGREES(ATAN2(SQRT(G20*G20 + H20*H20),-F20))</f>
-        <v>-18.508445323450189</v>
+        <v>-25.830943644672445</v>
       </c>
       <c r="O19" s="19">
         <f>O18</f>
-        <v>1.0394502442500007</v>
+        <v>1.0394502442500002</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="14">
         <f t="shared" ref="R19:R20" si="12">RADIANS(N19)</f>
-        <v>-0.32303331031955268</v>
+        <v>-0.4508350154966384</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="28">
         <f>COS(R19)*SIN(R20)</f>
-        <v>0.35373633225874296</v>
+        <v>-6.3648656295104286E-2</v>
       </c>
       <c r="U19" s="28">
         <f>COS(R18)*COS(R20) + SIN(R18)*SIN(R19)*SIN(R20)</f>
-        <v>0.62395585322199454</v>
+        <v>0.54034341424325605</v>
       </c>
       <c r="V19" s="29">
         <f>-COS(R20)*SIN(R18) + COS(R18)*SIN(R19)*SIN(R20)</f>
-        <v>0.69681396403211149</v>
+        <v>0.83903387490361125</v>
       </c>
     </row>
     <row r="20" spans="4:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="9">
         <f t="shared" si="7"/>
-        <v>0.32996769511421536</v>
+        <v>0.45290642238053325</v>
       </c>
       <c r="G20" s="9">
         <f t="shared" si="8"/>
-        <v>0.6451631856875587</v>
+        <v>0.80185317679968338</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="9"/>
-        <v>-0.74521312004411067</v>
+        <v>-0.48204156013159988</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="10"/>
-        <v>-120.73030874582287</v>
+        <v>-104.91617555334045</v>
       </c>
       <c r="J20" s="16"/>
       <c r="K20" s="18"/>
@@ -6450,38 +8137,38 @@
       </c>
       <c r="M20" s="19">
         <f t="shared" si="11"/>
-        <v>120.73030874582287</v>
+        <v>104.91617555334045</v>
       </c>
       <c r="N20" s="19">
         <f>DEGREES(ATAN2(F18,F19))</f>
-        <v>158.09735325813818</v>
+        <v>-175.94499267114756</v>
       </c>
       <c r="O20" s="19">
         <f>O19</f>
-        <v>1.0394502442500007</v>
+        <v>1.0394502442500002</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="14">
         <f t="shared" si="12"/>
-        <v>2.7593193530430962</v>
+        <v>-3.0708194245088176</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="28">
         <f>-SIN(R19)</f>
-        <v>0.31744443463217298</v>
+        <v>0.43571726966818036</v>
       </c>
       <c r="U20" s="28">
         <f>COS(R19)*SIN(R18)</f>
-        <v>0.62067731404793358</v>
+        <v>0.77142045156596084</v>
       </c>
       <c r="V20" s="29">
         <f>COS(R18)*COS(R19)</f>
-        <v>-0.71693005429212053</v>
+        <v>-0.46374664184086045</v>
       </c>
     </row>
     <row r="21" spans="4:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="9">
         <f t="shared" si="7"/>
         <v>0</v>

--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -5,20 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="C ZYX" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="C" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="B ZYX" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="B" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Cref" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="CxB" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="CxB ZYX" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="INVERT" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="D" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="New C" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Quats" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="CxB" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="CxB ZYX" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="INVERT" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="D" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="New C" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="45">
   <si>
     <t xml:space="preserve">ZYX</t>
   </si>
@@ -116,12 +114,6 @@
     <t xml:space="preserve">γ</t>
   </si>
   <si>
-    <t xml:space="preserve">MULTIPLICATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RxRyRz</t>
-  </si>
-  <si>
     <t xml:space="preserve">Scale</t>
   </si>
   <si>
@@ -129,6 +121,12 @@
   </si>
   <si>
     <t xml:space="preserve">s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MULTIPLICATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RxRyRz</t>
   </si>
   <si>
     <t xml:space="preserve">S</t>
@@ -165,45 +163,6 @@
   </si>
   <si>
     <t xml:space="preserve">Inv(D)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quaternion QuatAroundX = Quaternion( Vector3(1.0,0.0,0.0), EulerAngle.x );
-Quaternion QuatAroundY = Quaternion( Vector3(0.0,1.0,0.0), EulerAngle.y );
-Quaternion QuatAroundZ = Quaternion( Vector3(0.0,0.0,1.0), EulerAngle.z );
-Quaternion finalOrientation = QuatAroundX * QuatAroundY * QuatAroundZ;</t>
   </si>
 </sst>
 </file>
@@ -322,6 +281,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF66CCFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF92D050"/>
@@ -374,13 +340,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFEEEEEE"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -535,7 +494,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -644,6 +603,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,7 +615,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -672,11 +635,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -684,15 +643,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,36 +663,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -756,13 +707,13 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF806000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF404040"/>
       <rgbColor rgb="FFF2F2F2"/>
-      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -784,7 +735,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFD966"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FF66CCFF"/>
       <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -809,10 +760,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A7:I34"/>
+  <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -820,283 +771,418 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>56.154945</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <f aca="false">RADIANS(C3)</f>
+        <v>0.980088681526327</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>-2.368717</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">RADIANS(C4)</f>
+        <v>-0.0413419106979625</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>48.837997</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">RADIANS(C5)</f>
+        <v>0.852383847729113</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="5" t="n">
+        <f aca="false">COS(A8)</f>
+        <v>0.658190334241375</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <f aca="false">-SIN(A8)</f>
+        <v>-0.752851568312922</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="2" t="n">
+        <f aca="false">D5</f>
+        <v>0.852383847729113</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <f aca="false">SIN(A8)</f>
+        <v>0.752851568312922</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <f aca="false">COS(A8)</f>
+        <v>0.658190334241375</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>56.154945</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <f aca="false">RADIANS(C9)</f>
-        <v>0.980088681526327</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>-2.368717</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <f aca="false">RADIANS(C10)</f>
-        <v>-0.0413419106979625</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>48.837997</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <f aca="false">RADIANS(C11)</f>
-        <v>0.852383847729113</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5" t="n">
+        <f aca="false">COS(A12)</f>
+        <v>0.999145544919902</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <f aca="false">SIN(A12)</f>
+        <v>-0.0413301350918769</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="G11" s="5" t="n">
+        <f aca="false">C7*G7+D7*G8+E7*G9</f>
+        <v>0.658190334241375</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">C7*H7+D7*H8+E7*H9</f>
+        <v>-0.752851568312922</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">C7*I7+D7*I8+E7*I9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>7</v>
+      <c r="A12" s="2" t="n">
+        <f aca="false">D4</f>
+        <v>-0.0413419106979625</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">C8*G7+D8*G8+E8*G9</f>
+        <v>0.752851568312922</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">C8*H7+D8*H8+E8*H9</f>
+        <v>0.658190334241375</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">C8*I7+D8*I8+E8*I9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="n">
-        <f aca="false">COS(A14)</f>
-        <v>0.658190334241375</v>
+        <f aca="false">-SIN(A12)</f>
+        <v>0.0413301350918769</v>
       </c>
       <c r="D13" s="5" t="n">
-        <f aca="false">-SIN(A14)</f>
-        <v>-0.752851568312922</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0</v>
+        <f aca="false">COS(A12)</f>
+        <v>0.999145544919902</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="5" t="n">
-        <v>1</v>
+        <f aca="false">C9*G7+D9*G8+E9*G9</f>
+        <v>0</v>
       </c>
       <c r="H13" s="5" t="n">
+        <f aca="false">C9*H7+D9*H8+E9*H9</f>
         <v>0</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>0</v>
+        <f aca="false">C9*I7+D9*I8+E9*I9</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <f aca="false">D11</f>
-        <v>0.852383847729113</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <f aca="false">SIN(A14)</f>
-        <v>0.752851568312922</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <f aca="false">COS(A14)</f>
-        <v>0.658190334241375</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="5" t="n">
-        <v>0</v>
+        <f aca="false">C11*G11+D11*G12+E11*G13</f>
+        <v>0.657627940166611</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0</v>
+        <f aca="false">C11*H11+D11*H12+E11*H13</f>
+        <v>-0.752208290465817</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1</v>
+        <f aca="false">C11*I11+D11*I12+E11*I13</f>
+        <v>-0.0413301350918769</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="2"/>
+      <c r="A16" s="2" t="n">
+        <f aca="false">D3</f>
+        <v>0.980088681526327</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <f aca="false">COS(A16)</f>
+        <v>0.55694889480156</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <f aca="false">-SIN(A16)</f>
+        <v>-0.830546764835864</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <f aca="false">C12*G11+D12*G12+E12*G13</f>
+        <v>0.752851568312922</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">C12*H11+D12*H12+E12*H13</f>
+        <v>0.658190334241375</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">C12*I11+D12*I12+E12*I13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="n">
-        <f aca="false">COS(A18)</f>
-        <v>0.999145544919902</v>
+        <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0</v>
+        <f aca="false">SIN(A16)</f>
+        <v>0.830546764835864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <f aca="false">SIN(A18)</f>
-        <v>-0.0413301350918769</v>
+        <f aca="false">COS(A16)</f>
+        <v>0.55694889480156</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="5" t="n">
-        <f aca="false">C13*G13+D13*G14+E13*G15</f>
-        <v>0.658190334241375</v>
+        <f aca="false">C13*G11+D13*G12+E13*G13</f>
+        <v>0.0272030954303636</v>
       </c>
       <c r="H17" s="5" t="n">
-        <f aca="false">C13*H13+D13*H14+E13*H15</f>
-        <v>-0.752851568312922</v>
+        <f aca="false">C13*H11+D13*H12+E13*H13</f>
+        <v>-0.0311154570225044</v>
       </c>
       <c r="I17" s="5" t="n">
-        <f aca="false">C13*I13+D13*I14+E13*I15</f>
-        <v>0</v>
+        <f aca="false">C13*I11+D13*I12+E13*I13</f>
+        <v>0.999145544919902</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <f aca="false">D10</f>
-        <v>-0.0413419106979625</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <f aca="false">C14*G13+D14*G14+E14*G15</f>
-        <v>0.752851568312922</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <f aca="false">C14*H13+D14*H14+E14*H15</f>
-        <v>0.658190334241375</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <f aca="false">C14*I13+D14*I14+E14*I15</f>
-        <v>0</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="5" t="n">
-        <f aca="false">-SIN(A18)</f>
-        <v>0.0413301350918769</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <f aca="false">COS(A18)</f>
-        <v>0.999145544919902</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="5" t="n">
-        <f aca="false">C15*G13+D15*G14+E15*G15</f>
-        <v>0</v>
+        <f aca="false">C15*G15+D15*G16+E15*G17</f>
+        <v>0.657627940166611</v>
       </c>
       <c r="H19" s="5" t="n">
-        <f aca="false">C15*H13+D15*H14+E15*H15</f>
-        <v>0</v>
+        <f aca="false">C15*H15+D15*H16+E15*H17</f>
+        <v>-0.752208290465817</v>
       </c>
       <c r="I19" s="5" t="n">
-        <f aca="false">C15*I13+D15*I14+E15*I15</f>
-        <v>1</v>
+        <f aca="false">C15*I15+D15*I16+E15*I17</f>
+        <v>-0.0413301350918769</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,100 +1192,60 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="2"/>
+      <c r="G20" s="5" t="n">
+        <f aca="false">C16*G15+D16*G16+E16*G17</f>
+        <v>0.396706406018294</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">C16*H15+D16*H16+E16*H17</f>
+        <v>0.392421221391234</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">C16*I15+D16*I16+E16*I17</f>
+        <v>-0.829837099933391</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="5" t="n">
-        <f aca="false">C17*G17+D17*G18+E17*G19</f>
-        <v>0.657627940166611</v>
+        <f aca="false">C17*G15+D17*G16+E17*G17</f>
+        <v>0.640429168399027</v>
       </c>
       <c r="H21" s="5" t="n">
-        <f aca="false">C17*H17+D17*H18+E17*H19</f>
-        <v>-0.752208290465817</v>
+        <f aca="false">C17*H15+D17*H16+E17*H17</f>
+        <v>0.529328133350481</v>
       </c>
       <c r="I21" s="5" t="n">
-        <f aca="false">C17*I17+D17*I18+E17*I19</f>
-        <v>-0.0413301350918769</v>
+        <f aca="false">C17*I15+D17*I16+E17*I17</f>
+        <v>0.556473006989042</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
-        <f aca="false">D9</f>
-        <v>0.980088681526327</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <f aca="false">COS(A22)</f>
-        <v>0.55694889480156</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <f aca="false">-SIN(A22)</f>
-        <v>-0.830546764835864</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <f aca="false">C18*G17+D18*G18+E18*G19</f>
-        <v>0.752851568312922</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <f aca="false">C18*H17+D18*H18+E18*H19</f>
-        <v>0.658190334241375</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <f aca="false">C18*I17+D18*I18+E18*I19</f>
-        <v>0</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <f aca="false">SIN(A22)</f>
-        <v>0.830546764835864</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <f aca="false">COS(A22)</f>
-        <v>0.55694889480156</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="5" t="n">
-        <f aca="false">C19*G17+D19*G18+E19*G19</f>
-        <v>0.0272030954303636</v>
-      </c>
-      <c r="H23" s="5" t="n">
-        <f aca="false">C19*H17+D19*H18+E19*H19</f>
-        <v>-0.0311154570225044</v>
-      </c>
-      <c r="I23" s="5" t="n">
-        <f aca="false">C19*I17+D19*I18+E19*I19</f>
-        <v>0.999145544919902</v>
-      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
@@ -1209,1187 +1255,88 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="5" t="n">
-        <f aca="false">C21*G21+D21*G22+E21*G23</f>
-        <v>0.657627940166611</v>
-      </c>
-      <c r="H25" s="5" t="n">
-        <f aca="false">C21*H21+D21*H22+E21*H23</f>
-        <v>-0.752208290465817</v>
-      </c>
-      <c r="I25" s="5" t="n">
-        <f aca="false">C21*I21+D21*I22+E21*I23</f>
-        <v>-0.0413301350918769</v>
-      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <f aca="false">DEGREES(D26)</f>
+        <v>43.5679119829393</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <f aca="false">ATAN2(H20*COS(D28)-H19*SIN(D28),I19*SIN(D28)-I20*COS(D28))</f>
+        <v>0.760403512321383</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="5" t="n">
-        <f aca="false">C22*G21+D22*G22+E22*G23</f>
-        <v>0.396706406018294</v>
-      </c>
-      <c r="H26" s="5" t="n">
-        <f aca="false">C22*H21+D22*H22+E22*H23</f>
-        <v>0.392421221391234</v>
-      </c>
-      <c r="I26" s="5" t="n">
-        <f aca="false">C22*I21+D22*I22+E22*I23</f>
-        <v>-0.829837099933391</v>
-      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="n">
+        <f aca="false">DEGREES(D27)</f>
+        <v>-39.8238289541177</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <f aca="false">ATAN2(G19*COS(D28)+G20*SIN(D28),-G21)</f>
+        <v>-0.695056936000403</v>
+      </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="5" t="n">
-        <f aca="false">C23*G21+D23*G22+E23*G23</f>
-        <v>0.640429168399027</v>
-      </c>
-      <c r="H27" s="5" t="n">
-        <f aca="false">C23*H21+D23*H22+E23*H23</f>
-        <v>0.529328133350481</v>
-      </c>
-      <c r="I27" s="5" t="n">
-        <f aca="false">C23*I21+D23*I22+E23*I23</f>
-        <v>0.556473006989042</v>
-      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="6" t="n">
+        <f aca="false">DEGREES(D28)</f>
+        <v>31.09999169182</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <f aca="false">ATAN2(G19,G20)</f>
+        <v>0.54279725236514</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="6" t="n">
-        <f aca="false">DEGREES(D32)</f>
-        <v>43.5679119829393</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <f aca="false">ATAN2(H26*COS(D34)-H25*SIN(D34),I25*SIN(D34)-I26*COS(D34))</f>
-        <v>0.760403512321383</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="6" t="n">
-        <f aca="false">DEGREES(D33)</f>
-        <v>-39.8238289541177</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <f aca="false">ATAN2(G25*COS(D34)+G26*SIN(D34),-G27)</f>
-        <v>-0.695056936000403</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="6" t="n">
-        <f aca="false">DEGREES(D34)</f>
-        <v>31.09999169182</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <f aca="false">ATAN2(G25,G26)</f>
-        <v>0.54279725236514</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:V21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="24"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="8" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="8" width="8.77551020408163"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="n">
-        <f aca="false">D!Q18</f>
-        <v>-0.354454791679942</v>
-      </c>
-      <c r="B1" s="40" t="n">
-        <f aca="false">D!R18</f>
-        <v>-0.0574698936594232</v>
-      </c>
-      <c r="C1" s="40" t="n">
-        <f aca="false">D!S18</f>
-        <v>0.480685980633827</v>
-      </c>
-      <c r="D1" s="40" t="n">
-        <f aca="false">D!T18</f>
-        <v>-32</v>
-      </c>
-      <c r="F1" s="41" t="n">
-        <f aca="false">C2 * D3 * B4 - D2 * C3 * B4 + D2 * B3 * C4 - B2 * D3 * C4 - C2 * B3 * D4 + B2 * C3 * D4</f>
-        <v>-0.212672875007965</v>
-      </c>
-      <c r="G1" s="41" t="n">
-        <f aca="false">D1 * C3 * B4 - C1 * D3 * B4 - D1 * B3 * C4 + B1 * D3 * C4 + C1 * B3 * D4 - B1 * C3 * D4</f>
-        <v>0.282226437478445</v>
-      </c>
-      <c r="H1" s="41" t="n">
-        <f aca="false">C1 * D2 * B4 - D1 * C2 * B4 + D1 * B2 * C4 - B1 * D2 * C4 - C1 * B2 * D4 + B1 * C2 * D4</f>
-        <v>0.0686912383355562</v>
-      </c>
-      <c r="I1" s="41" t="n">
-        <f aca="false">D1 * C2 * B3 - C1 * D2 * B3 - D1 * B2 * C3 + B1 * D2 * C3 + C1 * B2 * D3 - B1 * C2 * D3</f>
-        <v>-31.7083839341723</v>
-      </c>
-      <c r="K1" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="42" t="n">
-        <f aca="false">F1/$A$5</f>
-        <v>-0.984596643555393</v>
-      </c>
-      <c r="M1" s="42" t="n">
-        <f aca="false">G1/$A$5</f>
-        <v>1.30660387721502</v>
-      </c>
-      <c r="N1" s="42" t="n">
-        <f aca="false">H1/$A$5</f>
-        <v>0.318014992294241</v>
-      </c>
-      <c r="O1" s="42" t="n">
-        <f aca="false">I1/$A$5</f>
-        <v>-146.798073769316</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="n">
-        <f aca="false">D!Q19</f>
-        <v>0.470377395797408</v>
-      </c>
-      <c r="B2" s="40" t="n">
-        <f aca="false">D!R19</f>
-        <v>-0.18177334399779</v>
-      </c>
-      <c r="C2" s="40" t="n">
-        <f aca="false">D!S19</f>
-        <v>0.325120834359642</v>
-      </c>
-      <c r="D2" s="40" t="n">
-        <f aca="false">D!T19</f>
-        <v>143</v>
-      </c>
-      <c r="F2" s="41" t="n">
-        <f aca="false">D2 * C3 * A4 - C2 * D3 * A4 - D2 * A3 * C4 + A2 * D3 * C4 + C2 * A3 * D4 - A2 * C3 * D4</f>
-        <v>-0.0344819361956539</v>
-      </c>
-      <c r="G2" s="41" t="n">
-        <f aca="false">C1 * D3 * A4 - D1 * C3 * A4 + D1 * A3 * C4 - A1 * D3 * C4 - C1 * A3 * D4 + A1 * C3 * D4</f>
-        <v>-0.109064006398674</v>
-      </c>
-      <c r="H2" s="41" t="n">
-        <f aca="false">D1 * C2 * A4 - C1 * D2 * A4 - D1 * A2 * C4 + A1 * D2 * C4 + C1 * A2 * D4 - A1 * C2 * D4</f>
-        <v>0.341344457380618</v>
-      </c>
-      <c r="I2" s="41" t="n">
-        <f aca="false">C1 * D2 * A3 - D1 * C2 * A3 + D1 * A2 * C3 - A1 * D2 * C3 - C1 * A2 * D3 + A1 * C2 * D3</f>
-        <v>91.2952338673886</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="42" t="n">
-        <f aca="false">F2/$A$5</f>
-        <v>-0.159638593498398</v>
-      </c>
-      <c r="M2" s="42" t="n">
-        <f aca="false">G2/$A$5</f>
-        <v>-0.504925955549417</v>
-      </c>
-      <c r="N2" s="42" t="n">
-        <f aca="false">H2/$A$5</f>
-        <v>1.58029841379916</v>
-      </c>
-      <c r="O2" s="42" t="n">
-        <f aca="false">I2/$A$5</f>
-        <v>422.663119756429</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="n">
-        <f aca="false">D!Q20</f>
-        <v>0.114485397225927</v>
-      </c>
-      <c r="B3" s="40" t="n">
-        <f aca="false">D!R20</f>
-        <v>0.568907428967697</v>
-      </c>
-      <c r="C3" s="40" t="n">
-        <f aca="false">D!S20</f>
-        <v>0.152438286159961</v>
-      </c>
-      <c r="D3" s="40" t="n">
-        <f aca="false">D!T20</f>
-        <v>-225</v>
-      </c>
-      <c r="F3" s="41" t="n">
-        <f aca="false">B2 * D3 * A4 - D2 * B3 * A4 + D2 * A3 * B4 - A2 * D3 * B4 - B2 * A3 * D4 + A2 * B3 * D4</f>
-        <v>0.288411588380296</v>
-      </c>
-      <c r="G3" s="41" t="n">
-        <f aca="false">D1 * B3 * A4 - B1 * D3 * A4 - D1 * A3 * B4 + A1 * D3 * B4 + B1 * A3 * D4 - A1 * B3 * D4</f>
-        <v>0.195072500615786</v>
-      </c>
-      <c r="H3" s="41" t="n">
-        <f aca="false">B1 * D2 * A4 - D1 * B2 * A4 + D1 * A2 * B4 - A1 * D2 * B4 - B1 * A2 * D4 + A1 * B2 * D4</f>
-        <v>0.0914629716959765</v>
-      </c>
-      <c r="I3" s="41" t="n">
-        <f aca="false">D1 * B2 * A3 - B1 * D2 * A3 - D1 * A2 * B3 + A1 * D2 * B3 + B1 * A2 * D3 - A1 * B2 * D3</f>
-        <v>1.91297187170687</v>
-      </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="42" t="n">
-        <f aca="false">F3/$A$5</f>
-        <v>1.33523883509396</v>
-      </c>
-      <c r="M3" s="42" t="n">
-        <f aca="false">G3/$A$5</f>
-        <v>0.903113428776785</v>
-      </c>
-      <c r="N3" s="42" t="n">
-        <f aca="false">H3/$A$5</f>
-        <v>0.423439683777669</v>
-      </c>
-      <c r="O3" s="42" t="n">
-        <f aca="false">I3/$A$5</f>
-        <v>8.85635125790215</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
-        <f aca="false">D!Q21</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="40" t="n">
-        <f aca="false">D!R21</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="40" t="n">
-        <f aca="false">D!S21</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="40" t="n">
-        <f aca="false">D!T21</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="41" t="n">
-        <f aca="false">C2 * B3 * A4 - B2 * C3 * A4 - C2 * A3 * B4 + A2 * C3 * B4 + B2 * A3 * C4 - A2 * B3 * C4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="41" t="n">
-        <f aca="false">B1 * C3 * A4 - C1 * B3 * A4 + C1 * A3 * B4 - A1 * C3 * B4 - B1 * A3 * C4 + A1 * B3 * C4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="41" t="n">
-        <f aca="false">C1 * B2 * A4 - B1 * C2 * A4 - C1 * A2 * B4 + A1 * C2 * B4 + B1 * A2 * C4 - A1 * B2 * C4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="41" t="n">
-        <f aca="false">B1 * C2 * A3 - C1 * B2 * A3 + C1 * A2 * B3 - A1 * C2 * B3 - B1 * A2 * C3 + A1 * B2 * C3</f>
-        <v>0.216</v>
-      </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="42" t="n">
-        <f aca="false">F4/$A$5</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="42" t="n">
-        <f aca="false">G4/$A$5</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="42" t="n">
-        <f aca="false">H4/$A$5</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="42" t="n">
-        <f aca="false">I4/$A$5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="n">
-        <f aca="false">SUM(A6:A11)</f>
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
-        <f aca="false">D1 * C2 * B3 * A4 - C1 * D2 * B3 * A4 - D1 * B2 * C3 * A4 + B1 * D2 * C3 * A4</f>
-        <v>-0</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="15" t="n">
-        <f aca="false">CxB!K4</f>
-        <v>0.279443782524596</v>
-      </c>
-      <c r="G6" s="15" t="n">
-        <f aca="false">CxB!L4</f>
-        <v>-0.654513220356938</v>
-      </c>
-      <c r="H6" s="15" t="n">
-        <f aca="false">CxB!M4</f>
-        <v>0.109195314855247</v>
-      </c>
-      <c r="I6" s="15" t="n">
-        <f aca="false">CxB!N4</f>
-        <v>91.7321201790691</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23" t="str">
-        <f aca="false">D6&amp;" x "&amp;K11</f>
-        <v>CxB x Inv(D)</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="25" t="n">
-        <f aca="false">M11*F6+N11*F7+O11*F8+P11*F9</f>
-        <v>0.518876139448464</v>
-      </c>
-      <c r="N6" s="25" t="n">
-        <f aca="false">M11*G6+N11*G7+O11*G8+P11*G9</f>
-        <v>0.901555187383345</v>
-      </c>
-      <c r="O6" s="25" t="n">
-        <f aca="false">M11*H6+N11*H7+O11*H8+P11*H9</f>
-        <v>-0.598302428553687</v>
-      </c>
-      <c r="P6" s="25" t="n">
-        <f aca="false">M11*I6+N11*I7+O11*I8+P11*I9</f>
-        <v>-278.020306151136</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
-        <f aca="false">C1 * B2 * D3 * A4 - B1 * C2 * D3 * A4 - D1 * C2 * A3 * B4 + C1 * D2 * A3 * B4</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15" t="n">
-        <f aca="false">CxB!K5</f>
-        <v>0.502106312369551</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <f aca="false">CxB!L5</f>
-        <v>0.131106851150862</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <f aca="false">CxB!M5</f>
-        <v>-0.499099433640188</v>
-      </c>
-      <c r="I7" s="15" t="n">
-        <f aca="false">CxB!N5</f>
-        <v>70.3762836482462</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25" t="n">
-        <f aca="false">M12*F6+N12*F7+O12*F8+P12*F9</f>
-        <v>0.38742968535522</v>
-      </c>
-      <c r="N7" s="25" t="n">
-        <f aca="false">M12*G6+N12*G7+O12*G8+P12*G9</f>
-        <v>0.464742773524815</v>
-      </c>
-      <c r="O7" s="25" t="n">
-        <f aca="false">M12*H6+N12*H7+O12*H8+P12*H9</f>
-        <v>1.03629744444441</v>
-      </c>
-      <c r="P7" s="25" t="n">
-        <f aca="false">M12*I6+N12*I7+O12*I8+P12*I9</f>
-        <v>-287.71643314808</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
-        <f aca="false">D1 * A2 * C3 * B4 - A1 * D2 * C3 * B4 - C1 * A2 * D3 * B4 + A1 * C2 * D3 * B4</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15" t="n">
-        <f aca="false">CxB!K6</f>
-        <v>0.433820727359812</v>
-      </c>
-      <c r="G8" s="15" t="n">
-        <f aca="false">CxB!L6</f>
-        <v>0.269858181197636</v>
-      </c>
-      <c r="H8" s="15" t="n">
-        <f aca="false">CxB!M6</f>
-        <v>0.507322519265316</v>
-      </c>
-      <c r="I8" s="15" t="n">
-        <f aca="false">CxB!N6</f>
-        <v>-417.769674528886</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25" t="n">
-        <f aca="false">M13*F6+N13*F7+O13*F8+P13*F9</f>
-        <v>1.01028005563636</v>
-      </c>
-      <c r="N8" s="25" t="n">
-        <f aca="false">M13*G6+N13*G7+O13*G8+P13*G9</f>
-        <v>-0.64125844911287</v>
-      </c>
-      <c r="O8" s="25" t="n">
-        <f aca="false">M13*H6+N13*H7+O13*H8+P13*H9</f>
-        <v>-0.0901210886793067</v>
-      </c>
-      <c r="P8" s="25" t="n">
-        <f aca="false">M13*I6+N13*I7+O13*I8+P13*I9</f>
-        <v>17.998148502226</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
-        <f aca="false">D1 * B2 * A3 * C4 - B1 * D2 * A3 * C4 - D1 * A2 * B3 * C4 + A1 * D2 * B3 * C4</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15" t="n">
-        <f aca="false">CxB!K7</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="15" t="n">
-        <f aca="false">CxB!L7</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="15" t="n">
-        <f aca="false">CxB!M7</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="15" t="n">
-        <f aca="false">CxB!N7</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25" t="n">
-        <f aca="false">M14*F6+N14*F7+O14*F8+P14*F9</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="25" t="n">
-        <f aca="false">M14*G6+N14*G7+O14*G8+P14*G9</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="25" t="n">
-        <f aca="false">M14*H6+N14*H7+O14*H8+P14*H9</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="25" t="n">
-        <f aca="false">M14*I6+N14*I7+O14*I8+P14*I9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
-        <f aca="false">B1 * A2 * D3 * C4 - A1 * B2 * D3 * C4 - C1 * B2 * A3 * D4 + B1 * C2 * A3 * D4</f>
-        <v>0.00786414370678696</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-    </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
-        <f aca="false">C1 * A2 * B3 * D4 - A1 * C2 * B3 * D4 - B1 * A2 * C3 * D4 + A1 * B2 * C3 * D4</f>
-        <v>0.208135856293213</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="15" t="n">
-        <f aca="false">L1</f>
-        <v>-0.984596643555393</v>
-      </c>
-      <c r="N11" s="15" t="n">
-        <f aca="false">M1</f>
-        <v>1.30660387721502</v>
-      </c>
-      <c r="O11" s="15" t="n">
-        <f aca="false">N1</f>
-        <v>0.318014992294241</v>
-      </c>
-      <c r="P11" s="15" t="n">
-        <f aca="false">O1</f>
-        <v>-146.798073769316</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="43"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="15" t="n">
-        <f aca="false">L2</f>
-        <v>-0.159638593498398</v>
-      </c>
-      <c r="N12" s="15" t="n">
-        <f aca="false">M2</f>
-        <v>-0.504925955549417</v>
-      </c>
-      <c r="O12" s="15" t="n">
-        <f aca="false">N2</f>
-        <v>1.58029841379916</v>
-      </c>
-      <c r="P12" s="15" t="n">
-        <f aca="false">O2</f>
-        <v>422.663119756429</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="15" t="n">
-        <f aca="false">L3</f>
-        <v>1.33523883509396</v>
-      </c>
-      <c r="N13" s="15" t="n">
-        <f aca="false">M3</f>
-        <v>0.903113428776785</v>
-      </c>
-      <c r="O13" s="15" t="n">
-        <f aca="false">N3</f>
-        <v>0.423439683777669</v>
-      </c>
-      <c r="P13" s="15" t="n">
-        <f aca="false">O3</f>
-        <v>8.85635125790215</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="15" t="n">
-        <f aca="false">L4</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="15" t="n">
-        <f aca="false">M4</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="15" t="n">
-        <f aca="false">N4</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="15" t="n">
-        <f aca="false">O4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-    </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="10"/>
-      <c r="E17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="10"/>
-      <c r="M17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="15" t="n">
-        <f aca="false">M6</f>
-        <v>0.518876139448464</v>
-      </c>
-      <c r="G18" s="15" t="n">
-        <f aca="false">N6</f>
-        <v>0.901555187383345</v>
-      </c>
-      <c r="H18" s="15" t="n">
-        <f aca="false">O6</f>
-        <v>-0.598302428553687</v>
-      </c>
-      <c r="I18" s="15" t="n">
-        <f aca="false">P6</f>
-        <v>-278.020306151136</v>
-      </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="29" t="n">
-        <f aca="false">-I18</f>
-        <v>278.020306151136</v>
-      </c>
-      <c r="N18" s="29" t="n">
-        <f aca="false">DEGREES(ATAN2(H20,G20))</f>
-        <v>-97.9998327348337</v>
-      </c>
-      <c r="O18" s="29" t="n">
-        <f aca="false">(F18+G18+H18+F19+G19+H19+F20+G20+H20)/(T18+U18+V18+T19+U20+U19+V19+V20+T20)</f>
-        <v>1.2</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="10" t="n">
-        <f aca="false">RADIANS(N18)</f>
-        <v>-1.71041974762657</v>
-      </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="30" t="n">
-        <f aca="false">COS(R19)*COS(R20)</f>
-        <v>0.43239678287372</v>
-      </c>
-      <c r="U18" s="30" t="n">
-        <f aca="false">COS(R20)*SIN(R18)*SIN(R19)-COS(R18)*SIN(R20)</f>
-        <v>0.751295989486121</v>
-      </c>
-      <c r="V18" s="31" t="n">
-        <f aca="false">COS(R18)*COS(R20)*SIN(R19) + SIN(R18)*SIN(R20)</f>
-        <v>-0.498585357128072</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="15" t="n">
-        <f aca="false">M7</f>
-        <v>0.38742968535522</v>
-      </c>
-      <c r="G19" s="15" t="n">
-        <f aca="false">N7</f>
-        <v>0.464742773524815</v>
-      </c>
-      <c r="H19" s="15" t="n">
-        <f aca="false">O7</f>
-        <v>1.03629744444441</v>
-      </c>
-      <c r="I19" s="15" t="n">
-        <f aca="false">P7</f>
-        <v>-287.71643314808</v>
-      </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="29" t="n">
-        <f aca="false">-I19</f>
-        <v>287.71643314808</v>
-      </c>
-      <c r="N19" s="29" t="n">
-        <f aca="false">DEGREES(ATAN2(SQRT(G20*G20 + H20*H20),-F20))</f>
-        <v>-57.3413070618838</v>
-      </c>
-      <c r="O19" s="29" t="n">
-        <f aca="false">O18</f>
-        <v>1.2</v>
-      </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="10" t="n">
-        <f aca="false">RADIANS(N19)</f>
-        <v>-1.00079460562695</v>
-      </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="30" t="n">
-        <f aca="false">COS(R19)*SIN(R20)</f>
-        <v>0.32285807112935</v>
-      </c>
-      <c r="U19" s="30" t="n">
-        <f aca="false">COS(R18)*COS(R20) + SIN(R18)*SIN(R19)*SIN(R20)</f>
-        <v>0.387285644604013</v>
-      </c>
-      <c r="V19" s="31" t="n">
-        <f aca="false">-COS(R20)*SIN(R18) + COS(R18)*SIN(R19)*SIN(R20)</f>
-        <v>0.863581203703676</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15" t="n">
-        <f aca="false">M8</f>
-        <v>1.01028005563636</v>
-      </c>
-      <c r="G20" s="15" t="n">
-        <f aca="false">N8</f>
-        <v>-0.64125844911287</v>
-      </c>
-      <c r="H20" s="15" t="n">
-        <f aca="false">O8</f>
-        <v>-0.0901210886793067</v>
-      </c>
-      <c r="I20" s="15" t="n">
-        <f aca="false">P8</f>
-        <v>17.998148502226</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="29" t="n">
-        <f aca="false">-I20</f>
-        <v>-17.998148502226</v>
-      </c>
-      <c r="N20" s="29" t="n">
-        <f aca="false">DEGREES(ATAN2(F18,F19))</f>
-        <v>36.7476246501602</v>
-      </c>
-      <c r="O20" s="29" t="n">
-        <f aca="false">O19</f>
-        <v>1.2</v>
-      </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="10" t="n">
-        <f aca="false">RADIANS(N20)</f>
-        <v>0.641367042432325</v>
-      </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="30" t="n">
-        <f aca="false">-SIN(R19)</f>
-        <v>0.841900046363636</v>
-      </c>
-      <c r="U20" s="30" t="n">
-        <f aca="false">COS(R19)*SIN(R18)</f>
-        <v>-0.534382040927392</v>
-      </c>
-      <c r="V20" s="31" t="n">
-        <f aca="false">COS(R18)*COS(R19)</f>
-        <v>-0.0751009072327556</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15" t="n">
-        <f aca="false">M9</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="15" t="n">
-        <f aca="false">N9</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="15" t="n">
-        <f aca="false">O9</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="15" t="n">
-        <f aca="false">P9</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="46" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="46" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="46" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="46" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="46" width="11.3418367346939"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D2" s="46" t="n">
-        <v>0.336693</v>
-      </c>
-      <c r="E2" s="46" t="n">
-        <v>0.0350962</v>
-      </c>
-      <c r="F2" s="46" t="n">
-        <v>0.287523</v>
-      </c>
-      <c r="G2" s="46" t="n">
-        <v>0.895956</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="46" t="n">
-        <v>37.1086</v>
-      </c>
-      <c r="D5" s="46" t="n">
-        <f aca="false">C5*D4</f>
-        <v>-37.1086</v>
-      </c>
-      <c r="E5" s="46" t="n">
-        <f aca="false">-SIN(D5/2)*SIN(D6/2)*SIN(D7/2) + COS(D5/2)*COS(D6/2)*COS(D7/2)</f>
-        <v>-0.466737980515752</v>
-      </c>
-      <c r="F5" s="46" t="n">
-        <f aca="false">SIN(D5/2)*COS(D6/2)*COS(D7/2)+SIN(D6/2)*SIN(D7/2)*COS(D5/2)</f>
-        <v>0.249063144176765</v>
-      </c>
-      <c r="G5" s="46" t="n">
-        <f aca="false">-SIN(D5/2)*SIN(D7/2)*COS(D6/2)+SIN(D6/2)*COS(D5/2)*COS(D7/2)</f>
-        <v>0.844719998326132</v>
-      </c>
-      <c r="H5" s="46" t="n">
-        <f aca="false">SIN(D5/2)*SIN(D6/2)*COS(D7/2)+SIN(D7/2)*COS(D5/2)*COS(D6/2)</f>
-        <v>0.0810637538284579</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="46" t="n">
-        <v>14.8627</v>
-      </c>
-      <c r="D6" s="46" t="n">
-        <f aca="false">C6*D4</f>
-        <v>-14.8627</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="46" t="n">
-        <v>30.5706</v>
-      </c>
-      <c r="D7" s="46" t="n">
-        <f aca="false">C7*D4</f>
-        <v>-30.5706</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="46" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="46" t="n">
-        <v>38.969</v>
-      </c>
-      <c r="D11" s="46" t="n">
-        <f aca="false">C11*D10</f>
-        <v>-38.969</v>
-      </c>
-      <c r="E11" s="46" t="n">
-        <f aca="false">SIN(D11/2)*SIN(D12/2)*SIN(D13/2) + COS(D11/2)*COS(D12/2)*COS(D13/2)</f>
-        <v>0.713718904060626</v>
-      </c>
-      <c r="F11" s="46" t="n">
-        <f aca="false">-SIN(D11/2)*SIN(D12/2)*COS(D13/2)+SIN(D13/2)*COS(D11/2)*COS(D12/2)</f>
-        <v>-0.201102973480546</v>
-      </c>
-      <c r="G11" s="46" t="n">
-        <f aca="false">SIN(D11/2)*SIN(D13/2)*COS(D12/2)+SIN(D12/2)*COS(D11/2)*COS(D13/2)</f>
-        <v>0.669962651551314</v>
-      </c>
-      <c r="H11" s="46" t="n">
-        <f aca="false">SIN(D11/2)*COS(D12/2)*COS(D13/2)-SIN(D12/2)*SIN(D13/2)*COS(D11/2)</f>
-        <v>-0.0362348667738011</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="46" t="n">
-        <v>-7.511</v>
-      </c>
-      <c r="D12" s="46" t="n">
-        <f aca="false">C12*D10</f>
-        <v>7.511</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="46" t="n">
-        <v>32.923</v>
-      </c>
-      <c r="D13" s="46" t="n">
-        <f aca="false">C13*D10</f>
-        <v>-32.923</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C15" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C15:G23"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2407,8 +1354,8 @@
   </sheetPr>
   <dimension ref="B6:AA60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
@@ -2574,7 +1521,7 @@
         <v>0.760403512321383</v>
       </c>
       <c r="F11" s="11" t="n">
-        <f aca="false">'C ZYX'!C32</f>
+        <f aca="false">'C ZYX'!C26</f>
         <v>43.5679119829393</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -2648,7 +1595,7 @@
         <v>-0.695056936000403</v>
       </c>
       <c r="F12" s="11" t="n">
-        <f aca="false">'C ZYX'!C33</f>
+        <f aca="false">'C ZYX'!C27</f>
         <v>-39.8238289541177</v>
       </c>
       <c r="H12" s="12"/>
@@ -2710,7 +1657,7 @@
         <v>0.54279725236514</v>
       </c>
       <c r="F13" s="11" t="n">
-        <f aca="false">'C ZYX'!C34</f>
+        <f aca="false">'C ZYX'!C28</f>
         <v>31.09999169182</v>
       </c>
       <c r="H13" s="12"/>
@@ -2805,6 +1752,18 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>1.2</v>
+      </c>
       <c r="H15" s="19"/>
       <c r="I15" s="16"/>
       <c r="J15" s="18"/>
@@ -2825,10 +1784,14 @@
       <c r="AA15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E16" s="9" t="n">
+        <f aca="false">E15</f>
+        <v>1.2</v>
+      </c>
       <c r="H16" s="19"/>
       <c r="I16" s="16"/>
       <c r="J16" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -2848,6 +1811,10 @@
       <c r="AA16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E17" s="9" t="n">
+        <f aca="false">E16</f>
+        <v>1.2</v>
+      </c>
       <c r="H17" s="19"/>
       <c r="I17" s="16"/>
       <c r="J17" s="18"/>
@@ -3216,7 +2183,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="16"/>
       <c r="J28" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -3605,7 +2572,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="16"/>
       <c r="J40" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -3646,24 +2613,25 @@
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H42" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="15" t="n">
-        <f aca="false">COS(E12)*COS(E13)</f>
+        <f aca="false">Q30</f>
         <v>0.657627940166611</v>
       </c>
       <c r="K42" s="15" t="n">
-        <f aca="false">COS(E13)*SIN(E11)*SIN(E12) - COS(E11)*SIN(E13)</f>
+        <f aca="false">R30</f>
         <v>-0.752208290465817</v>
       </c>
       <c r="L42" s="15" t="n">
-        <f aca="false">COS(E11)*COS(E13)*SIN(E12)+ SIN(E11)*SIN(E13)</f>
+        <f aca="false">S30</f>
         <v>-0.0413301350918769</v>
       </c>
-      <c r="M42" s="14" t="n">
+      <c r="M42" s="15" t="n">
+        <f aca="false">T30</f>
         <v>0</v>
       </c>
       <c r="N42" s="22"/>
@@ -3701,18 +2669,19 @@
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
       <c r="J43" s="15" t="n">
-        <f aca="false">COS(E12)*SIN(E13)</f>
+        <f aca="false">Q31</f>
         <v>0.396706406018294</v>
       </c>
       <c r="K43" s="15" t="n">
-        <f aca="false">COS(E11)*COS(E13) + SIN(E11)*SIN(E12)*SIN(E13)</f>
+        <f aca="false">R31</f>
         <v>0.392421221391234</v>
       </c>
       <c r="L43" s="15" t="n">
-        <f aca="false">-COS(E13)*SIN(E11) + COS(E11)*SIN(E12)*SIN(E13)</f>
+        <f aca="false">S31</f>
         <v>-0.829837099933391</v>
       </c>
-      <c r="M43" s="14" t="n">
+      <c r="M43" s="15" t="n">
+        <f aca="false">T31</f>
         <v>0</v>
       </c>
       <c r="N43" s="22"/>
@@ -3745,18 +2714,19 @@
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
       <c r="J44" s="15" t="n">
-        <f aca="false">-SIN(E12)</f>
+        <f aca="false">Q32</f>
         <v>0.640429168399027</v>
       </c>
       <c r="K44" s="15" t="n">
-        <f aca="false">COS(E12)*SIN(E11)</f>
+        <f aca="false">R32</f>
         <v>0.529328133350481</v>
       </c>
       <c r="L44" s="15" t="n">
-        <f aca="false">COS(E11)*COS(E12)</f>
+        <f aca="false">S32</f>
         <v>0.556473006989042</v>
       </c>
-      <c r="M44" s="14" t="n">
+      <c r="M44" s="15" t="n">
+        <f aca="false">T32</f>
         <v>0</v>
       </c>
       <c r="N44" s="22"/>
@@ -3788,16 +2758,20 @@
     <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H45" s="12"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="14" t="n">
+      <c r="J45" s="15" t="n">
+        <f aca="false">Q33</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="15" t="n">
+        <f aca="false">R33</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="15" t="n">
+        <f aca="false">S33</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="15" t="n">
+        <f aca="false">T33</f>
         <v>1</v>
       </c>
       <c r="N45" s="22"/>
@@ -3847,16 +2821,8 @@
       <c r="AA46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="11" t="n">
+      <c r="E47" s="27" t="n">
+        <f aca="false">E15</f>
         <v>1.2</v>
       </c>
       <c r="H47" s="12" t="s">
@@ -3900,8 +2866,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E48" s="9" t="n">
-        <f aca="false">E47</f>
+      <c r="E48" s="27" t="n">
+        <f aca="false">E16</f>
         <v>1.2</v>
       </c>
       <c r="H48" s="12"/>
@@ -3937,8 +2903,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E49" s="9" t="n">
-        <f aca="false">E48</f>
+      <c r="E49" s="27" t="n">
+        <f aca="false">E17</f>
         <v>1.2</v>
       </c>
       <c r="H49" s="12"/>
@@ -4025,7 +2991,7 @@
         <v>37</v>
       </c>
       <c r="S54" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4051,20 +3017,20 @@
         <f aca="false">T42</f>
         <v>119.695862</v>
       </c>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="28" t="s">
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q55" s="29" t="n">
+      <c r="Q55" s="30" t="n">
         <f aca="false">-M55</f>
         <v>-119.695862</v>
       </c>
-      <c r="R55" s="29" t="n">
+      <c r="R55" s="30" t="n">
         <f aca="false">DEGREES(ATAN2(L57,K57))</f>
         <v>43.5679119829394</v>
       </c>
-      <c r="S55" s="29" t="n">
+      <c r="S55" s="30" t="n">
         <f aca="false">(J55+K55+L55+J56+K56+L56+J57+K57+L57)/(X55+Y55+Z55+X56+Y57+Y56+Z56+Z57+X57)</f>
         <v>1.2</v>
       </c>
@@ -4072,15 +3038,15 @@
         <f aca="false">RADIANS(R55)</f>
         <v>0.760403512321383</v>
       </c>
-      <c r="X55" s="30" t="n">
+      <c r="X55" s="31" t="n">
         <f aca="false">COS(V56)*COS(V57)</f>
         <v>0.657627940166611</v>
       </c>
-      <c r="Y55" s="30" t="n">
+      <c r="Y55" s="31" t="n">
         <f aca="false">COS(V57)*SIN(V55)*SIN(V56)-COS(V55)*SIN(V57)</f>
         <v>-0.752208290465817</v>
       </c>
-      <c r="Z55" s="31" t="n">
+      <c r="Z55" s="32" t="n">
         <f aca="false">COS(V55)*COS(V57)*SIN(V56) + SIN(V55)*SIN(V57)</f>
         <v>-0.0413301350918769</v>
       </c>
@@ -4104,20 +3070,20 @@
         <f aca="false">T43</f>
         <v>69.40358</v>
       </c>
-      <c r="N56" s="27"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="28" t="s">
+      <c r="N56" s="28"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="29" t="n">
+      <c r="Q56" s="30" t="n">
         <f aca="false">-M56</f>
         <v>-69.40358</v>
       </c>
-      <c r="R56" s="29" t="n">
+      <c r="R56" s="30" t="n">
         <f aca="false">DEGREES(ATAN2(SQRT(K57*K57 + L57*L57),-J57))</f>
         <v>-39.8238289541177</v>
       </c>
-      <c r="S56" s="29" t="n">
+      <c r="S56" s="30" t="n">
         <f aca="false">S55</f>
         <v>1.2</v>
       </c>
@@ -4125,15 +3091,15 @@
         <f aca="false">RADIANS(R56)</f>
         <v>-0.695056936000403</v>
       </c>
-      <c r="X56" s="30" t="n">
+      <c r="X56" s="31" t="n">
         <f aca="false">COS(V56)*SIN(V57)</f>
         <v>0.396706406018294</v>
       </c>
-      <c r="Y56" s="30" t="n">
+      <c r="Y56" s="31" t="n">
         <f aca="false">COS(V55)*COS(V57) + SIN(V55)*SIN(V56)*SIN(V57)</f>
         <v>0.392421221391234</v>
       </c>
-      <c r="Z56" s="31" t="n">
+      <c r="Z56" s="32" t="n">
         <f aca="false">-COS(V57)*SIN(V55) + COS(V55)*SIN(V56)*SIN(V57)</f>
         <v>-0.829837099933391</v>
       </c>
@@ -4157,20 +3123,20 @@
         <f aca="false">T44</f>
         <v>-519.784485</v>
       </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="28" t="s">
+      <c r="N57" s="28"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="29" t="n">
+      <c r="Q57" s="30" t="n">
         <f aca="false">-M57</f>
         <v>519.784485</v>
       </c>
-      <c r="R57" s="29" t="n">
+      <c r="R57" s="30" t="n">
         <f aca="false">DEGREES(ATAN2(J55,J56))</f>
         <v>31.09999169182</v>
       </c>
-      <c r="S57" s="29" t="n">
+      <c r="S57" s="30" t="n">
         <f aca="false">S56</f>
         <v>1.2</v>
       </c>
@@ -4178,15 +3144,15 @@
         <f aca="false">RADIANS(R57)</f>
         <v>0.54279725236514</v>
       </c>
-      <c r="X57" s="30" t="n">
+      <c r="X57" s="31" t="n">
         <f aca="false">-SIN(V56)</f>
         <v>0.640429168399027</v>
       </c>
-      <c r="Y57" s="30" t="n">
+      <c r="Y57" s="31" t="n">
         <f aca="false">COS(V56)*SIN(V55)</f>
         <v>0.529328133350481</v>
       </c>
-      <c r="Z57" s="31" t="n">
+      <c r="Z57" s="32" t="n">
         <f aca="false">COS(V55)*COS(V56)</f>
         <v>0.556473006989042</v>
       </c>
@@ -4295,10 +3261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A30:I57"/>
+  <dimension ref="A1:I65536"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D55" activeCellId="0" sqref="D55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4306,565 +3272,594 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C3" s="4" t="n">
         <v>-9.149782</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <f aca="false">RADIANS(C32)</f>
+      <c r="D3" s="2" t="n">
+        <f aca="false">RADIANS(C3)</f>
         <v>-0.159693821739712</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C4" s="4" t="n">
         <v>-8.524243</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <f aca="false">RADIANS(C33)</f>
+      <c r="D4" s="2" t="n">
+        <f aca="false">RADIANS(C4)</f>
         <v>-0.148776106590079</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C5" s="4" t="n">
         <v>19.407503</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <f aca="false">RADIANS(C34)</f>
+      <c r="D5" s="2" t="n">
+        <f aca="false">RADIANS(C5)</f>
         <v>0.338724826940677</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="5" t="n">
-        <f aca="false">COS(A37)</f>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5" t="n">
+        <f aca="false">COS(A8)</f>
         <v>0.943179152677921</v>
       </c>
-      <c r="D36" s="5" t="n">
-        <f aca="false">-SIN(A37)</f>
+      <c r="D7" s="5" t="n">
+        <f aca="false">-SIN(A8)</f>
         <v>-0.332284645979555</v>
       </c>
-      <c r="E36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
-        <f aca="false">D34</f>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <f aca="false">D5</f>
         <v>0.338724826940677</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="5" t="n">
-        <f aca="false">SIN(A37)</f>
+      <c r="C8" s="5" t="n">
+        <f aca="false">SIN(A8)</f>
         <v>0.332284645979555</v>
       </c>
-      <c r="D37" s="5" t="n">
-        <f aca="false">COS(A37)</f>
+      <c r="D8" s="5" t="n">
+        <f aca="false">COS(A8)</f>
         <v>0.943179152677921</v>
       </c>
-      <c r="E37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2" t="s">
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="5" t="n">
-        <f aca="false">COS(A41)</f>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5" t="n">
+        <f aca="false">COS(A12)</f>
         <v>0.988953233688446</v>
       </c>
-      <c r="D40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <f aca="false">SIN(A41)</f>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <f aca="false">SIN(A12)</f>
         <v>-0.148227870446708</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="5" t="n">
-        <f aca="false">C36*G36+D36*G37+E36*G38</f>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5" t="n">
+        <f aca="false">C7*G7+D7*G8+E7*G9</f>
         <v>0.943179152677921</v>
       </c>
-      <c r="H40" s="5" t="n">
-        <f aca="false">C36*H36+D36*H37+E36*H38</f>
+      <c r="H11" s="5" t="n">
+        <f aca="false">C7*H7+D7*H8+E7*H9</f>
         <v>-0.332284645979555</v>
       </c>
-      <c r="I40" s="5" t="n">
-        <f aca="false">C36*I36+D36*I37+E36*I38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
-        <f aca="false">D33</f>
+      <c r="I11" s="5" t="n">
+        <f aca="false">C7*I7+D7*I8+E7*I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <f aca="false">D4</f>
         <v>-0.148776106590079</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="5" t="n">
-        <f aca="false">C37*G36+D37*G37+E37*G38</f>
+      <c r="G12" s="5" t="n">
+        <f aca="false">C8*G7+D8*G8+E8*G9</f>
         <v>0.332284645979555</v>
       </c>
-      <c r="H41" s="5" t="n">
-        <f aca="false">C37*H36+D37*H37+E37*H38</f>
+      <c r="H12" s="5" t="n">
+        <f aca="false">C8*H7+D8*H8+E8*H9</f>
         <v>0.943179152677921</v>
       </c>
-      <c r="I41" s="5" t="n">
-        <f aca="false">C37*I36+D37*I37+E37*I38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="5" t="n">
-        <f aca="false">-SIN(A41)</f>
+      <c r="I12" s="5" t="n">
+        <f aca="false">C8*I7+D8*I8+E8*I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5" t="n">
+        <f aca="false">-SIN(A12)</f>
         <v>0.148227870446708</v>
       </c>
-      <c r="D42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" s="5" t="n">
-        <f aca="false">COS(A41)</f>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <f aca="false">COS(A12)</f>
         <v>0.988953233688446</v>
       </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="5" t="n">
-        <f aca="false">C38*G36+D38*G37+E38*G38</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="5" t="n">
-        <f aca="false">C38*H36+D38*H37+E38*H38</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="5" t="n">
-        <f aca="false">C38*I36+D38*I37+E38*I38</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="5" t="n">
+        <f aca="false">C9*G7+D9*G8+E9*G9</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">C9*H7+D9*H8+E9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">C9*I7+D9*I8+E9*I9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="5" t="n">
-        <f aca="false">C40*G40+D40*G41+E40*G42</f>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5" t="n">
+        <f aca="false">C11*G11+D11*G12+E11*G13</f>
         <v>0.932760072988359</v>
       </c>
-      <c r="H44" s="5" t="n">
-        <f aca="false">C40*H40+D40*H41+E40*H42</f>
+      <c r="H15" s="5" t="n">
+        <f aca="false">C11*H11+D11*H12+E11*H13</f>
         <v>-0.328613975146501</v>
       </c>
-      <c r="I44" s="5" t="n">
-        <f aca="false">C40*I40+D40*I41+E40*I42</f>
+      <c r="I15" s="5" t="n">
+        <f aca="false">C11*I11+D11*I12+E11*I13</f>
         <v>-0.148227870446708</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
-        <f aca="false">D32</f>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <f aca="false">D3</f>
         <v>-0.159693821739712</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="5" t="n">
-        <f aca="false">COS(A45)</f>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <f aca="false">COS(A16)</f>
         <v>0.987276016872325</v>
       </c>
-      <c r="E45" s="5" t="n">
-        <f aca="false">-SIN(A45)</f>
+      <c r="E16" s="5" t="n">
+        <f aca="false">-SIN(A16)</f>
         <v>0.159015931619183</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G45" s="5" t="n">
-        <f aca="false">C41*G40+D41*G41+E41*G42</f>
+      <c r="G16" s="5" t="n">
+        <f aca="false">C12*G11+D12*G12+E12*G13</f>
         <v>0.332284645979555</v>
       </c>
-      <c r="H45" s="5" t="n">
-        <f aca="false">C41*H40+D41*H41+E41*H42</f>
+      <c r="H16" s="5" t="n">
+        <f aca="false">C12*H11+D12*H12+E12*H13</f>
         <v>0.943179152677921</v>
       </c>
-      <c r="I45" s="5" t="n">
-        <f aca="false">C41*I40+D41*I41+E41*I42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="5" t="n">
-        <f aca="false">SIN(A45)</f>
+      <c r="I16" s="5" t="n">
+        <f aca="false">C12*I11+D12*I12+E12*I13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <f aca="false">SIN(A16)</f>
         <v>-0.159015931619183</v>
       </c>
-      <c r="E46" s="5" t="n">
-        <f aca="false">COS(A45)</f>
+      <c r="E17" s="5" t="n">
+        <f aca="false">COS(A16)</f>
         <v>0.987276016872325</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="5" t="n">
-        <f aca="false">C42*G40+D42*G41+E42*G42</f>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5" t="n">
+        <f aca="false">C13*G11+D13*G12+E13*G13</f>
         <v>0.139805437251179</v>
       </c>
-      <c r="H46" s="5" t="n">
-        <f aca="false">C42*H40+D42*H41+E42*H42</f>
+      <c r="H17" s="5" t="n">
+        <f aca="false">C13*H11+D13*H12+E13*H13</f>
         <v>-0.0492538454556877</v>
       </c>
-      <c r="I46" s="5" t="n">
-        <f aca="false">C42*I40+D42*I41+E42*I42</f>
+      <c r="I17" s="5" t="n">
+        <f aca="false">C13*I11+D13*I12+E13*I13</f>
         <v>0.988953233688446</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="5" t="n">
-        <f aca="false">C44*G44+D44*G45+E44*G46</f>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="5" t="n">
+        <f aca="false">C15*G15+D15*G16+E15*G17</f>
         <v>0.932760072988359</v>
       </c>
-      <c r="H48" s="5" t="n">
-        <f aca="false">C44*H44+D44*H45+E44*H46</f>
+      <c r="H19" s="5" t="n">
+        <f aca="false">C15*H15+D15*H16+E15*H17</f>
         <v>-0.328613975146501</v>
       </c>
-      <c r="I48" s="5" t="n">
-        <f aca="false">C44*I44+D44*I45+E44*I46</f>
+      <c r="I19" s="5" t="n">
+        <f aca="false">C15*I15+D15*I16+E15*I17</f>
         <v>-0.148227870446708</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="5" t="n">
-        <f aca="false">C45*G44+D45*G45+E45*G46</f>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="5" t="n">
+        <f aca="false">C16*G15+D16*G16+E16*G17</f>
         <v>0.350287953600449</v>
       </c>
-      <c r="H49" s="5" t="n">
-        <f aca="false">C45*H44+D45*H45+E45*H46</f>
+      <c r="H20" s="5" t="n">
+        <f aca="false">C16*H15+D16*H16+E16*H17</f>
         <v>0.923346010931909</v>
       </c>
-      <c r="I49" s="5" t="n">
-        <f aca="false">C45*I44+D45*I45+E45*I46</f>
+      <c r="I20" s="5" t="n">
+        <f aca="false">C16*I15+D16*I16+E16*I17</f>
         <v>0.157259319782772</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="5" t="n">
-        <f aca="false">C46*G44+D46*G45+E46*G46</f>
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="5" t="n">
+        <f aca="false">C17*G15+D17*G16+E17*G17</f>
         <v>0.0851880026832481</v>
       </c>
-      <c r="H50" s="5" t="n">
-        <f aca="false">C46*H44+D46*H45+E46*H46</f>
+      <c r="H21" s="5" t="n">
+        <f aca="false">C17*H15+D17*H16+E17*H17</f>
         <v>-0.198607652004008</v>
       </c>
-      <c r="I50" s="5" t="n">
-        <f aca="false">C46*I44+D46*I45+E46*I46</f>
+      <c r="I21" s="5" t="n">
+        <f aca="false">C17*I15+D17*I16+E17*I17</f>
         <v>0.976369809428934</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
+    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="6" t="n">
-        <f aca="false">DEGREES(D55)</f>
+      <c r="C26" s="6" t="n">
+        <f aca="false">DEGREES(D26)</f>
         <v>-11.4979132993132</v>
       </c>
-      <c r="D55" s="2" t="n">
-        <f aca="false">ATAN2(H49*COS(D57)-H48*SIN(D57),I48*SIN(D57)-I49*COS(D57))</f>
+      <c r="D26" s="2" t="n">
+        <f aca="false">ATAN2(H20*COS(D28)-H19*SIN(D28),I19*SIN(D28)-I20*COS(D28))</f>
         <v>-0.20067644418186</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C56" s="6" t="n">
-        <f aca="false">DEGREES(D56)</f>
+      <c r="C27" s="6" t="n">
+        <f aca="false">DEGREES(D27)</f>
         <v>-4.88683584209601</v>
       </c>
-      <c r="D56" s="2" t="n">
-        <f aca="false">ATAN2(G48*COS(D57)+G49*SIN(D57),-G50)</f>
+      <c r="D27" s="2" t="n">
+        <f aca="false">ATAN2(G19*COS(D28)+G20*SIN(D28),-G21)</f>
         <v>-0.0852913754490451</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="6" t="n">
-        <f aca="false">DEGREES(D57)</f>
+      <c r="C28" s="6" t="n">
+        <f aca="false">DEGREES(D28)</f>
         <v>20.5831244971861</v>
       </c>
-      <c r="D57" s="2" t="n">
-        <f aca="false">ATAN2(G48,G49)</f>
+      <c r="D28" s="2" t="n">
+        <f aca="false">ATAN2(G19,G20)</f>
         <v>0.3592432928238</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4883,8 +3878,8 @@
   </sheetPr>
   <dimension ref="B6:AA60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J61" activeCellId="0" sqref="J61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5049,7 +4044,7 @@
         <v>-0.20067644418186</v>
       </c>
       <c r="F11" s="11" t="n">
-        <f aca="false">'B ZYX'!C55</f>
+        <f aca="false">'B ZYX'!C26</f>
         <v>-11.4979132993132</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -5123,7 +4118,7 @@
         <v>-0.0852913754490451</v>
       </c>
       <c r="F12" s="11" t="n">
-        <f aca="false">'B ZYX'!C56</f>
+        <f aca="false">'B ZYX'!C27</f>
         <v>-4.88683584209601</v>
       </c>
       <c r="H12" s="12"/>
@@ -5185,7 +4180,7 @@
         <v>0.3592432928238</v>
       </c>
       <c r="F13" s="11" t="n">
-        <f aca="false">'B ZYX'!C57</f>
+        <f aca="false">'B ZYX'!C28</f>
         <v>20.5831244971861</v>
       </c>
       <c r="H13" s="12"/>
@@ -5280,6 +4275,18 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>0.6</v>
+      </c>
       <c r="H15" s="19"/>
       <c r="I15" s="16"/>
       <c r="J15" s="18"/>
@@ -5300,10 +4307,14 @@
       <c r="AA15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E16" s="9" t="n">
+        <f aca="false">E15</f>
+        <v>0.6</v>
+      </c>
       <c r="H16" s="19"/>
       <c r="I16" s="16"/>
       <c r="J16" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -5323,6 +4334,10 @@
       <c r="AA16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E17" s="9" t="n">
+        <f aca="false">E16</f>
+        <v>0.6</v>
+      </c>
       <c r="H17" s="19"/>
       <c r="I17" s="16"/>
       <c r="J17" s="18"/>
@@ -5691,7 +4706,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="16"/>
       <c r="J28" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -6080,7 +5095,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="16"/>
       <c r="J40" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K40" s="20"/>
       <c r="L40" s="20"/>
@@ -6121,24 +5136,25 @@
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H42" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="15" t="n">
-        <f aca="false">COS(E12)*COS(E13)</f>
+        <f aca="false">Q30</f>
         <v>0.932760072988359</v>
       </c>
       <c r="K42" s="15" t="n">
-        <f aca="false">COS(E13)*SIN(E11)*SIN(E12) - COS(E11)*SIN(E13)</f>
+        <f aca="false">R30</f>
         <v>-0.328613975146501</v>
       </c>
       <c r="L42" s="15" t="n">
-        <f aca="false">COS(E11)*COS(E13)*SIN(E12)+ SIN(E11)*SIN(E13)</f>
+        <f aca="false">S30</f>
         <v>-0.148227870446708</v>
       </c>
-      <c r="M42" s="14" t="n">
+      <c r="M42" s="15" t="n">
+        <f aca="false">T30</f>
         <v>0</v>
       </c>
       <c r="N42" s="22"/>
@@ -6176,18 +5192,19 @@
       <c r="H43" s="12"/>
       <c r="I43" s="13"/>
       <c r="J43" s="15" t="n">
-        <f aca="false">COS(E12)*SIN(E13)</f>
+        <f aca="false">Q31</f>
         <v>0.350287953600449</v>
       </c>
       <c r="K43" s="15" t="n">
-        <f aca="false">COS(E11)*COS(E13) + SIN(E11)*SIN(E12)*SIN(E13)</f>
+        <f aca="false">R31</f>
         <v>0.923346010931909</v>
       </c>
       <c r="L43" s="15" t="n">
-        <f aca="false">-COS(E13)*SIN(E11) + COS(E11)*SIN(E12)*SIN(E13)</f>
+        <f aca="false">S31</f>
         <v>0.157259319782772</v>
       </c>
-      <c r="M43" s="14" t="n">
+      <c r="M43" s="15" t="n">
+        <f aca="false">T31</f>
         <v>0</v>
       </c>
       <c r="N43" s="22"/>
@@ -6220,18 +5237,19 @@
       <c r="H44" s="12"/>
       <c r="I44" s="13"/>
       <c r="J44" s="15" t="n">
-        <f aca="false">-SIN(E12)</f>
+        <f aca="false">Q32</f>
         <v>0.0851880026832481</v>
       </c>
       <c r="K44" s="15" t="n">
-        <f aca="false">COS(E12)*SIN(E11)</f>
+        <f aca="false">R32</f>
         <v>-0.198607652004008</v>
       </c>
       <c r="L44" s="15" t="n">
-        <f aca="false">COS(E11)*COS(E12)</f>
+        <f aca="false">S32</f>
         <v>0.976369809428934</v>
       </c>
-      <c r="M44" s="14" t="n">
+      <c r="M44" s="15" t="n">
+        <f aca="false">T32</f>
         <v>0</v>
       </c>
       <c r="N44" s="22"/>
@@ -6263,16 +5281,20 @@
     <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H45" s="12"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" s="14" t="n">
+      <c r="J45" s="15" t="n">
+        <f aca="false">Q33</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="15" t="n">
+        <f aca="false">R33</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="15" t="n">
+        <f aca="false">S33</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="15" t="n">
+        <f aca="false">T33</f>
         <v>1</v>
       </c>
       <c r="N45" s="22"/>
@@ -6322,16 +5344,8 @@
       <c r="AA46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="11" t="n">
+      <c r="E47" s="27" t="n">
+        <f aca="false">E15</f>
         <v>0.6</v>
       </c>
       <c r="H47" s="12" t="s">
@@ -6375,8 +5389,8 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E48" s="9" t="n">
-        <f aca="false">E47</f>
+      <c r="E48" s="27" t="n">
+        <f aca="false">E16</f>
         <v>0.6</v>
       </c>
       <c r="H48" s="12"/>
@@ -6412,8 +5426,8 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E49" s="9" t="n">
-        <f aca="false">E48</f>
+      <c r="E49" s="27" t="n">
+        <f aca="false">E17</f>
         <v>0.6</v>
       </c>
       <c r="H49" s="12"/>
@@ -6500,7 +5514,7 @@
         <v>37</v>
       </c>
       <c r="S54" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6526,20 +5540,20 @@
         <f aca="false">T42</f>
         <v>-7.800129</v>
       </c>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="28" t="s">
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q55" s="29" t="n">
+      <c r="Q55" s="30" t="n">
         <f aca="false">-M55</f>
         <v>7.800129</v>
       </c>
-      <c r="R55" s="29" t="n">
+      <c r="R55" s="30" t="n">
         <f aca="false">DEGREES(ATAN2(L57,K57))</f>
         <v>-11.4979132993132</v>
       </c>
-      <c r="S55" s="29" t="n">
+      <c r="S55" s="30" t="n">
         <f aca="false">(J55+K55+L55+J56+K56+L56+J57+K57+L57)/(X55+Y55+Z55+X56+Y57+Y56+Z56+Z57+X57)</f>
         <v>0.6</v>
       </c>
@@ -6547,15 +5561,15 @@
         <f aca="false">RADIANS(R55)</f>
         <v>-0.20067644418186</v>
       </c>
-      <c r="X55" s="30" t="n">
+      <c r="X55" s="31" t="n">
         <f aca="false">COS(V56)*COS(V57)</f>
         <v>0.932760072988359</v>
       </c>
-      <c r="Y55" s="30" t="n">
+      <c r="Y55" s="31" t="n">
         <f aca="false">COS(V57)*SIN(V55)*SIN(V56)-COS(V55)*SIN(V57)</f>
         <v>-0.328613975146501</v>
       </c>
-      <c r="Z55" s="31" t="n">
+      <c r="Z55" s="32" t="n">
         <f aca="false">COS(V55)*COS(V57)*SIN(V56) + SIN(V55)*SIN(V57)</f>
         <v>-0.148227870446708</v>
       </c>
@@ -6579,20 +5593,20 @@
         <f aca="false">T43</f>
         <v>55.813934</v>
       </c>
-      <c r="N56" s="27"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="28" t="s">
+      <c r="N56" s="28"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q56" s="29" t="n">
+      <c r="Q56" s="30" t="n">
         <f aca="false">-M56</f>
         <v>-55.813934</v>
       </c>
-      <c r="R56" s="29" t="n">
+      <c r="R56" s="30" t="n">
         <f aca="false">DEGREES(ATAN2(SQRT(K57*K57 + L57*L57),-J57))</f>
         <v>-4.88683584209601</v>
       </c>
-      <c r="S56" s="29" t="n">
+      <c r="S56" s="30" t="n">
         <f aca="false">S55</f>
         <v>0.6</v>
       </c>
@@ -6600,15 +5614,15 @@
         <f aca="false">RADIANS(R56)</f>
         <v>-0.0852913754490451</v>
       </c>
-      <c r="X56" s="30" t="n">
+      <c r="X56" s="31" t="n">
         <f aca="false">COS(V56)*SIN(V57)</f>
         <v>0.350287953600449</v>
       </c>
-      <c r="Y56" s="30" t="n">
+      <c r="Y56" s="31" t="n">
         <f aca="false">COS(V55)*COS(V57) + SIN(V55)*SIN(V56)*SIN(V57)</f>
         <v>0.923346010931909</v>
       </c>
-      <c r="Z56" s="31" t="n">
+      <c r="Z56" s="32" t="n">
         <f aca="false">-COS(V57)*SIN(V55) + COS(V55)*SIN(V56)*SIN(V57)</f>
         <v>0.157259319782772</v>
       </c>
@@ -6632,20 +5646,20 @@
         <f aca="false">T44</f>
         <v>-111.116089</v>
       </c>
-      <c r="N57" s="27"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="28" t="s">
+      <c r="N57" s="28"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="29" t="n">
+      <c r="Q57" s="30" t="n">
         <f aca="false">-M57</f>
         <v>111.116089</v>
       </c>
-      <c r="R57" s="29" t="n">
+      <c r="R57" s="30" t="n">
         <f aca="false">DEGREES(ATAN2(J55,J56))</f>
         <v>20.5831244971861</v>
       </c>
-      <c r="S57" s="29" t="n">
+      <c r="S57" s="30" t="n">
         <f aca="false">S56</f>
         <v>0.6</v>
       </c>
@@ -6653,15 +5667,15 @@
         <f aca="false">RADIANS(R57)</f>
         <v>0.3592432928238</v>
       </c>
-      <c r="X57" s="30" t="n">
+      <c r="X57" s="31" t="n">
         <f aca="false">-SIN(V56)</f>
         <v>0.0851880026832481</v>
       </c>
-      <c r="Y57" s="30" t="n">
+      <c r="Y57" s="31" t="n">
         <f aca="false">COS(V56)*SIN(V55)</f>
         <v>-0.198607652004008</v>
       </c>
-      <c r="Z57" s="31" t="n">
+      <c r="Z57" s="32" t="n">
         <f aca="false">COS(V55)*COS(V56)</f>
         <v>0.976369809428934</v>
       </c>
@@ -6770,1052 +5784,549 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B6:AA34"/>
+  <dimension ref="B2:T19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="27.7"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="8" width="3.64285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="9" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="9" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="1.48469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="10" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="2.42857142857143"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="8" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="10" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="8" width="2.42857142857143"/>
-    <col collapsed="false" hidden="false" max="20" min="17" style="8" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="7" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="10" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="7" width="2.42857142857143"/>
-    <col collapsed="false" hidden="false" max="26" min="24" style="8" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="8" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="7" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="34" width="8.77551020408163"/>
   </cols>
   <sheetData>
-    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
+    <row r="2" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <f aca="false">C!Q42</f>
+        <v>0.789153528199933</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <f aca="false">C!R42</f>
+        <v>-0.902649948558981</v>
+      </c>
+      <c r="F2" s="15" t="n">
+        <f aca="false">C!S42</f>
+        <v>-0.0495961621102523</v>
+      </c>
+      <c r="G2" s="15" t="n">
+        <f aca="false">C!T42</f>
+        <v>119.695862</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="str">
+        <f aca="false">B2&amp;" x "&amp;I7</f>
+        <v>C x B</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="25" t="n">
+        <f aca="false">K7*D2+L7*D3+M7*D4+N7*D5</f>
+        <v>0.279443782524596</v>
+      </c>
+      <c r="L2" s="25" t="n">
+        <f aca="false">K7*E2+L7*E3+M7*E4+N7*E5</f>
+        <v>-0.654513220356938</v>
+      </c>
+      <c r="M2" s="25" t="n">
+        <f aca="false">K7*F2+L7*F3+M7*F4+N7*F5</f>
+        <v>0.109195314855247</v>
+      </c>
+      <c r="N2" s="25" t="n">
+        <f aca="false">K7*G2+L7*G3+M7*G4+N7*G5</f>
+        <v>91.7321201790691</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="15" t="n">
+        <f aca="false">C!Q43</f>
+        <v>0.476047687221952</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <f aca="false">C!R43</f>
+        <v>0.470905465669481</v>
+      </c>
+      <c r="F3" s="15" t="n">
+        <f aca="false">C!S43</f>
+        <v>-0.995804519920069</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <f aca="false">C!T43</f>
+        <v>69.40358</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="25" t="n">
+        <f aca="false">K8*D2+L8*D3+M8*D4+N8*D5</f>
+        <v>0.502106312369551</v>
+      </c>
+      <c r="L3" s="25" t="n">
+        <f aca="false">K8*E2+L8*E3+M8*E4+N8*E5</f>
+        <v>0.131106851150862</v>
+      </c>
+      <c r="M3" s="25" t="n">
+        <f aca="false">K8*F2+L8*F3+M8*F4+N8*F5</f>
+        <v>-0.499099433640188</v>
+      </c>
+      <c r="N3" s="25" t="n">
+        <f aca="false">K8*G2+L8*G3+M8*G4+N8*G5</f>
+        <v>70.3762836482462</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="15" t="n">
+        <f aca="false">C!Q44</f>
+        <v>0.768515002078832</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <f aca="false">C!R44</f>
+        <v>0.635193760020577</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <f aca="false">C!S44</f>
+        <v>0.66776760838685</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <f aca="false">C!T44</f>
+        <v>-519.784485</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25" t="n">
+        <f aca="false">K9*D2+L9*D3+M9*D4+N9*D5</f>
+        <v>0.433820727359812</v>
+      </c>
+      <c r="L4" s="25" t="n">
+        <f aca="false">K9*E2+L9*E3+M9*E4+N9*E5</f>
+        <v>0.269858181197636</v>
+      </c>
+      <c r="M4" s="25" t="n">
+        <f aca="false">K9*F2+L9*F3+M9*F4+N9*F5</f>
+        <v>0.507322519265316</v>
+      </c>
+      <c r="N4" s="25" t="n">
+        <f aca="false">K9*G2+L9*G3+M9*G4+N9*G5</f>
+        <v>-417.769674528886</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="15" t="n">
+        <f aca="false">C!Q45</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <f aca="false">C!R45</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <f aca="false">C!S45</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <f aca="false">C!T45</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25" t="n">
+        <f aca="false">K10*D2+L10*D3+M10*D4+N10*D5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="25" t="n">
+        <f aca="false">K10*E2+L10*E3+M10*E4+N10*E5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="25" t="n">
+        <f aca="false">K10*F2+L10*F3+M10*F4+N10*F5</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="25" t="n">
+        <f aca="false">K10*G2+L10*G3+M10*G4+N10*G5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="19"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H7" s="7"/>
+      <c r="I7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="15" t="n">
+        <f aca="false">B!Q42</f>
+        <v>0.559656043793015</v>
+      </c>
+      <c r="L7" s="15" t="n">
+        <f aca="false">B!R42</f>
+        <v>-0.197168385087901</v>
+      </c>
+      <c r="M7" s="15" t="n">
+        <f aca="false">B!S42</f>
+        <v>-0.0889367222680247</v>
+      </c>
+      <c r="N7" s="15" t="n">
+        <f aca="false">B!T42</f>
+        <v>-7.800129</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H8" s="7"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="15" t="n">
+        <f aca="false">B!Q43</f>
+        <v>0.210172772160269</v>
+      </c>
+      <c r="L8" s="15" t="n">
+        <f aca="false">B!R43</f>
+        <v>0.554007606559146</v>
+      </c>
+      <c r="M8" s="15" t="n">
+        <f aca="false">B!S43</f>
+        <v>0.0943555918696631</v>
+      </c>
+      <c r="N8" s="15" t="n">
+        <f aca="false">B!T43</f>
+        <v>55.813934</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H9" s="7"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="15" t="n">
+        <f aca="false">B!Q44</f>
+        <v>0.0511128016099489</v>
+      </c>
+      <c r="L9" s="15" t="n">
+        <f aca="false">B!R44</f>
+        <v>-0.119164591202405</v>
+      </c>
+      <c r="M9" s="15" t="n">
+        <f aca="false">B!S44</f>
+        <v>0.585821885657361</v>
+      </c>
+      <c r="N9" s="15" t="n">
+        <f aca="false">B!T44</f>
+        <v>-111.116089</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H10" s="7"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="15" t="n">
+        <f aca="false">B!Q45</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="15" t="n">
+        <f aca="false">B!R45</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="15" t="n">
+        <f aca="false">B!S45</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="15" t="n">
+        <f aca="false">B!T45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="15" t="n">
+        <f aca="false">K2</f>
+        <v>0.279443782524596</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <f aca="false">L2</f>
+        <v>-0.654513220356938</v>
+      </c>
+      <c r="F14" s="15" t="n">
+        <f aca="false">M2</f>
+        <v>0.109195314855247</v>
+      </c>
+      <c r="G14" s="15" t="n">
+        <f aca="false">N2</f>
+        <v>91.7321201790691</v>
+      </c>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="n">
-        <v>-72.488708</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15" t="n">
-        <f aca="false">-E6</f>
-        <v>72.488708</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="W6" s="17"/>
-    </row>
-    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C7" s="8" t="s">
+      <c r="K14" s="30" t="n">
+        <f aca="false">-G14</f>
+        <v>-91.7321201790691</v>
+      </c>
+      <c r="L14" s="35" t="n">
+        <f aca="false">DEGREES(ATAN2(F16,E16))</f>
+        <v>28.0096852885321</v>
+      </c>
+      <c r="M14" s="30" t="n">
+        <f aca="false">(D14+E14+F14+D15+E15+F15+D16+E16+F16)/(R14+S14+T14+R15+S16+S15+T15+T16+R16)</f>
+        <v>0.72</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="10" t="n">
+        <f aca="false">RADIANS(L14)</f>
+        <v>0.488861230732303</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="31" t="n">
+        <f aca="false">COS(P15)*COS(P16)</f>
+        <v>0.388116364617495</v>
+      </c>
+      <c r="S14" s="31" t="n">
+        <f aca="false">COS(P16)*SIN(P14)*SIN(P15)-COS(P14)*SIN(P16)</f>
+        <v>-0.909046139384636</v>
+      </c>
+      <c r="T14" s="32" t="n">
+        <f aca="false">COS(P14)*COS(P16)*SIN(P15) + SIN(P14)*SIN(P16)</f>
+        <v>0.151660159521177</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="15" t="n">
+        <f aca="false">K3</f>
+        <v>0.502106312369551</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <f aca="false">L3</f>
+        <v>0.131106851150862</v>
+      </c>
+      <c r="F15" s="15" t="n">
+        <f aca="false">M3</f>
+        <v>-0.499099433640188</v>
+      </c>
+      <c r="G15" s="15" t="n">
+        <f aca="false">N3</f>
+        <v>70.3762836482462</v>
+      </c>
+      <c r="H15" s="28"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="11" t="n">
-        <v>-94.601074</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15" t="n">
-        <f aca="false">-E7</f>
-        <v>94.601074</v>
-      </c>
-      <c r="P7" s="16"/>
-      <c r="W7" s="17"/>
-    </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C8" s="8" t="s">
+      <c r="K15" s="30" t="n">
+        <f aca="false">-G15</f>
+        <v>-70.3762836482462</v>
+      </c>
+      <c r="L15" s="35" t="n">
+        <f aca="false">DEGREES(ATAN2(SQRT(E16*E16 + F16*F16),-D16))</f>
+        <v>-37.0512242426752</v>
+      </c>
+      <c r="M15" s="30" t="n">
+        <f aca="false">M14</f>
+        <v>0.72</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="10" t="n">
+        <f aca="false">RADIANS(L15)</f>
+        <v>-0.646665854929426</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="31" t="n">
+        <f aca="false">COS(P15)*SIN(P16)</f>
+        <v>0.697369878291044</v>
+      </c>
+      <c r="S15" s="31" t="n">
+        <f aca="false">COS(P14)*COS(P16) + SIN(P14)*SIN(P15)*SIN(P16)</f>
+        <v>0.182092848820641</v>
+      </c>
+      <c r="T15" s="32" t="n">
+        <f aca="false">-COS(P16)*SIN(P14) + COS(P14)*SIN(P15)*SIN(P16)</f>
+        <v>-0.693193657833594</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="15" t="n">
+        <f aca="false">K4</f>
+        <v>0.433820727359812</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <f aca="false">L4</f>
+        <v>0.269858181197636</v>
+      </c>
+      <c r="F16" s="15" t="n">
+        <f aca="false">M4</f>
+        <v>0.507322519265316</v>
+      </c>
+      <c r="G16" s="15" t="n">
+        <f aca="false">N4</f>
+        <v>-417.769674528886</v>
+      </c>
+      <c r="H16" s="28"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11" t="n">
-        <v>797.534546</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="15" t="n">
-        <f aca="false">-E8</f>
-        <v>-797.534546</v>
-      </c>
-      <c r="P8" s="16"/>
-      <c r="W8" s="17"/>
-    </row>
-    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" s="16"/>
-      <c r="W9" s="17"/>
-    </row>
-    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="W10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="9" t="n">
-        <f aca="false">RADIANS(F11)</f>
-        <v>0.891741074721463</v>
-      </c>
-      <c r="F11" s="11" t="n">
-        <v>51.093</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="15" t="n">
-        <f aca="false">COS(E12)</f>
-        <v>0.99265634796081</v>
-      </c>
-      <c r="R11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="15" t="n">
-        <f aca="false">SIN(E12)</f>
-        <v>0.120968487024953</v>
-      </c>
-      <c r="T11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="X11" s="15" t="n">
-        <f aca="false">COS(E13)</f>
-        <v>0.998178228283513</v>
-      </c>
-      <c r="Y11" s="15" t="n">
-        <f aca="false">-SIN(E13)</f>
-        <v>-0.0603342736824404</v>
-      </c>
-      <c r="Z11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="9" t="n">
-        <f aca="false">RADIANS(F12)</f>
-        <v>0.121265476428566</v>
-      </c>
-      <c r="F12" s="11" t="n">
-        <v>6.948</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="15" t="n">
-        <f aca="false">COS(E11)</f>
-        <v>0.628058133299793</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <f aca="false">-SIN(E11)</f>
-        <v>-0.778166422557527</v>
-      </c>
-      <c r="M12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="12"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="15" t="n">
-        <f aca="false">-Y11</f>
-        <v>0.0603342736824404</v>
-      </c>
-      <c r="Y12" s="15" t="n">
-        <f aca="false">X11</f>
-        <v>0.998178228283513</v>
-      </c>
-      <c r="Z12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="9" t="n">
-        <f aca="false">RADIANS(F13)</f>
-        <v>0.0603709388264839</v>
-      </c>
-      <c r="F13" s="11" t="n">
-        <v>3.459</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="15" t="n">
-        <f aca="false">-L12</f>
-        <v>0.778166422557527</v>
-      </c>
-      <c r="L13" s="15" t="n">
-        <f aca="false">K12</f>
-        <v>0.628058133299793</v>
-      </c>
-      <c r="M13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="15" t="n">
-        <f aca="false">-S11</f>
-        <v>-0.120968487024953</v>
-      </c>
-      <c r="R13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="15" t="n">
-        <f aca="false">Q11</f>
-        <v>0.99265634796081</v>
-      </c>
-      <c r="T13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" s="12"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" s="12"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H15" s="19"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-    </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H16" s="19"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-    </row>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H17" s="19"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="18"/>
-    </row>
-    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="15" t="n">
-        <f aca="false">COS(E12)*COS(E13)</f>
-        <v>0.990847954701904</v>
-      </c>
-      <c r="K18" s="15" t="n">
-        <f aca="false">COS(E13)*SIN(E11)*SIN(E12) - COS(E11)*SIN(E13)</f>
-        <v>0.0560686935304164</v>
-      </c>
-      <c r="L18" s="15" t="n">
-        <f aca="false">COS(E11)*COS(E13)*SIN(E12)+ SIN(E11)*SIN(E13)</f>
-        <v>0.122786938510764</v>
-      </c>
-      <c r="M18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22"/>
-      <c r="O18" s="23" t="str">
-        <f aca="false">H18&amp;" x "&amp;O23</f>
-        <v>RxRyRz x SxT</v>
-      </c>
-      <c r="P18" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="25" t="n">
-        <f aca="false">Q23*J18+R23*J19+S23*J20+T23*J21</f>
-        <v>0.91152066744847</v>
-      </c>
-      <c r="R18" s="25" t="n">
-        <f aca="false">Q23*K18+R23*K19+S23*K20+T23*K21</f>
-        <v>0.0515798339263712</v>
-      </c>
-      <c r="S18" s="25" t="n">
-        <f aca="false">Q23*L18+R23*L19+S23*L20+T23*L21</f>
-        <v>0.112956616213592</v>
-      </c>
-      <c r="T18" s="25" t="n">
-        <f aca="false">Q23*M18+R23*M19+S23*M20+T23*M21</f>
-        <v>72.488708</v>
-      </c>
-      <c r="V18" s="19"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H19" s="12"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="15" t="n">
-        <f aca="false">COS(E12)*SIN(E13)</f>
-        <v>0.0598911997704793</v>
-      </c>
-      <c r="K19" s="15" t="n">
-        <f aca="false">COS(E11)*COS(E13) + SIN(E11)*SIN(E12)*SIN(E13)</f>
-        <v>0.63259343803372</v>
-      </c>
-      <c r="L19" s="15" t="n">
-        <f aca="false">-COS(E13)*SIN(E11) + COS(E11)*SIN(E12)*SIN(E13)</f>
-        <v>-0.772164869925284</v>
-      </c>
-      <c r="M19" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25" t="n">
-        <f aca="false">Q24*J18+R24*J19+S24*J20+T24*J21</f>
-        <v>0.0550963103168547</v>
-      </c>
-      <c r="R19" s="25" t="n">
-        <f aca="false">Q24*K18+R24*K19+S24*K20+T24*K21</f>
-        <v>0.58194800738474</v>
-      </c>
-      <c r="S19" s="25" t="n">
-        <f aca="false">Q24*L18+R24*L19+S24*L20+T24*L21</f>
-        <v>-0.710345350439066</v>
-      </c>
-      <c r="T19" s="25" t="n">
-        <f aca="false">Q24*M18+R24*M19+S24*M20+T24*M21</f>
-        <v>94.601074</v>
-      </c>
-      <c r="V19" s="19"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="18"/>
-    </row>
-    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="15" t="n">
-        <f aca="false">-SIN(E12)</f>
-        <v>-0.120968487024953</v>
-      </c>
-      <c r="K20" s="15" t="n">
-        <f aca="false">COS(E12)*SIN(E11)</f>
-        <v>0.772451839121683</v>
-      </c>
-      <c r="L20" s="15" t="n">
-        <f aca="false">COS(E11)*COS(E12)</f>
-        <v>0.623445892908457</v>
-      </c>
-      <c r="M20" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25" t="n">
-        <f aca="false">Q25*J18+R25*J19+S25*J20+T25*J21</f>
-        <v>-0.111283749953736</v>
-      </c>
-      <c r="R20" s="25" t="n">
-        <f aca="false">Q25*K18+R25*K19+S25*K20+T25*K21</f>
-        <v>0.710609344881601</v>
-      </c>
-      <c r="S20" s="25" t="n">
-        <f aca="false">Q25*L18+R25*L19+S25*L20+T25*L21</f>
-        <v>0.573532814722206</v>
-      </c>
-      <c r="T20" s="25" t="n">
-        <f aca="false">Q25*M18+R25*M19+S25*M20+T25*M21</f>
-        <v>-797.534546</v>
-      </c>
-      <c r="V20" s="19"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H21" s="12"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25" t="n">
-        <f aca="false">Q26*J18+R26*J19+S26*J20+T26*J21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="25" t="n">
-        <f aca="false">Q26*K18+R26*K19+S26*K20+T26*K21</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="25" t="n">
-        <f aca="false">Q26*L18+R26*L19+S26*L20+T26*L21</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="25" t="n">
-        <f aca="false">Q26*M18+R26*M19+S26*M20+T26*M21</f>
-        <v>1</v>
-      </c>
-      <c r="V21" s="19"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H22" s="19"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="16"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-    </row>
-    <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="11" t="n">
-        <v>0.91994</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="15" t="n">
-        <f aca="false">E23</f>
-        <v>0.91994</v>
-      </c>
-      <c r="K23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="21" t="n">
-        <f aca="false">J23</f>
-        <v>0.91994</v>
-      </c>
-      <c r="R23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" s="15" t="n">
-        <f aca="false">M6</f>
-        <v>72.488708</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E24" s="9" t="n">
-        <f aca="false">E23</f>
-        <v>0.91994</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="15" t="n">
-        <f aca="false">E24</f>
-        <v>0.91994</v>
-      </c>
-      <c r="L24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="21" t="n">
-        <f aca="false">K24</f>
-        <v>0.91994</v>
-      </c>
-      <c r="S24" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="15" t="n">
-        <f aca="false">M7</f>
-        <v>94.601074</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E25" s="9" t="n">
-        <f aca="false">E24</f>
-        <v>0.91994</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="15" t="n">
-        <f aca="false">E25</f>
-        <v>0.91994</v>
-      </c>
-      <c r="M25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="21" t="n">
-        <f aca="false">L25</f>
-        <v>0.91994</v>
-      </c>
-      <c r="T25" s="15" t="n">
-        <f aca="false">M8</f>
-        <v>-797.534546</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" s="14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-    </row>
-    <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q30" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="R30" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S30" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H31" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="15" t="n">
-        <f aca="false">Q18</f>
-        <v>0.91152066744847</v>
-      </c>
-      <c r="K31" s="15" t="n">
-        <f aca="false">R18</f>
-        <v>0.0515798339263712</v>
-      </c>
-      <c r="L31" s="15" t="n">
-        <f aca="false">S18</f>
-        <v>0.112956616213592</v>
-      </c>
-      <c r="M31" s="15" t="n">
-        <f aca="false">T18</f>
-        <v>72.488708</v>
-      </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q31" s="29" t="n">
-        <f aca="false">-M31</f>
-        <v>-72.488708</v>
-      </c>
-      <c r="R31" s="29" t="n">
-        <f aca="false">DEGREES(ATAN2(L33,K33))</f>
-        <v>51.093</v>
-      </c>
-      <c r="S31" s="29" t="n">
-        <f aca="false">(J31+K31+L31+J32+K32+L32+J33+K33+L33)/(X31+Y31+Z31+X32+Y33+Y32+Z32+Z33+X33)</f>
-        <v>0.91994</v>
-      </c>
-      <c r="V31" s="10" t="n">
-        <f aca="false">RADIANS(R31)</f>
-        <v>0.891741074721463</v>
-      </c>
-      <c r="X31" s="30" t="n">
-        <f aca="false">COS(V32)*COS(V33)</f>
-        <v>0.990847954701904</v>
-      </c>
-      <c r="Y31" s="30" t="n">
-        <f aca="false">COS(V33)*SIN(V31)*SIN(V32)-COS(V31)*SIN(V33)</f>
-        <v>0.0560686935304164</v>
-      </c>
-      <c r="Z31" s="31" t="n">
-        <f aca="false">COS(V31)*COS(V33)*SIN(V32) + SIN(V31)*SIN(V33)</f>
-        <v>0.122786938510764</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="15" t="n">
-        <f aca="false">Q19</f>
-        <v>0.0550963103168547</v>
-      </c>
-      <c r="K32" s="15" t="n">
-        <f aca="false">R19</f>
-        <v>0.58194800738474</v>
-      </c>
-      <c r="L32" s="15" t="n">
-        <f aca="false">S19</f>
-        <v>-0.710345350439066</v>
-      </c>
-      <c r="M32" s="15" t="n">
-        <f aca="false">T19</f>
-        <v>94.601074</v>
-      </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="29" t="n">
-        <f aca="false">-M32</f>
-        <v>-94.601074</v>
-      </c>
-      <c r="R32" s="29" t="n">
-        <f aca="false">DEGREES(ATAN2(SQRT(K33*K33 + L33*L33),-J33))</f>
-        <v>6.948</v>
-      </c>
-      <c r="S32" s="29" t="n">
-        <f aca="false">S31</f>
-        <v>0.91994</v>
-      </c>
-      <c r="V32" s="10" t="n">
-        <f aca="false">RADIANS(R32)</f>
-        <v>0.121265476428566</v>
-      </c>
-      <c r="X32" s="30" t="n">
-        <f aca="false">COS(V32)*SIN(V33)</f>
-        <v>0.0598911997704793</v>
-      </c>
-      <c r="Y32" s="30" t="n">
-        <f aca="false">COS(V31)*COS(V33) + SIN(V31)*SIN(V32)*SIN(V33)</f>
-        <v>0.63259343803372</v>
-      </c>
-      <c r="Z32" s="31" t="n">
-        <f aca="false">-COS(V33)*SIN(V31) + COS(V31)*SIN(V32)*SIN(V33)</f>
-        <v>-0.772164869925284</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H33" s="12"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="15" t="n">
-        <f aca="false">Q20</f>
-        <v>-0.111283749953736</v>
-      </c>
-      <c r="K33" s="15" t="n">
-        <f aca="false">R20</f>
-        <v>0.710609344881601</v>
-      </c>
-      <c r="L33" s="15" t="n">
-        <f aca="false">S20</f>
-        <v>0.573532814722206</v>
-      </c>
-      <c r="M33" s="15" t="n">
-        <f aca="false">T20</f>
-        <v>-797.534546</v>
-      </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="29" t="n">
-        <f aca="false">-M33</f>
-        <v>797.534546</v>
-      </c>
-      <c r="R33" s="29" t="n">
-        <f aca="false">DEGREES(ATAN2(J31,J32))</f>
-        <v>3.459</v>
-      </c>
-      <c r="S33" s="29" t="n">
-        <f aca="false">S32</f>
-        <v>0.91994</v>
-      </c>
-      <c r="V33" s="10" t="n">
-        <f aca="false">RADIANS(R33)</f>
-        <v>0.0603709388264839</v>
-      </c>
-      <c r="X33" s="30" t="n">
-        <f aca="false">-SIN(V32)</f>
-        <v>-0.120968487024953</v>
-      </c>
-      <c r="Y33" s="30" t="n">
-        <f aca="false">COS(V32)*SIN(V31)</f>
-        <v>0.772451839121683</v>
-      </c>
-      <c r="Z33" s="31" t="n">
-        <f aca="false">COS(V31)*COS(V32)</f>
-        <v>0.623445892908457</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H34" s="12"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="15" t="n">
-        <f aca="false">Q21</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="15" t="n">
-        <f aca="false">R21</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="15" t="n">
-        <f aca="false">S21</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="15" t="n">
-        <f aca="false">T21</f>
-        <v>1</v>
-      </c>
+      <c r="K16" s="30" t="n">
+        <f aca="false">-G16</f>
+        <v>417.769674528886</v>
+      </c>
+      <c r="L16" s="35" t="n">
+        <f aca="false">DEGREES(ATAN2(D14,D15))</f>
+        <v>60.9021785788458</v>
+      </c>
+      <c r="M16" s="30" t="n">
+        <f aca="false">M15</f>
+        <v>0.72</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="10" t="n">
+        <f aca="false">RADIANS(L16)</f>
+        <v>1.06294353783842</v>
+      </c>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="31" t="n">
+        <f aca="false">-SIN(P15)</f>
+        <v>0.602528787999739</v>
+      </c>
+      <c r="S16" s="31" t="n">
+        <f aca="false">COS(P15)*SIN(P14)</f>
+        <v>0.374803029441162</v>
+      </c>
+      <c r="T16" s="32" t="n">
+        <f aca="false">COS(P14)*COS(P15)</f>
+        <v>0.704614610090717</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="15" t="n">
+        <f aca="false">K5</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <f aca="false">L5</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="n">
+        <f aca="false">M5</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="15" t="n">
+        <f aca="false">N5</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37" t="n">
+        <f aca="false">'CxB ZYX'!C26</f>
+        <v>44.5318687002948</v>
+      </c>
+      <c r="M17" s="36"/>
+    </row>
+    <row r="18" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K18" s="36"/>
+      <c r="L18" s="37" t="n">
+        <f aca="false">'CxB ZYX'!C27</f>
+        <v>8.72314750064126</v>
+      </c>
+      <c r="M18" s="38"/>
+    </row>
+    <row r="19" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K19" s="36"/>
+      <c r="L19" s="37" t="n">
+        <f aca="false">'CxB ZYX'!C28</f>
+        <v>66.8799880381377</v>
+      </c>
+      <c r="M19" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="J16:T16"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="O18:O21"/>
-    <mergeCell ref="P18:P21"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="P23:P26"/>
-    <mergeCell ref="J29:S29"/>
-    <mergeCell ref="H31:H34"/>
-    <mergeCell ref="I31:I34"/>
+  <mergeCells count="9">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="D12:M12"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -7828,565 +6339,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B4:T21"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="33" width="8.77551020408163"/>
-  </cols>
-  <sheetData>
-    <row r="4" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="15" t="n">
-        <f aca="false">C!Q42</f>
-        <v>0.789153528199933</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <f aca="false">C!R42</f>
-        <v>-0.902649948558981</v>
-      </c>
-      <c r="F4" s="15" t="n">
-        <f aca="false">C!S42</f>
-        <v>-0.0495961621102523</v>
-      </c>
-      <c r="G4" s="15" t="n">
-        <f aca="false">C!T42</f>
-        <v>119.695862</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23" t="str">
-        <f aca="false">B4&amp;" x "&amp;I9</f>
-        <v>C x B</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="25" t="n">
-        <f aca="false">K9*D4+L9*D5+M9*D6+N9*D7</f>
-        <v>0.279443782524596</v>
-      </c>
-      <c r="L4" s="25" t="n">
-        <f aca="false">K9*E4+L9*E5+M9*E6+N9*E7</f>
-        <v>-0.654513220356938</v>
-      </c>
-      <c r="M4" s="25" t="n">
-        <f aca="false">K9*F4+L9*F5+M9*F6+N9*F7</f>
-        <v>0.109195314855247</v>
-      </c>
-      <c r="N4" s="25" t="n">
-        <f aca="false">K9*G4+L9*G5+M9*G6+N9*G7</f>
-        <v>91.7321201790691</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="15" t="n">
-        <f aca="false">C!Q43</f>
-        <v>0.476047687221952</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <f aca="false">C!R43</f>
-        <v>0.470905465669481</v>
-      </c>
-      <c r="F5" s="15" t="n">
-        <f aca="false">C!S43</f>
-        <v>-0.995804519920069</v>
-      </c>
-      <c r="G5" s="15" t="n">
-        <f aca="false">C!T43</f>
-        <v>69.40358</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25" t="n">
-        <f aca="false">K10*D4+L10*D5+M10*D6+N10*D7</f>
-        <v>0.502106312369551</v>
-      </c>
-      <c r="L5" s="25" t="n">
-        <f aca="false">K10*E4+L10*E5+M10*E6+N10*E7</f>
-        <v>0.131106851150862</v>
-      </c>
-      <c r="M5" s="25" t="n">
-        <f aca="false">K10*F4+L10*F5+M10*F6+N10*F7</f>
-        <v>-0.499099433640188</v>
-      </c>
-      <c r="N5" s="25" t="n">
-        <f aca="false">K10*G4+L10*G5+M10*G6+N10*G7</f>
-        <v>70.3762836482462</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="15" t="n">
-        <f aca="false">C!Q44</f>
-        <v>0.768515002078832</v>
-      </c>
-      <c r="E6" s="15" t="n">
-        <f aca="false">C!R44</f>
-        <v>0.635193760020577</v>
-      </c>
-      <c r="F6" s="15" t="n">
-        <f aca="false">C!S44</f>
-        <v>0.66776760838685</v>
-      </c>
-      <c r="G6" s="15" t="n">
-        <f aca="false">C!T44</f>
-        <v>-519.784485</v>
-      </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25" t="n">
-        <f aca="false">K11*D4+L11*D5+M11*D6+N11*D7</f>
-        <v>0.433820727359812</v>
-      </c>
-      <c r="L6" s="25" t="n">
-        <f aca="false">K11*E4+L11*E5+M11*E6+N11*E7</f>
-        <v>0.269858181197636</v>
-      </c>
-      <c r="M6" s="25" t="n">
-        <f aca="false">K11*F4+L11*F5+M11*F6+N11*F7</f>
-        <v>0.507322519265316</v>
-      </c>
-      <c r="N6" s="25" t="n">
-        <f aca="false">K11*G4+L11*G5+M11*G6+N11*G7</f>
-        <v>-417.769674528886</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15" t="n">
-        <f aca="false">C!Q45</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <f aca="false">C!R45</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <f aca="false">C!S45</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="15" t="n">
-        <f aca="false">C!T45</f>
-        <v>1</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25" t="n">
-        <f aca="false">K12*D4+L12*D5+M12*D6+N12*D7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="25" t="n">
-        <f aca="false">K12*E4+L12*E5+M12*E6+N12*E7</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="25" t="n">
-        <f aca="false">K12*F4+L12*F5+M12*F6+N12*F7</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="25" t="n">
-        <f aca="false">K12*G4+L12*G5+M12*G6+N12*G7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="19"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-    </row>
-    <row r="9" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="7"/>
-      <c r="I9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="15" t="n">
-        <f aca="false">B!Q42</f>
-        <v>0.559656043793015</v>
-      </c>
-      <c r="L9" s="15" t="n">
-        <f aca="false">B!R42</f>
-        <v>-0.197168385087901</v>
-      </c>
-      <c r="M9" s="15" t="n">
-        <f aca="false">B!S42</f>
-        <v>-0.0889367222680247</v>
-      </c>
-      <c r="N9" s="15" t="n">
-        <f aca="false">B!T42</f>
-        <v>-7.800129</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H10" s="7"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15" t="n">
-        <f aca="false">B!Q43</f>
-        <v>0.210172772160269</v>
-      </c>
-      <c r="L10" s="15" t="n">
-        <f aca="false">B!R43</f>
-        <v>0.554007606559146</v>
-      </c>
-      <c r="M10" s="15" t="n">
-        <f aca="false">B!S43</f>
-        <v>0.0943555918696631</v>
-      </c>
-      <c r="N10" s="15" t="n">
-        <f aca="false">B!T43</f>
-        <v>55.813934</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H11" s="7"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15" t="n">
-        <f aca="false">B!Q44</f>
-        <v>0.0511128016099489</v>
-      </c>
-      <c r="L11" s="15" t="n">
-        <f aca="false">B!R44</f>
-        <v>-0.119164591202405</v>
-      </c>
-      <c r="M11" s="15" t="n">
-        <f aca="false">B!S44</f>
-        <v>0.585821885657361</v>
-      </c>
-      <c r="N11" s="15" t="n">
-        <f aca="false">B!T44</f>
-        <v>-111.116089</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H12" s="7"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="15" t="n">
-        <f aca="false">B!Q45</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <f aca="false">B!R45</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <f aca="false">B!S45</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="15" t="n">
-        <f aca="false">B!T45</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="15" t="n">
-        <f aca="false">K4</f>
-        <v>0.279443782524596</v>
-      </c>
-      <c r="E16" s="15" t="n">
-        <f aca="false">L4</f>
-        <v>-0.654513220356938</v>
-      </c>
-      <c r="F16" s="15" t="n">
-        <f aca="false">M4</f>
-        <v>0.109195314855247</v>
-      </c>
-      <c r="G16" s="15" t="n">
-        <f aca="false">N4</f>
-        <v>91.7321201790691</v>
-      </c>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="29" t="n">
-        <f aca="false">-G16</f>
-        <v>-91.7321201790691</v>
-      </c>
-      <c r="L16" s="34" t="n">
-        <f aca="false">DEGREES(ATAN2(F18,E18))</f>
-        <v>28.0096852885321</v>
-      </c>
-      <c r="M16" s="29" t="n">
-        <f aca="false">(D16+E16+F16+D17+E17+F17+D18+E18+F18)/(R16+S16+T16+R17+S18+S17+T17+T18+R18)</f>
-        <v>0.72</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="10" t="n">
-        <f aca="false">RADIANS(L16)</f>
-        <v>0.488861230732303</v>
-      </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="30" t="n">
-        <f aca="false">COS(P17)*COS(P18)</f>
-        <v>0.388116364617495</v>
-      </c>
-      <c r="S16" s="30" t="n">
-        <f aca="false">COS(P18)*SIN(P16)*SIN(P17)-COS(P16)*SIN(P18)</f>
-        <v>-0.909046139384636</v>
-      </c>
-      <c r="T16" s="31" t="n">
-        <f aca="false">COS(P16)*COS(P18)*SIN(P17) + SIN(P16)*SIN(P18)</f>
-        <v>0.151660159521177</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="15" t="n">
-        <f aca="false">K5</f>
-        <v>0.502106312369551</v>
-      </c>
-      <c r="E17" s="15" t="n">
-        <f aca="false">L5</f>
-        <v>0.131106851150862</v>
-      </c>
-      <c r="F17" s="15" t="n">
-        <f aca="false">M5</f>
-        <v>-0.499099433640188</v>
-      </c>
-      <c r="G17" s="15" t="n">
-        <f aca="false">N5</f>
-        <v>70.3762836482462</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="29" t="n">
-        <f aca="false">-G17</f>
-        <v>-70.3762836482462</v>
-      </c>
-      <c r="L17" s="34" t="n">
-        <f aca="false">DEGREES(ATAN2(SQRT(E18*E18 + F18*F18),-D18))</f>
-        <v>-37.0512242426752</v>
-      </c>
-      <c r="M17" s="29" t="n">
-        <f aca="false">M16</f>
-        <v>0.72</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="10" t="n">
-        <f aca="false">RADIANS(L17)</f>
-        <v>-0.646665854929426</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="30" t="n">
-        <f aca="false">COS(P17)*SIN(P18)</f>
-        <v>0.697369878291044</v>
-      </c>
-      <c r="S17" s="30" t="n">
-        <f aca="false">COS(P16)*COS(P18) + SIN(P16)*SIN(P17)*SIN(P18)</f>
-        <v>0.182092848820641</v>
-      </c>
-      <c r="T17" s="31" t="n">
-        <f aca="false">-COS(P18)*SIN(P16) + COS(P16)*SIN(P17)*SIN(P18)</f>
-        <v>-0.693193657833594</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="15" t="n">
-        <f aca="false">K6</f>
-        <v>0.433820727359812</v>
-      </c>
-      <c r="E18" s="15" t="n">
-        <f aca="false">L6</f>
-        <v>0.269858181197636</v>
-      </c>
-      <c r="F18" s="15" t="n">
-        <f aca="false">M6</f>
-        <v>0.507322519265316</v>
-      </c>
-      <c r="G18" s="15" t="n">
-        <f aca="false">N6</f>
-        <v>-417.769674528886</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="29" t="n">
-        <f aca="false">-G18</f>
-        <v>417.769674528886</v>
-      </c>
-      <c r="L18" s="34" t="n">
-        <f aca="false">DEGREES(ATAN2(D16,D17))</f>
-        <v>60.9021785788458</v>
-      </c>
-      <c r="M18" s="29" t="n">
-        <f aca="false">M17</f>
-        <v>0.72</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="10" t="n">
-        <f aca="false">RADIANS(L18)</f>
-        <v>1.06294353783842</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="30" t="n">
-        <f aca="false">-SIN(P17)</f>
-        <v>0.602528787999739</v>
-      </c>
-      <c r="S18" s="30" t="n">
-        <f aca="false">COS(P17)*SIN(P16)</f>
-        <v>0.374803029441162</v>
-      </c>
-      <c r="T18" s="31" t="n">
-        <f aca="false">COS(P16)*COS(P17)</f>
-        <v>0.704614610090717</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15" t="n">
-        <f aca="false">K7</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="15" t="n">
-        <f aca="false">L7</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="15" t="n">
-        <f aca="false">M7</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="15" t="n">
-        <f aca="false">N7</f>
-        <v>1</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36" t="n">
-        <f aca="false">'CxB ZYX'!C26</f>
-        <v>44.5318687002948</v>
-      </c>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K20" s="35"/>
-      <c r="L20" s="36" t="n">
-        <f aca="false">'CxB ZYX'!C27</f>
-        <v>8.72314750064126</v>
-      </c>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K21" s="35"/>
-      <c r="L21" s="36" t="n">
-        <f aca="false">'CxB ZYX'!C28</f>
-        <v>66.8799880381377</v>
-      </c>
-      <c r="M21" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="J4:J7"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="D14:M14"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -8433,8 +6385,8 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="n">
-        <f aca="false">CxB!L16</f>
+      <c r="C3" s="39" t="n">
+        <f aca="false">CxB!L14</f>
         <v>28.0096852885321</v>
       </c>
       <c r="D3" s="3" t="n">
@@ -8452,8 +6404,8 @@
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38" t="n">
-        <f aca="false">CxB!L17</f>
+      <c r="C4" s="39" t="n">
+        <f aca="false">CxB!L15</f>
         <v>-37.0512242426752</v>
       </c>
       <c r="D4" s="3" t="n">
@@ -8471,8 +6423,8 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38" t="n">
-        <f aca="false">CxB!L18</f>
+      <c r="C5" s="39" t="n">
+        <f aca="false">CxB!L16</f>
         <v>60.9021785788458</v>
       </c>
       <c r="D5" s="3" t="n">
@@ -8912,7 +6864,7 @@
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="39" t="n">
+      <c r="C26" s="40" t="n">
         <f aca="false">DEGREES(D26)</f>
         <v>44.5318687002948</v>
       </c>
@@ -8931,7 +6883,7 @@
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="39" t="n">
+      <c r="C27" s="40" t="n">
         <f aca="false">DEGREES(D27)</f>
         <v>8.72314750064126</v>
       </c>
@@ -8950,7 +6902,7 @@
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="39" t="n">
+      <c r="C28" s="40" t="n">
         <f aca="false">DEGREES(D28)</f>
         <v>66.8799880381377</v>
       </c>
@@ -8975,7 +6927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -8983,7 +6935,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24"/>
@@ -8992,191 +6944,191 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="40" t="n">
+      <c r="A1" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="n">
+      <c r="C1" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="D1" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1" s="41" t="n">
+      <c r="D1" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="42" t="n">
         <f aca="false">C2 * D3 * B4 - D2 * C3 * B4 + D2 * B3 * C4 - B2 * D3 * C4 - C2 * B3 * D4 + B2 * C3 * D4</f>
         <v>117</v>
       </c>
-      <c r="G1" s="41" t="n">
+      <c r="G1" s="42" t="n">
         <f aca="false">D1 * C3 * B4 - C1 * D3 * B4 - D1 * B3 * C4 + B1 * D3 * C4 + C1 * B3 * D4 - B1 * C3 * D4</f>
         <v>-12</v>
       </c>
-      <c r="H1" s="41" t="n">
+      <c r="H1" s="42" t="n">
         <f aca="false">C1 * D2 * B4 - D1 * C2 * B4 + D1 * B2 * C4 - B1 * D2 * C4 - C1 * B2 * D4 + B1 * C2 * D4</f>
         <v>-60</v>
       </c>
-      <c r="I1" s="41" t="n">
+      <c r="I1" s="42" t="n">
         <f aca="false">D1 * C2 * B3 - C1 * D2 * B3 - D1 * B2 * C3 + B1 * D2 * C3 + C1 * B2 * D3 - B1 * C2 * D3</f>
         <v>27</v>
       </c>
-      <c r="K1" s="42" t="n">
+      <c r="K1" s="43" t="n">
         <f aca="false">F1/$A$5</f>
         <v>-1.21875</v>
       </c>
-      <c r="L1" s="42" t="n">
+      <c r="L1" s="43" t="n">
         <f aca="false">G1/$A$5</f>
         <v>0.125</v>
       </c>
-      <c r="M1" s="42" t="n">
+      <c r="M1" s="43" t="n">
         <f aca="false">H1/$A$5</f>
         <v>0.625</v>
       </c>
-      <c r="N1" s="42" t="n">
+      <c r="N1" s="43" t="n">
         <f aca="false">I1/$A$5</f>
         <v>-0.28125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="40" t="n">
+      <c r="A2" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="40" t="n">
+      <c r="B2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="n">
+      <c r="D2" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="41" t="n">
+      <c r="F2" s="42" t="n">
         <f aca="false">D2 * C3 * A4 - C2 * D3 * A4 - D2 * A3 * C4 + A2 * D3 * C4 + C2 * A3 * D4 - A2 * C3 * D4</f>
         <v>-82</v>
       </c>
-      <c r="G2" s="41" t="n">
+      <c r="G2" s="42" t="n">
         <f aca="false">C1 * D3 * A4 - D1 * C3 * A4 + D1 * A3 * C4 - A1 * D3 * C4 - C1 * A3 * D4 + A1 * C3 * D4</f>
         <v>24</v>
       </c>
-      <c r="H2" s="41" t="n">
+      <c r="H2" s="42" t="n">
         <f aca="false">D1 * C2 * A4 - C1 * D2 * A4 - D1 * A2 * C4 + A1 * D2 * C4 + C1 * A2 * D4 - A1 * C2 * D4</f>
         <v>24</v>
       </c>
-      <c r="I2" s="41" t="n">
+      <c r="I2" s="42" t="n">
         <f aca="false">C1 * D2 * A3 - D1 * C2 * A3 + D1 * A2 * C3 - A1 * D2 * C3 - C1 * A2 * D3 + A1 * C2 * D3</f>
         <v>-14</v>
       </c>
-      <c r="K2" s="42" t="n">
+      <c r="K2" s="43" t="n">
         <f aca="false">F2/$A$5</f>
         <v>0.854166666666667</v>
       </c>
-      <c r="L2" s="42" t="n">
+      <c r="L2" s="43" t="n">
         <f aca="false">G2/$A$5</f>
         <v>-0.25</v>
       </c>
-      <c r="M2" s="42" t="n">
+      <c r="M2" s="43" t="n">
         <f aca="false">H2/$A$5</f>
         <v>-0.25</v>
       </c>
-      <c r="N2" s="42" t="n">
+      <c r="N2" s="43" t="n">
         <f aca="false">I2/$A$5</f>
         <v>0.145833333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="40" t="n">
+      <c r="A3" s="41" t="n">
         <v>9</v>
       </c>
-      <c r="B3" s="40" t="n">
+      <c r="B3" s="41" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="40" t="n">
+      <c r="C3" s="41" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="40" t="n">
+      <c r="D3" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="41" t="n">
+      <c r="F3" s="42" t="n">
         <f aca="false">B2 * D3 * A4 - D2 * B3 * A4 + D2 * A3 * B4 - A2 * D3 * B4 - B2 * A3 * D4 + A2 * B3 * D4</f>
         <v>-27</v>
       </c>
-      <c r="G3" s="41" t="n">
+      <c r="G3" s="42" t="n">
         <f aca="false">D1 * B3 * A4 - B1 * D3 * A4 - D1 * A3 * B4 + A1 * D3 * B4 + B1 * A3 * D4 - A1 * B3 * D4</f>
         <v>-12</v>
       </c>
-      <c r="H3" s="41" t="n">
+      <c r="H3" s="42" t="n">
         <f aca="false">B1 * D2 * A4 - D1 * B2 * A4 + D1 * A2 * B4 - A1 * D2 * B4 - B1 * A2 * D4 + A1 * B2 * D4</f>
         <v>36</v>
       </c>
-      <c r="I3" s="41" t="n">
+      <c r="I3" s="42" t="n">
         <f aca="false">D1 * B2 * A3 - B1 * D2 * A3 - D1 * A2 * B3 + A1 * D2 * B3 + B1 * A2 * D3 - A1 * B2 * D3</f>
         <v>-21</v>
       </c>
-      <c r="K3" s="42" t="n">
+      <c r="K3" s="43" t="n">
         <f aca="false">F3/$A$5</f>
         <v>0.28125</v>
       </c>
-      <c r="L3" s="42" t="n">
+      <c r="L3" s="43" t="n">
         <f aca="false">G3/$A$5</f>
         <v>0.125</v>
       </c>
-      <c r="M3" s="42" t="n">
+      <c r="M3" s="43" t="n">
         <f aca="false">H3/$A$5</f>
         <v>-0.375</v>
       </c>
-      <c r="N3" s="42" t="n">
+      <c r="N3" s="43" t="n">
         <f aca="false">I3/$A$5</f>
         <v>0.21875</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="40" t="n">
+      <c r="A4" s="41" t="n">
         <v>13</v>
       </c>
-      <c r="B4" s="40" t="n">
+      <c r="B4" s="41" t="n">
         <v>14</v>
       </c>
-      <c r="C4" s="40" t="n">
+      <c r="C4" s="41" t="n">
         <v>15</v>
       </c>
-      <c r="D4" s="40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="41" t="n">
+      <c r="D4" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42" t="n">
         <f aca="false">C2 * B3 * A4 - B2 * C3 * A4 - C2 * A3 * B4 + A2 * C3 * B4 + B2 * A3 * C4 - A2 * B3 * C4</f>
         <v>32</v>
       </c>
-      <c r="G4" s="41" t="n">
+      <c r="G4" s="42" t="n">
         <f aca="false">B1 * C3 * A4 - C1 * B3 * A4 + C1 * A3 * B4 - A1 * C3 * B4 - B1 * A3 * C4 + A1 * B3 * C4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="41" t="n">
+      <c r="H4" s="42" t="n">
         <f aca="false">C1 * B2 * A4 - B1 * C2 * A4 - C1 * A2 * B4 + A1 * C2 * B4 + B1 * A2 * C4 - A1 * B2 * C4</f>
         <v>-96</v>
       </c>
-      <c r="I4" s="41" t="n">
+      <c r="I4" s="42" t="n">
         <f aca="false">B1 * C2 * A3 - C1 * B2 * A3 + C1 * A2 * B3 - A1 * C2 * B3 - B1 * A2 * C3 + A1 * B2 * C3</f>
         <v>64</v>
       </c>
-      <c r="K4" s="42" t="n">
+      <c r="K4" s="43" t="n">
         <f aca="false">F4/$A$5</f>
         <v>-0.333333333333333</v>
       </c>
-      <c r="L4" s="42" t="n">
+      <c r="L4" s="43" t="n">
         <f aca="false">G4/$A$5</f>
         <v>-0</v>
       </c>
-      <c r="M4" s="42" t="n">
+      <c r="M4" s="43" t="n">
         <f aca="false">H4/$A$5</f>
         <v>1</v>
       </c>
-      <c r="N4" s="42" t="n">
+      <c r="N4" s="43" t="n">
         <f aca="false">I4/$A$5</f>
         <v>-0.666666666666667</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="n">
+      <c r="A5" s="44" t="n">
         <f aca="false">SUM(A6:A11)</f>
         <v>-96</v>
       </c>
@@ -9228,7 +7180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9354,7 +7306,7 @@
       <c r="W8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="44"/>
+      <c r="E9" s="45"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
       <c r="J9" s="14" t="n">
@@ -9652,7 +7604,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="16"/>
       <c r="J16" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -9693,7 +7645,7 @@
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H18" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>16</v>
@@ -9895,13 +7847,13 @@
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E23" s="11" t="n">
         <v>0.6</v>
@@ -10072,7 +8024,7 @@
         <v>37</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10098,20 +8050,20 @@
         <f aca="false">T18</f>
         <v>-32</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="28" t="s">
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="29" t="n">
+      <c r="Q31" s="30" t="n">
         <f aca="false">-M31</f>
         <v>32</v>
       </c>
-      <c r="R31" s="29" t="n">
+      <c r="R31" s="30" t="n">
         <f aca="false">DEGREES(ATAN2(L33,K33))</f>
         <v>75</v>
       </c>
-      <c r="S31" s="29" t="n">
+      <c r="S31" s="30" t="n">
         <f aca="false">(J31+K31+L31+J32+K32+L32+J33+K33+L33)/(X31+Y31+Z31+X32+Y33+Y32+Z32+Z33+X33)</f>
         <v>0.6</v>
       </c>
@@ -10119,15 +8071,15 @@
         <f aca="false">RADIANS(R31)</f>
         <v>1.30899693899575</v>
       </c>
-      <c r="X31" s="30" t="n">
+      <c r="X31" s="31" t="n">
         <f aca="false">COS(V32)*COS(V33)</f>
         <v>-0.590757986133236</v>
       </c>
-      <c r="Y31" s="30" t="n">
+      <c r="Y31" s="31" t="n">
         <f aca="false">COS(V33)*SIN(V31)*SIN(V32)-COS(V31)*SIN(V33)</f>
         <v>-0.0957831560990386</v>
       </c>
-      <c r="Z31" s="31" t="n">
+      <c r="Z31" s="32" t="n">
         <f aca="false">COS(V31)*COS(V33)*SIN(V32) + SIN(V31)*SIN(V33)</f>
         <v>0.801143301056378</v>
       </c>
@@ -10151,20 +8103,20 @@
         <f aca="false">T19</f>
         <v>143</v>
       </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="28" t="s">
+      <c r="N32" s="28"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="29" t="n">
+      <c r="Q32" s="30" t="n">
         <f aca="false">-M32</f>
         <v>-143</v>
       </c>
-      <c r="R32" s="29" t="n">
+      <c r="R32" s="30" t="n">
         <f aca="false">DEGREES(ATAN2(SQRT(K33*K33 + L33*L33),-J33))</f>
         <v>-11</v>
       </c>
-      <c r="S32" s="29" t="n">
+      <c r="S32" s="30" t="n">
         <f aca="false">S31</f>
         <v>0.6</v>
       </c>
@@ -10172,15 +8124,15 @@
         <f aca="false">RADIANS(R32)</f>
         <v>-0.191986217719376</v>
       </c>
-      <c r="X32" s="30" t="n">
+      <c r="X32" s="31" t="n">
         <f aca="false">COS(V32)*SIN(V33)</f>
         <v>0.783962326329013</v>
       </c>
-      <c r="Y32" s="30" t="n">
+      <c r="Y32" s="31" t="n">
         <f aca="false">COS(V31)*COS(V33) + SIN(V31)*SIN(V32)*SIN(V33)</f>
         <v>-0.30295557332965</v>
       </c>
-      <c r="Z32" s="31" t="n">
+      <c r="Z32" s="32" t="n">
         <f aca="false">-COS(V33)*SIN(V31) + COS(V31)*SIN(V32)*SIN(V33)</f>
         <v>0.541868057266071</v>
       </c>
@@ -10204,20 +8156,20 @@
         <f aca="false">T20</f>
         <v>-225</v>
       </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="28" t="s">
+      <c r="N33" s="28"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="29" t="n">
+      <c r="Q33" s="30" t="n">
         <f aca="false">-M33</f>
         <v>225</v>
       </c>
-      <c r="R33" s="29" t="n">
+      <c r="R33" s="30" t="n">
         <f aca="false">DEGREES(ATAN2(J31,J32))</f>
         <v>127</v>
       </c>
-      <c r="S33" s="29" t="n">
+      <c r="S33" s="30" t="n">
         <f aca="false">S32</f>
         <v>0.6</v>
       </c>
@@ -10225,15 +8177,15 @@
         <f aca="false">RADIANS(R33)</f>
         <v>2.2165681500328</v>
       </c>
-      <c r="X33" s="30" t="n">
+      <c r="X33" s="31" t="n">
         <f aca="false">-SIN(V32)</f>
         <v>0.190808995376545</v>
       </c>
-      <c r="Y33" s="30" t="n">
+      <c r="Y33" s="31" t="n">
         <f aca="false">COS(V32)*SIN(V31)</f>
         <v>0.948179048279496</v>
       </c>
-      <c r="Z33" s="31" t="n">
+      <c r="Z33" s="32" t="n">
         <f aca="false">COS(V31)*COS(V32)</f>
         <v>0.254063810266601</v>
       </c>
@@ -10289,4 +8241,796 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="10" min="1" style="8" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="8" width="8.77551020408163"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="41" t="n">
+        <f aca="false">D!Q18</f>
+        <v>-0.354454791679942</v>
+      </c>
+      <c r="B1" s="41" t="n">
+        <f aca="false">D!R18</f>
+        <v>-0.0574698936594232</v>
+      </c>
+      <c r="C1" s="41" t="n">
+        <f aca="false">D!S18</f>
+        <v>0.480685980633827</v>
+      </c>
+      <c r="D1" s="41" t="n">
+        <f aca="false">D!T18</f>
+        <v>-32</v>
+      </c>
+      <c r="F1" s="42" t="n">
+        <f aca="false">C2 * D3 * B4 - D2 * C3 * B4 + D2 * B3 * C4 - B2 * D3 * C4 - C2 * B3 * D4 + B2 * C3 * D4</f>
+        <v>-0.212672875007965</v>
+      </c>
+      <c r="G1" s="42" t="n">
+        <f aca="false">D1 * C3 * B4 - C1 * D3 * B4 - D1 * B3 * C4 + B1 * D3 * C4 + C1 * B3 * D4 - B1 * C3 * D4</f>
+        <v>0.282226437478445</v>
+      </c>
+      <c r="H1" s="42" t="n">
+        <f aca="false">C1 * D2 * B4 - D1 * C2 * B4 + D1 * B2 * C4 - B1 * D2 * C4 - C1 * B2 * D4 + B1 * C2 * D4</f>
+        <v>0.0686912383355562</v>
+      </c>
+      <c r="I1" s="42" t="n">
+        <f aca="false">D1 * C2 * B3 - C1 * D2 * B3 - D1 * B2 * C3 + B1 * D2 * C3 + C1 * B2 * D3 - B1 * C2 * D3</f>
+        <v>-31.7083839341723</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="43" t="n">
+        <f aca="false">F1/$A$5</f>
+        <v>-0.984596643555393</v>
+      </c>
+      <c r="M1" s="43" t="n">
+        <f aca="false">G1/$A$5</f>
+        <v>1.30660387721502</v>
+      </c>
+      <c r="N1" s="43" t="n">
+        <f aca="false">H1/$A$5</f>
+        <v>0.318014992294241</v>
+      </c>
+      <c r="O1" s="43" t="n">
+        <f aca="false">I1/$A$5</f>
+        <v>-146.798073769316</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="41" t="n">
+        <f aca="false">D!Q19</f>
+        <v>0.470377395797408</v>
+      </c>
+      <c r="B2" s="41" t="n">
+        <f aca="false">D!R19</f>
+        <v>-0.18177334399779</v>
+      </c>
+      <c r="C2" s="41" t="n">
+        <f aca="false">D!S19</f>
+        <v>0.325120834359642</v>
+      </c>
+      <c r="D2" s="41" t="n">
+        <f aca="false">D!T19</f>
+        <v>143</v>
+      </c>
+      <c r="F2" s="42" t="n">
+        <f aca="false">D2 * C3 * A4 - C2 * D3 * A4 - D2 * A3 * C4 + A2 * D3 * C4 + C2 * A3 * D4 - A2 * C3 * D4</f>
+        <v>-0.0344819361956539</v>
+      </c>
+      <c r="G2" s="42" t="n">
+        <f aca="false">C1 * D3 * A4 - D1 * C3 * A4 + D1 * A3 * C4 - A1 * D3 * C4 - C1 * A3 * D4 + A1 * C3 * D4</f>
+        <v>-0.109064006398674</v>
+      </c>
+      <c r="H2" s="42" t="n">
+        <f aca="false">D1 * C2 * A4 - C1 * D2 * A4 - D1 * A2 * C4 + A1 * D2 * C4 + C1 * A2 * D4 - A1 * C2 * D4</f>
+        <v>0.341344457380618</v>
+      </c>
+      <c r="I2" s="42" t="n">
+        <f aca="false">C1 * D2 * A3 - D1 * C2 * A3 + D1 * A2 * C3 - A1 * D2 * C3 - C1 * A2 * D3 + A1 * C2 * D3</f>
+        <v>91.2952338673886</v>
+      </c>
+      <c r="K2" s="46"/>
+      <c r="L2" s="43" t="n">
+        <f aca="false">F2/$A$5</f>
+        <v>-0.159638593498398</v>
+      </c>
+      <c r="M2" s="43" t="n">
+        <f aca="false">G2/$A$5</f>
+        <v>-0.504925955549417</v>
+      </c>
+      <c r="N2" s="43" t="n">
+        <f aca="false">H2/$A$5</f>
+        <v>1.58029841379916</v>
+      </c>
+      <c r="O2" s="43" t="n">
+        <f aca="false">I2/$A$5</f>
+        <v>422.663119756429</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="41" t="n">
+        <f aca="false">D!Q20</f>
+        <v>0.114485397225927</v>
+      </c>
+      <c r="B3" s="41" t="n">
+        <f aca="false">D!R20</f>
+        <v>0.568907428967697</v>
+      </c>
+      <c r="C3" s="41" t="n">
+        <f aca="false">D!S20</f>
+        <v>0.152438286159961</v>
+      </c>
+      <c r="D3" s="41" t="n">
+        <f aca="false">D!T20</f>
+        <v>-225</v>
+      </c>
+      <c r="F3" s="42" t="n">
+        <f aca="false">B2 * D3 * A4 - D2 * B3 * A4 + D2 * A3 * B4 - A2 * D3 * B4 - B2 * A3 * D4 + A2 * B3 * D4</f>
+        <v>0.288411588380296</v>
+      </c>
+      <c r="G3" s="42" t="n">
+        <f aca="false">D1 * B3 * A4 - B1 * D3 * A4 - D1 * A3 * B4 + A1 * D3 * B4 + B1 * A3 * D4 - A1 * B3 * D4</f>
+        <v>0.195072500615786</v>
+      </c>
+      <c r="H3" s="42" t="n">
+        <f aca="false">B1 * D2 * A4 - D1 * B2 * A4 + D1 * A2 * B4 - A1 * D2 * B4 - B1 * A2 * D4 + A1 * B2 * D4</f>
+        <v>0.0914629716959765</v>
+      </c>
+      <c r="I3" s="42" t="n">
+        <f aca="false">D1 * B2 * A3 - B1 * D2 * A3 - D1 * A2 * B3 + A1 * D2 * B3 + B1 * A2 * D3 - A1 * B2 * D3</f>
+        <v>1.91297187170687</v>
+      </c>
+      <c r="K3" s="46"/>
+      <c r="L3" s="43" t="n">
+        <f aca="false">F3/$A$5</f>
+        <v>1.33523883509396</v>
+      </c>
+      <c r="M3" s="43" t="n">
+        <f aca="false">G3/$A$5</f>
+        <v>0.903113428776785</v>
+      </c>
+      <c r="N3" s="43" t="n">
+        <f aca="false">H3/$A$5</f>
+        <v>0.423439683777669</v>
+      </c>
+      <c r="O3" s="43" t="n">
+        <f aca="false">I3/$A$5</f>
+        <v>8.85635125790215</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="41" t="n">
+        <f aca="false">D!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="41" t="n">
+        <f aca="false">D!R21</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="41" t="n">
+        <f aca="false">D!S21</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="41" t="n">
+        <f aca="false">D!T21</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="42" t="n">
+        <f aca="false">C2 * B3 * A4 - B2 * C3 * A4 - C2 * A3 * B4 + A2 * C3 * B4 + B2 * A3 * C4 - A2 * B3 * C4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="42" t="n">
+        <f aca="false">B1 * C3 * A4 - C1 * B3 * A4 + C1 * A3 * B4 - A1 * C3 * B4 - B1 * A3 * C4 + A1 * B3 * C4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="42" t="n">
+        <f aca="false">C1 * B2 * A4 - B1 * C2 * A4 - C1 * A2 * B4 + A1 * C2 * B4 + B1 * A2 * C4 - A1 * B2 * C4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="42" t="n">
+        <f aca="false">B1 * C2 * A3 - C1 * B2 * A3 + C1 * A2 * B3 - A1 * C2 * B3 - B1 * A2 * C3 + A1 * B2 * C3</f>
+        <v>0.216</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="43" t="n">
+        <f aca="false">F4/$A$5</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="43" t="n">
+        <f aca="false">G4/$A$5</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="43" t="n">
+        <f aca="false">H4/$A$5</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="43" t="n">
+        <f aca="false">I4/$A$5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="44" t="n">
+        <f aca="false">SUM(A6:A11)</f>
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="n">
+        <f aca="false">D1 * C2 * B3 * A4 - C1 * D2 * B3 * A4 - D1 * B2 * C3 * A4 + B1 * D2 * C3 * A4</f>
+        <v>-0</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <f aca="false">CxB!K2</f>
+        <v>0.279443782524596</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <f aca="false">CxB!L2</f>
+        <v>-0.654513220356938</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <f aca="false">CxB!M2</f>
+        <v>0.109195314855247</v>
+      </c>
+      <c r="I6" s="15" t="n">
+        <f aca="false">CxB!N2</f>
+        <v>91.7321201790691</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23" t="str">
+        <f aca="false">D6&amp;" x "&amp;K11</f>
+        <v>CxB x Inv(D)</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="25" t="n">
+        <f aca="false">M11*F6+N11*F7+O11*F8+P11*F9</f>
+        <v>0.518876139448464</v>
+      </c>
+      <c r="N6" s="25" t="n">
+        <f aca="false">M11*G6+N11*G7+O11*G8+P11*G9</f>
+        <v>0.901555187383345</v>
+      </c>
+      <c r="O6" s="25" t="n">
+        <f aca="false">M11*H6+N11*H7+O11*H8+P11*H9</f>
+        <v>-0.598302428553687</v>
+      </c>
+      <c r="P6" s="25" t="n">
+        <f aca="false">M11*I6+N11*I7+O11*I8+P11*I9</f>
+        <v>-278.020306151136</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="n">
+        <f aca="false">C1 * B2 * D3 * A4 - B1 * C2 * D3 * A4 - D1 * C2 * A3 * B4 + C1 * D2 * A3 * B4</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="15" t="n">
+        <f aca="false">CxB!K3</f>
+        <v>0.502106312369551</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <f aca="false">CxB!L3</f>
+        <v>0.131106851150862</v>
+      </c>
+      <c r="H7" s="15" t="n">
+        <f aca="false">CxB!M3</f>
+        <v>-0.499099433640188</v>
+      </c>
+      <c r="I7" s="15" t="n">
+        <f aca="false">CxB!N3</f>
+        <v>70.3762836482462</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25" t="n">
+        <f aca="false">M12*F6+N12*F7+O12*F8+P12*F9</f>
+        <v>0.38742968535522</v>
+      </c>
+      <c r="N7" s="25" t="n">
+        <f aca="false">M12*G6+N12*G7+O12*G8+P12*G9</f>
+        <v>0.464742773524815</v>
+      </c>
+      <c r="O7" s="25" t="n">
+        <f aca="false">M12*H6+N12*H7+O12*H8+P12*H9</f>
+        <v>1.03629744444441</v>
+      </c>
+      <c r="P7" s="25" t="n">
+        <f aca="false">M12*I6+N12*I7+O12*I8+P12*I9</f>
+        <v>-287.71643314808</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="n">
+        <f aca="false">D1 * A2 * C3 * B4 - A1 * D2 * C3 * B4 - C1 * A2 * D3 * B4 + A1 * C2 * D3 * B4</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="15" t="n">
+        <f aca="false">CxB!K4</f>
+        <v>0.433820727359812</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <f aca="false">CxB!L4</f>
+        <v>0.269858181197636</v>
+      </c>
+      <c r="H8" s="15" t="n">
+        <f aca="false">CxB!M4</f>
+        <v>0.507322519265316</v>
+      </c>
+      <c r="I8" s="15" t="n">
+        <f aca="false">CxB!N4</f>
+        <v>-417.769674528886</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25" t="n">
+        <f aca="false">M13*F6+N13*F7+O13*F8+P13*F9</f>
+        <v>1.01028005563636</v>
+      </c>
+      <c r="N8" s="25" t="n">
+        <f aca="false">M13*G6+N13*G7+O13*G8+P13*G9</f>
+        <v>-0.64125844911287</v>
+      </c>
+      <c r="O8" s="25" t="n">
+        <f aca="false">M13*H6+N13*H7+O13*H8+P13*H9</f>
+        <v>-0.0901210886793067</v>
+      </c>
+      <c r="P8" s="25" t="n">
+        <f aca="false">M13*I6+N13*I7+O13*I8+P13*I9</f>
+        <v>17.998148502226</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="n">
+        <f aca="false">D1 * B2 * A3 * C4 - B1 * D2 * A3 * C4 - D1 * A2 * B3 * C4 + A1 * D2 * B3 * C4</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15" t="n">
+        <f aca="false">CxB!K5</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="n">
+        <f aca="false">CxB!L5</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="15" t="n">
+        <f aca="false">CxB!M5</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="15" t="n">
+        <f aca="false">CxB!N5</f>
+        <v>1</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25" t="n">
+        <f aca="false">M14*F6+N14*F7+O14*F8+P14*F9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="25" t="n">
+        <f aca="false">M14*G6+N14*G7+O14*G8+P14*G9</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="25" t="n">
+        <f aca="false">M14*H6+N14*H7+O14*H8+P14*H9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="25" t="n">
+        <f aca="false">M14*I6+N14*I7+O14*I8+P14*I9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="n">
+        <f aca="false">B1 * A2 * D3 * C4 - A1 * B2 * D3 * C4 - C1 * B2 * A3 * D4 + B1 * C2 * A3 * D4</f>
+        <v>0.00786414370678696</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+    </row>
+    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="n">
+        <f aca="false">C1 * A2 * B3 * D4 - A1 * C2 * B3 * D4 - B1 * A2 * C3 * D4 + A1 * B2 * C3 * D4</f>
+        <v>0.208135856293213</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="15" t="n">
+        <f aca="false">L1</f>
+        <v>-0.984596643555393</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <f aca="false">M1</f>
+        <v>1.30660387721502</v>
+      </c>
+      <c r="O11" s="15" t="n">
+        <f aca="false">N1</f>
+        <v>0.318014992294241</v>
+      </c>
+      <c r="P11" s="15" t="n">
+        <f aca="false">O1</f>
+        <v>-146.798073769316</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="44"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="15" t="n">
+        <f aca="false">L2</f>
+        <v>-0.159638593498398</v>
+      </c>
+      <c r="N12" s="15" t="n">
+        <f aca="false">M2</f>
+        <v>-0.504925955549417</v>
+      </c>
+      <c r="O12" s="15" t="n">
+        <f aca="false">N2</f>
+        <v>1.58029841379916</v>
+      </c>
+      <c r="P12" s="15" t="n">
+        <f aca="false">O2</f>
+        <v>422.663119756429</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="15" t="n">
+        <f aca="false">L3</f>
+        <v>1.33523883509396</v>
+      </c>
+      <c r="N13" s="15" t="n">
+        <f aca="false">M3</f>
+        <v>0.903113428776785</v>
+      </c>
+      <c r="O13" s="15" t="n">
+        <f aca="false">N3</f>
+        <v>0.423439683777669</v>
+      </c>
+      <c r="P13" s="15" t="n">
+        <f aca="false">O3</f>
+        <v>8.85635125790215</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="15" t="n">
+        <f aca="false">L4</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15" t="n">
+        <f aca="false">M4</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="15" t="n">
+        <f aca="false">N4</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="15" t="n">
+        <f aca="false">O4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="10"/>
+      <c r="M17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="15" t="n">
+        <f aca="false">M6</f>
+        <v>0.518876139448464</v>
+      </c>
+      <c r="G18" s="15" t="n">
+        <f aca="false">N6</f>
+        <v>0.901555187383345</v>
+      </c>
+      <c r="H18" s="15" t="n">
+        <f aca="false">O6</f>
+        <v>-0.598302428553687</v>
+      </c>
+      <c r="I18" s="15" t="n">
+        <f aca="false">P6</f>
+        <v>-278.020306151136</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="30" t="n">
+        <f aca="false">-I18</f>
+        <v>278.020306151136</v>
+      </c>
+      <c r="N18" s="30" t="n">
+        <f aca="false">DEGREES(ATAN2(H20,G20))</f>
+        <v>-97.9998327348337</v>
+      </c>
+      <c r="O18" s="30" t="n">
+        <f aca="false">(F18+G18+H18+F19+G19+H19+F20+G20+H20)/(T18+U18+V18+T19+U20+U19+V19+V20+T20)</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="10" t="n">
+        <f aca="false">RADIANS(N18)</f>
+        <v>-1.71041974762657</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="31" t="n">
+        <f aca="false">COS(R19)*COS(R20)</f>
+        <v>0.43239678287372</v>
+      </c>
+      <c r="U18" s="31" t="n">
+        <f aca="false">COS(R20)*SIN(R18)*SIN(R19)-COS(R18)*SIN(R20)</f>
+        <v>0.751295989486121</v>
+      </c>
+      <c r="V18" s="32" t="n">
+        <f aca="false">COS(R18)*COS(R20)*SIN(R19) + SIN(R18)*SIN(R20)</f>
+        <v>-0.498585357128072</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="15" t="n">
+        <f aca="false">M7</f>
+        <v>0.38742968535522</v>
+      </c>
+      <c r="G19" s="15" t="n">
+        <f aca="false">N7</f>
+        <v>0.464742773524815</v>
+      </c>
+      <c r="H19" s="15" t="n">
+        <f aca="false">O7</f>
+        <v>1.03629744444441</v>
+      </c>
+      <c r="I19" s="15" t="n">
+        <f aca="false">P7</f>
+        <v>-287.71643314808</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="30" t="n">
+        <f aca="false">-I19</f>
+        <v>287.71643314808</v>
+      </c>
+      <c r="N19" s="30" t="n">
+        <f aca="false">DEGREES(ATAN2(SQRT(G20*G20 + H20*H20),-F20))</f>
+        <v>-57.3413070618838</v>
+      </c>
+      <c r="O19" s="30" t="n">
+        <f aca="false">O18</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="10" t="n">
+        <f aca="false">RADIANS(N19)</f>
+        <v>-1.00079460562695</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="31" t="n">
+        <f aca="false">COS(R19)*SIN(R20)</f>
+        <v>0.32285807112935</v>
+      </c>
+      <c r="U19" s="31" t="n">
+        <f aca="false">COS(R18)*COS(R20) + SIN(R18)*SIN(R19)*SIN(R20)</f>
+        <v>0.387285644604013</v>
+      </c>
+      <c r="V19" s="32" t="n">
+        <f aca="false">-COS(R20)*SIN(R18) + COS(R18)*SIN(R19)*SIN(R20)</f>
+        <v>0.863581203703676</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="15" t="n">
+        <f aca="false">M8</f>
+        <v>1.01028005563636</v>
+      </c>
+      <c r="G20" s="15" t="n">
+        <f aca="false">N8</f>
+        <v>-0.64125844911287</v>
+      </c>
+      <c r="H20" s="15" t="n">
+        <f aca="false">O8</f>
+        <v>-0.0901210886793067</v>
+      </c>
+      <c r="I20" s="15" t="n">
+        <f aca="false">P8</f>
+        <v>17.998148502226</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="30" t="n">
+        <f aca="false">-I20</f>
+        <v>-17.998148502226</v>
+      </c>
+      <c r="N20" s="30" t="n">
+        <f aca="false">DEGREES(ATAN2(F18,F19))</f>
+        <v>36.7476246501602</v>
+      </c>
+      <c r="O20" s="30" t="n">
+        <f aca="false">O19</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="10" t="n">
+        <f aca="false">RADIANS(N20)</f>
+        <v>0.641367042432325</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="31" t="n">
+        <f aca="false">-SIN(R19)</f>
+        <v>0.841900046363636</v>
+      </c>
+      <c r="U20" s="31" t="n">
+        <f aca="false">COS(R19)*SIN(R18)</f>
+        <v>-0.534382040927392</v>
+      </c>
+      <c r="V20" s="32" t="n">
+        <f aca="false">COS(R18)*COS(R19)</f>
+        <v>-0.0751009072327556</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="15" t="n">
+        <f aca="false">M9</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <f aca="false">N9</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15" t="n">
+        <f aca="false">O9</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="15" t="n">
+        <f aca="false">P9</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -5,15 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="C ZYX" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="C" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="B ZYX" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="B" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="CxB" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="CxB ZYX" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="CxB ZYX" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="CxB" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="INVERT" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="D" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="New C" sheetId="9" state="visible" r:id="rId10"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="45">
   <si>
     <t xml:space="preserve">ZYX</t>
   </si>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">AfinC</t>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">Inv(D) = </t>
@@ -172,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -296,6 +296,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00CCFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF6600"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF00CCFF"/>
@@ -319,20 +332,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00CCFF"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF6600"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF92D050"/>
+      <color rgb="FF666666"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -397,7 +404,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF548235"/>
-        <bgColor rgb="FF808080"/>
+        <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
     <fill>
@@ -494,7 +501,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -631,36 +638,40 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -672,14 +683,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -709,7 +732,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF535353"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF404040"/>
       <rgbColor rgb="FFF2F2F2"/>
@@ -740,7 +763,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF535353"/>
+      <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF203864"/>
       <rgbColor rgb="FF548235"/>
@@ -763,7 +786,7 @@
   <dimension ref="A1:I65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1354,7 +1377,7 @@
   </sheetPr>
   <dimension ref="B6:AA60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -3878,7 +3901,7 @@
   </sheetPr>
   <dimension ref="B6:AA60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5784,15 +5807,604 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="34" t="n">
+        <f aca="false">CxB!L14</f>
+        <v>28.0096852885321</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">RADIANS(C3)</f>
+        <v>0.488861230732303</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="34" t="n">
+        <f aca="false">CxB!L15</f>
+        <v>-37.0512242426752</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">RADIANS(C4)</f>
+        <v>-0.646665854929426</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="34" t="n">
+        <f aca="false">CxB!L16</f>
+        <v>60.9021785788458</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">RADIANS(C5)</f>
+        <v>1.06294353783842</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <f aca="false">D3</f>
+        <v>0.488861230732303</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <f aca="false">COS(A8)</f>
+        <v>0.882868220689767</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <f aca="false">-SIN(A8)</f>
+        <v>-0.469620809692337</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <f aca="false">SIN(A8)</f>
+        <v>0.469620809692337</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <f aca="false">COS(A8)</f>
+        <v>0.882868220689767</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5" t="n">
+        <f aca="false">COS(A12)</f>
+        <v>0.798097149244104</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <f aca="false">SIN(A12)</f>
+        <v>-0.602528787999739</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5" t="n">
+        <f aca="false">C7*G7+D7*G8+E7*G9</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">C7*H7+D7*H8+E7*H9</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <f aca="false">C7*I7+D7*I8+E7*I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <f aca="false">D4</f>
+        <v>-0.646665854929426</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <f aca="false">C8*G7+D8*G8+E8*G9</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">C8*H7+D8*H8+E8*H9</f>
+        <v>0.882868220689767</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <f aca="false">C8*I7+D8*I8+E8*I9</f>
+        <v>-0.469620809692337</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="5" t="n">
+        <f aca="false">-SIN(A12)</f>
+        <v>0.602528787999739</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <f aca="false">COS(A12)</f>
+        <v>0.798097149244104</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="5" t="n">
+        <f aca="false">C9*G7+D9*G8+E9*G9</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">C9*H7+D9*H8+E9*H9</f>
+        <v>0.469620809692337</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <f aca="false">C9*I7+D9*I8+E9*I9</f>
+        <v>0.882868220689767</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="5" t="n">
+        <f aca="false">COS(A16)</f>
+        <v>0.486302156304015</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <f aca="false">-SIN(A16)</f>
+        <v>-0.873790714515819</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="5" t="n">
+        <f aca="false">C11*G11+D11*G12+E11*G13</f>
+        <v>0.798097149244104</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">C11*H11+D11*H12+E11*H13</f>
+        <v>-0.28296005728338</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <f aca="false">C11*I11+D11*I12+E11*I13</f>
+        <v>-0.531953518975691</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <f aca="false">D5</f>
+        <v>1.06294353783842</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <f aca="false">SIN(A16)</f>
+        <v>0.873790714515819</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <f aca="false">COS(A16)</f>
+        <v>0.486302156304015</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <f aca="false">C12*G11+D12*G12+E12*G13</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">C12*H11+D12*H12+E12*H13</f>
+        <v>0.882868220689767</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <f aca="false">C12*I11+D12*I12+E12*I13</f>
+        <v>-0.469620809692337</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5" t="n">
+        <f aca="false">C13*G11+D13*G12+E13*G13</f>
+        <v>0.602528787999739</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <f aca="false">C13*H11+D13*H12+E13*H13</f>
+        <v>0.374803029441162</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <f aca="false">C13*I11+D13*I12+E13*I13</f>
+        <v>0.704614610090717</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="5" t="n">
+        <f aca="false">C15*G15+D15*G16+E15*G17</f>
+        <v>0.388116364617495</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <f aca="false">C15*H15+D15*H16+E15*H17</f>
+        <v>-0.909046139384636</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <f aca="false">C15*I15+D15*I16+E15*I17</f>
+        <v>0.151660159521177</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="5" t="n">
+        <f aca="false">C16*G15+D16*G16+E16*G17</f>
+        <v>0.697369878291044</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">C16*H15+D16*H16+E16*H17</f>
+        <v>0.182092848820641</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <f aca="false">C16*I15+D16*I16+E16*I17</f>
+        <v>-0.693193657833594</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="5" t="n">
+        <f aca="false">C17*G15+D17*G16+E17*G17</f>
+        <v>0.602528787999739</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <f aca="false">C17*H15+D17*H16+E17*H17</f>
+        <v>0.374803029441162</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <f aca="false">C17*I15+D17*I16+E17*I17</f>
+        <v>0.704614610090717</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="35" t="n">
+        <f aca="false">DEGREES(D26)</f>
+        <v>44.5318687002948</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <f aca="false">ATAN2(I21,-I20)</f>
+        <v>0.777227730885953</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="35" t="n">
+        <f aca="false">DEGREES(D27)</f>
+        <v>8.72314750064126</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <f aca="false">ATAN2(I21*COS(D26)-I20*SIN(D26),I19)</f>
+        <v>0.152247645023304</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="35" t="n">
+        <f aca="false">DEGREES(D28)</f>
+        <v>66.8799880381377</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <f aca="false">ATAN2(H20*COS(D26)+H21*SIN(D26),G20*COS(D26)+G21*SIN(D26))</f>
+        <v>1.16727599495993</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:T19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.7"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="34" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="36" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6101,7 +6713,7 @@
     </row>
     <row r="14" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>16</v>
@@ -6131,7 +6743,7 @@
         <f aca="false">-G14</f>
         <v>-91.7321201790691</v>
       </c>
-      <c r="L14" s="35" t="n">
+      <c r="L14" s="37" t="n">
         <f aca="false">DEGREES(ATAN2(F16,E16))</f>
         <v>28.0096852885321</v>
       </c>
@@ -6187,7 +6799,7 @@
         <f aca="false">-G15</f>
         <v>-70.3762836482462</v>
       </c>
-      <c r="L15" s="35" t="n">
+      <c r="L15" s="37" t="n">
         <f aca="false">DEGREES(ATAN2(SQRT(E16*E16 + F16*F16),-D16))</f>
         <v>-37.0512242426752</v>
       </c>
@@ -6243,7 +6855,7 @@
         <f aca="false">-G16</f>
         <v>417.769674528886</v>
       </c>
-      <c r="L16" s="35" t="n">
+      <c r="L16" s="37" t="n">
         <f aca="false">DEGREES(ATAN2(D14,D15))</f>
         <v>60.9021785788458</v>
       </c>
@@ -6293,28 +6905,28 @@
       <c r="H17" s="7"/>
       <c r="I17" s="10"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37" t="n">
+      <c r="K17" s="38"/>
+      <c r="L17" s="39" t="n">
         <f aca="false">'CxB ZYX'!C26</f>
         <v>44.5318687002948</v>
       </c>
-      <c r="M17" s="36"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K18" s="36"/>
-      <c r="L18" s="37" t="n">
+      <c r="K18" s="38"/>
+      <c r="L18" s="39" t="n">
         <f aca="false">'CxB ZYX'!C27</f>
         <v>8.72314750064126</v>
       </c>
-      <c r="M18" s="38"/>
+      <c r="M18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="27.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K19" s="36"/>
-      <c r="L19" s="37" t="n">
+      <c r="K19" s="38"/>
+      <c r="L19" s="39" t="n">
         <f aca="false">'CxB ZYX'!C28</f>
         <v>66.8799880381377</v>
       </c>
-      <c r="M19" s="38"/>
+      <c r="M19" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6338,835 +6950,254 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I28"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="39" t="n">
-        <f aca="false">CxB!L14</f>
-        <v>28.0096852885321</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <f aca="false">RADIANS(C3)</f>
-        <v>0.488861230732303</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="39" t="n">
-        <f aca="false">CxB!L15</f>
-        <v>-37.0512242426752</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <f aca="false">RADIANS(C4)</f>
-        <v>-0.646665854929426</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="39" t="n">
-        <f aca="false">CxB!L16</f>
-        <v>60.9021785788458</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <f aca="false">RADIANS(C5)</f>
-        <v>1.06294353783842</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <f aca="false">D3</f>
-        <v>0.488861230732303</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <f aca="false">COS(A8)</f>
-        <v>0.882868220689767</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <f aca="false">-SIN(A8)</f>
-        <v>-0.469620809692337</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <f aca="false">SIN(A8)</f>
-        <v>0.469620809692337</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <f aca="false">COS(A8)</f>
-        <v>0.882868220689767</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="5" t="n">
-        <f aca="false">COS(A12)</f>
-        <v>0.798097149244104</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <f aca="false">SIN(A12)</f>
-        <v>-0.602528787999739</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="5" t="n">
-        <f aca="false">C7*G7+D7*G8+E7*G9</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">C7*H7+D7*H8+E7*H9</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <f aca="false">C7*I7+D7*I8+E7*I9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <f aca="false">D4</f>
-        <v>-0.646665854929426</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <f aca="false">C8*G7+D8*G8+E8*G9</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">C8*H7+D8*H8+E8*H9</f>
-        <v>0.882868220689767</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <f aca="false">C8*I7+D8*I8+E8*I9</f>
-        <v>-0.469620809692337</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="5" t="n">
-        <f aca="false">-SIN(A12)</f>
-        <v>0.602528787999739</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <f aca="false">COS(A12)</f>
-        <v>0.798097149244104</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="5" t="n">
-        <f aca="false">C9*G7+D9*G8+E9*G9</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <f aca="false">C9*H7+D9*H8+E9*H9</f>
-        <v>0.469620809692337</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <f aca="false">C9*I7+D9*I8+E9*I9</f>
-        <v>0.882868220689767</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="5" t="n">
-        <f aca="false">COS(A16)</f>
-        <v>0.486302156304015</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <f aca="false">-SIN(A16)</f>
-        <v>-0.873790714515819</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="5" t="n">
-        <f aca="false">C11*G11+D11*G12+E11*G13</f>
-        <v>0.798097149244104</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <f aca="false">C11*H11+D11*H12+E11*H13</f>
-        <v>-0.28296005728338</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <f aca="false">C11*I11+D11*I12+E11*I13</f>
-        <v>-0.531953518975691</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <f aca="false">D5</f>
-        <v>1.06294353783842</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <f aca="false">SIN(A16)</f>
-        <v>0.873790714515819</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <f aca="false">COS(A16)</f>
-        <v>0.486302156304015</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <f aca="false">C12*G11+D12*G12+E12*G13</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <f aca="false">C12*H11+D12*H12+E12*H13</f>
-        <v>0.882868220689767</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <f aca="false">C12*I11+D12*I12+E12*I13</f>
-        <v>-0.469620809692337</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="5" t="n">
-        <f aca="false">C13*G11+D13*G12+E13*G13</f>
-        <v>0.602528787999739</v>
-      </c>
-      <c r="H17" s="5" t="n">
-        <f aca="false">C13*H11+D13*H12+E13*H13</f>
-        <v>0.374803029441162</v>
-      </c>
-      <c r="I17" s="5" t="n">
-        <f aca="false">C13*I11+D13*I12+E13*I13</f>
-        <v>0.704614610090717</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="5" t="n">
-        <f aca="false">C15*G15+D15*G16+E15*G17</f>
-        <v>0.388116364617495</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <f aca="false">C15*H15+D15*H16+E15*H17</f>
-        <v>-0.909046139384636</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <f aca="false">C15*I15+D15*I16+E15*I17</f>
-        <v>0.151660159521177</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="5" t="n">
-        <f aca="false">C16*G15+D16*G16+E16*G17</f>
-        <v>0.697369878291044</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <f aca="false">C16*H15+D16*H16+E16*H17</f>
-        <v>0.182092848820641</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <f aca="false">C16*I15+D16*I16+E16*I17</f>
-        <v>-0.693193657833594</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="5" t="n">
-        <f aca="false">C17*G15+D17*G16+E17*G17</f>
-        <v>0.602528787999739</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <f aca="false">C17*H15+D17*H16+E17*H17</f>
-        <v>0.374803029441162</v>
-      </c>
-      <c r="I21" s="5" t="n">
-        <f aca="false">C17*I15+D17*I16+E17*I17</f>
-        <v>0.704614610090717</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="40" t="n">
-        <f aca="false">DEGREES(D26)</f>
-        <v>44.5318687002948</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <f aca="false">ATAN2(I21,-I20)</f>
-        <v>0.777227730885953</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="40" t="n">
-        <f aca="false">DEGREES(D27)</f>
-        <v>8.72314750064126</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <f aca="false">ATAN2(I21*COS(D26)-I20*SIN(D26),I19)</f>
-        <v>0.152247645023304</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="40" t="n">
-        <f aca="false">DEGREES(D28)</f>
-        <v>66.8799880381377</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <f aca="false">ATAN2(H20*COS(D26)+H21*SIN(D26),G20*COS(D26)+G21*SIN(D26))</f>
-        <v>1.16727599495993</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="8" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="8" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="11.8418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="8" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="8" width="11.8418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="8" width="8.77551020408163"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="41" t="n">
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="C1" s="41" t="n">
+      <c r="D2" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="D1" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F1" s="42" t="n">
+      <c r="E2" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="42" t="str">
+        <f aca="false">"Adj("&amp;A2&amp;")  = "</f>
+        <v>Adj(A)  = </v>
+      </c>
+      <c r="G2" s="43" t="n">
+        <f aca="false">D3 * E4 * C5 - E3 * D4 * C5 + E3 * C4 * D5 - C3 * E4 * D5 - D3 * C4 * E5 + C3 * D4 * E5</f>
+        <v>117</v>
+      </c>
+      <c r="H2" s="43" t="n">
+        <f aca="false">E2 * D4 * C5 - D2 * E4 * C5 - E2 * C4 * D5 + C2 * E4 * D5 + D2 * C4 * E5 - C2 * D4 * E5</f>
+        <v>-12</v>
+      </c>
+      <c r="I2" s="43" t="n">
+        <f aca="false">D2 * E3 * C5 - E2 * D3 * C5 + E2 * C3 * D5 - C2 * E3 * D5 - D2 * C3 * E5 + C2 * D3 * E5</f>
+        <v>-60</v>
+      </c>
+      <c r="J2" s="43" t="n">
+        <f aca="false">E2 * D3 * C4 - D2 * E3 * C4 - E2 * C3 * D4 + C2 * E3 * D4 + D2 * C3 * E4 - C2 * D3 * E4</f>
+        <v>27</v>
+      </c>
+      <c r="K2" s="42" t="str">
+        <f aca="false">"Inv("&amp;A2&amp;")  = "</f>
+        <v>Inv(A)  = </v>
+      </c>
+      <c r="L2" s="44" t="n">
+        <f aca="false">G2/$C$6</f>
+        <v>-1.21875</v>
+      </c>
+      <c r="M2" s="44" t="n">
+        <f aca="false">H2/$C$6</f>
+        <v>0.125</v>
+      </c>
+      <c r="N2" s="44" t="n">
+        <f aca="false">I2/$C$6</f>
+        <v>0.625</v>
+      </c>
+      <c r="O2" s="44" t="n">
+        <f aca="false">J2/$C$6</f>
+        <v>-0.28125</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="43" t="n">
+        <f aca="false">E3 * D4 * B5 - D3 * E4 * B5 - E3 * B4 * D5 + B3 * E4 * D5 + D3 * B4 * E5 - B3 * D4 * E5</f>
+        <v>-82</v>
+      </c>
+      <c r="H3" s="43" t="n">
+        <f aca="false">D2 * E4 * B5 - E2 * D4 * B5 + E2 * B4 * D5 - B2 * E4 * D5 - D2 * B4 * E5 + B2 * D4 * E5</f>
+        <v>24</v>
+      </c>
+      <c r="I3" s="43" t="n">
+        <f aca="false">E2 * D3 * B5 - D2 * E3 * B5 - E2 * B3 * D5 + B2 * E3 * D5 + D2 * B3 * E5 - B2 * D3 * E5</f>
+        <v>24</v>
+      </c>
+      <c r="J3" s="43" t="n">
+        <f aca="false">D2 * E3 * B4 - E2 * D3 * B4 + E2 * B3 * D4 - B2 * E3 * D4 - D2 * B3 * E4 + B2 * D3 * E4</f>
+        <v>-14</v>
+      </c>
+      <c r="L3" s="44" t="n">
+        <f aca="false">G3/$C$6</f>
+        <v>0.854166666666667</v>
+      </c>
+      <c r="M3" s="44" t="n">
+        <f aca="false">H3/$C$6</f>
+        <v>-0.25</v>
+      </c>
+      <c r="N3" s="44" t="n">
+        <f aca="false">I3/$C$6</f>
+        <v>-0.25</v>
+      </c>
+      <c r="O3" s="44" t="n">
+        <f aca="false">J3/$C$6</f>
+        <v>0.145833333333333</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="41" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" s="41" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="41" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="43" t="n">
+        <f aca="false">C3 * E4 * B5 - E3 * C4 * B5 + E3 * B4 * C5 - B3 * E4 * C5 - C3 * B4 * E5 + B3 * C4 * E5</f>
+        <v>-27</v>
+      </c>
+      <c r="H4" s="43" t="n">
+        <f aca="false">E2 * C4 * B5 - C2 * E4 * B5 - E2 * B4 * C5 + B2 * E4 * C5 + C2 * B4 * E5 - B2 * C4 * E5</f>
+        <v>-12</v>
+      </c>
+      <c r="I4" s="43" t="n">
+        <f aca="false">C2 * E3 * B5 - E2 * C3 * B5 + E2 * B3 * C5 - B2 * E3 * C5 - C2 * B3 * E5 + B2 * C3 * E5</f>
+        <v>36</v>
+      </c>
+      <c r="J4" s="43" t="n">
+        <f aca="false">E2 * C3 * B4 - C2 * E3 * B4 - E2 * B3 * C4 + B2 * E3 * C4 + C2 * B3 * E4 - B2 * C3 * E4</f>
+        <v>-21</v>
+      </c>
+      <c r="L4" s="44" t="n">
+        <f aca="false">G4/$C$6</f>
+        <v>0.28125</v>
+      </c>
+      <c r="M4" s="44" t="n">
+        <f aca="false">H4/$C$6</f>
+        <v>0.125</v>
+      </c>
+      <c r="N4" s="44" t="n">
+        <f aca="false">I4/$C$6</f>
+        <v>-0.375</v>
+      </c>
+      <c r="O4" s="44" t="n">
+        <f aca="false">J4/$C$6</f>
+        <v>0.21875</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="41" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" s="41" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" s="41" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="43" t="n">
+        <f aca="false">D3 * C4 * B5 - C3 * D4 * B5 - D3 * B4 * C5 + B3 * D4 * C5 + C3 * B4 * D5 - B3 * C4 * D5</f>
+        <v>32</v>
+      </c>
+      <c r="H5" s="43" t="n">
+        <f aca="false">C2 * D4 * B5 - D2 * C4 * B5 + D2 * B4 * C5 - B2 * D4 * C5 - C2 * B4 * D5 + B2 * C4 * D5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="43" t="n">
+        <f aca="false">D2 * C3 * B5 - C2 * D3 * B5 - D2 * B3 * C5 + B2 * D3 * C5 + C2 * B3 * D5 - B2 * C3 * D5</f>
+        <v>-96</v>
+      </c>
+      <c r="J5" s="43" t="n">
         <f aca="false">C2 * D3 * B4 - D2 * C3 * B4 + D2 * B3 * C4 - B2 * D3 * C4 - C2 * B3 * D4 + B2 * C3 * D4</f>
-        <v>117</v>
-      </c>
-      <c r="G1" s="42" t="n">
-        <f aca="false">D1 * C3 * B4 - C1 * D3 * B4 - D1 * B3 * C4 + B1 * D3 * C4 + C1 * B3 * D4 - B1 * C3 * D4</f>
-        <v>-12</v>
-      </c>
-      <c r="H1" s="42" t="n">
-        <f aca="false">C1 * D2 * B4 - D1 * C2 * B4 + D1 * B2 * C4 - B1 * D2 * C4 - C1 * B2 * D4 + B1 * C2 * D4</f>
-        <v>-60</v>
-      </c>
-      <c r="I1" s="42" t="n">
-        <f aca="false">D1 * C2 * B3 - C1 * D2 * B3 - D1 * B2 * C3 + B1 * D2 * C3 + C1 * B2 * D3 - B1 * C2 * D3</f>
-        <v>27</v>
-      </c>
-      <c r="K1" s="43" t="n">
-        <f aca="false">F1/$A$5</f>
-        <v>-1.21875</v>
-      </c>
-      <c r="L1" s="43" t="n">
-        <f aca="false">G1/$A$5</f>
-        <v>0.125</v>
-      </c>
-      <c r="M1" s="43" t="n">
-        <f aca="false">H1/$A$5</f>
-        <v>0.625</v>
-      </c>
-      <c r="N1" s="43" t="n">
-        <f aca="false">I1/$A$5</f>
-        <v>-0.28125</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="41" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" s="42" t="n">
-        <f aca="false">D2 * C3 * A4 - C2 * D3 * A4 - D2 * A3 * C4 + A2 * D3 * C4 + C2 * A3 * D4 - A2 * C3 * D4</f>
-        <v>-82</v>
-      </c>
-      <c r="G2" s="42" t="n">
-        <f aca="false">C1 * D3 * A4 - D1 * C3 * A4 + D1 * A3 * C4 - A1 * D3 * C4 - C1 * A3 * D4 + A1 * C3 * D4</f>
-        <v>24</v>
-      </c>
-      <c r="H2" s="42" t="n">
-        <f aca="false">D1 * C2 * A4 - C1 * D2 * A4 - D1 * A2 * C4 + A1 * D2 * C4 + C1 * A2 * D4 - A1 * C2 * D4</f>
-        <v>24</v>
-      </c>
-      <c r="I2" s="42" t="n">
-        <f aca="false">C1 * D2 * A3 - D1 * C2 * A3 + D1 * A2 * C3 - A1 * D2 * C3 - C1 * A2 * D3 + A1 * C2 * D3</f>
-        <v>-14</v>
-      </c>
-      <c r="K2" s="43" t="n">
-        <f aca="false">F2/$A$5</f>
-        <v>0.854166666666667</v>
-      </c>
-      <c r="L2" s="43" t="n">
-        <f aca="false">G2/$A$5</f>
-        <v>-0.25</v>
-      </c>
-      <c r="M2" s="43" t="n">
-        <f aca="false">H2/$A$5</f>
-        <v>-0.25</v>
-      </c>
-      <c r="N2" s="43" t="n">
-        <f aca="false">I2/$A$5</f>
-        <v>0.145833333333333</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="n">
-        <v>9</v>
-      </c>
-      <c r="B3" s="41" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" s="41" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="42" t="n">
-        <f aca="false">B2 * D3 * A4 - D2 * B3 * A4 + D2 * A3 * B4 - A2 * D3 * B4 - B2 * A3 * D4 + A2 * B3 * D4</f>
-        <v>-27</v>
-      </c>
-      <c r="G3" s="42" t="n">
-        <f aca="false">D1 * B3 * A4 - B1 * D3 * A4 - D1 * A3 * B4 + A1 * D3 * B4 + B1 * A3 * D4 - A1 * B3 * D4</f>
-        <v>-12</v>
-      </c>
-      <c r="H3" s="42" t="n">
-        <f aca="false">B1 * D2 * A4 - D1 * B2 * A4 + D1 * A2 * B4 - A1 * D2 * B4 - B1 * A2 * D4 + A1 * B2 * D4</f>
-        <v>36</v>
-      </c>
-      <c r="I3" s="42" t="n">
-        <f aca="false">D1 * B2 * A3 - B1 * D2 * A3 - D1 * A2 * B3 + A1 * D2 * B3 + B1 * A2 * D3 - A1 * B2 * D3</f>
-        <v>-21</v>
-      </c>
-      <c r="K3" s="43" t="n">
-        <f aca="false">F3/$A$5</f>
-        <v>0.28125</v>
-      </c>
-      <c r="L3" s="43" t="n">
-        <f aca="false">G3/$A$5</f>
-        <v>0.125</v>
-      </c>
-      <c r="M3" s="43" t="n">
-        <f aca="false">H3/$A$5</f>
-        <v>-0.375</v>
-      </c>
-      <c r="N3" s="43" t="n">
-        <f aca="false">I3/$A$5</f>
-        <v>0.21875</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="41" t="n">
-        <v>13</v>
-      </c>
-      <c r="B4" s="41" t="n">
-        <v>14</v>
-      </c>
-      <c r="C4" s="41" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="42" t="n">
-        <f aca="false">C2 * B3 * A4 - B2 * C3 * A4 - C2 * A3 * B4 + A2 * C3 * B4 + B2 * A3 * C4 - A2 * B3 * C4</f>
-        <v>32</v>
-      </c>
-      <c r="G4" s="42" t="n">
-        <f aca="false">B1 * C3 * A4 - C1 * B3 * A4 + C1 * A3 * B4 - A1 * C3 * B4 - B1 * A3 * C4 + A1 * B3 * C4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="42" t="n">
-        <f aca="false">C1 * B2 * A4 - B1 * C2 * A4 - C1 * A2 * B4 + A1 * C2 * B4 + B1 * A2 * C4 - A1 * B2 * C4</f>
+        <v>64</v>
+      </c>
+      <c r="L5" s="44" t="n">
+        <f aca="false">G5/$C$6</f>
+        <v>-0.333333333333333</v>
+      </c>
+      <c r="M5" s="44" t="n">
+        <f aca="false">H5/$C$6</f>
+        <v>-0</v>
+      </c>
+      <c r="N5" s="44" t="n">
+        <f aca="false">I5/$C$6</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="44" t="n">
+        <f aca="false">J5/$C$6</f>
+        <v>-0.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="45" t="str">
+        <f aca="false">"|"&amp;A2&amp;"| = "</f>
+        <v>|A| = </v>
+      </c>
+      <c r="C6" s="46" t="n">
+        <f aca="false">SUM(D6:I6)</f>
         <v>-96</v>
       </c>
-      <c r="I4" s="42" t="n">
-        <f aca="false">B1 * C2 * A3 - C1 * B2 * A3 + C1 * A2 * B3 - A1 * C2 * B3 - B1 * A2 * C3 + A1 * B2 * C3</f>
-        <v>64</v>
-      </c>
-      <c r="K4" s="43" t="n">
-        <f aca="false">F4/$A$5</f>
-        <v>-0.333333333333333</v>
-      </c>
-      <c r="L4" s="43" t="n">
-        <f aca="false">G4/$A$5</f>
-        <v>-0</v>
-      </c>
-      <c r="M4" s="43" t="n">
-        <f aca="false">H4/$A$5</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="43" t="n">
-        <f aca="false">I4/$A$5</f>
-        <v>-0.666666666666667</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="n">
-        <f aca="false">SUM(A6:A11)</f>
-        <v>-96</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
-        <f aca="false">D1 * C2 * B3 * A4 - C1 * D2 * B3 * A4 - D1 * B2 * C3 * A4 + B1 * D2 * C3 * A4</f>
+      <c r="D6" s="47" t="n">
+        <f aca="false">D2 * C3 * E4 * B5 - C2 * D3 * E4 * B5 - E2 * D3 * B4 * C5 + D2 * E3 * B4 * C5</f>
+        <v>-590</v>
+      </c>
+      <c r="E6" s="47" t="n">
+        <f aca="false">E2 * B3 * D4 * C5 - B2 * E3 * D4 * C5 - D2 * B3 * E4 * C5 + B2 * D3 * E4 * C5</f>
+        <v>56</v>
+      </c>
+      <c r="F6" s="47" t="n">
+        <f aca="false">E2 * C3 * B4 * D5 - C2 * E3 * B4 * D5 - E2 * B3 * C4 * D5 + B2 * E3 * C4 * D5</f>
+        <v>-405</v>
+      </c>
+      <c r="G6" s="47" t="n">
+        <f aca="false">C2 * B3 * E4 * D5 - B2 * C3 * E4 * D5 - D2 * C3 * B4 * E5 + C2 * D3 * B4 * E5</f>
+        <v>207</v>
+      </c>
+      <c r="H6" s="47" t="n">
+        <f aca="false">D2 * B3 * C4 * E5 - B2 * D3 * C4 * E5 - C2 * B3 * D4 * E5 + B2 * C3 * D4 * E5</f>
+        <v>-53</v>
+      </c>
+      <c r="I6" s="47" t="n">
+        <f aca="false">E2 * D3 * C4 * B5 - D2 * E3 * C4 * B5 - E2 * C3 * D4 * B5 + C2 * E3 * D4 * B5</f>
         <v>689</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
-        <f aca="false">C1 * B2 * D3 * A4 - B1 * C2 * D3 * A4 - D1 * C2 * A3 * B4 + C1 * D2 * A3 * B4</f>
-        <v>-590</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
-        <f aca="false">D1 * A2 * C3 * B4 - A1 * D2 * C3 * B4 - C1 * A2 * D3 * B4 + A1 * C2 * D3 * B4</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
-        <f aca="false">D1 * B2 * A3 * C4 - B1 * D2 * A3 * C4 - D1 * A2 * B3 * C4 + A1 * D2 * B3 * C4</f>
-        <v>-405</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
-        <f aca="false">B1 * A2 * D3 * C4 - A1 * B2 * D3 * C4 - C1 * B2 * A3 * D4 + B1 * C2 * A3 * D4</f>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
-        <f aca="false">C1 * A2 * B3 * D4 - A1 * C2 * B3 * D4 - B1 * A2 * C3 * D4 + A1 * B2 * C3 * D4</f>
-        <v>-53</v>
       </c>
     </row>
   </sheetData>
@@ -7187,7 +7218,7 @@
   </sheetPr>
   <dimension ref="B6:AA34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S31" activeCellId="0" sqref="S31"/>
     </sheetView>
   </sheetViews>
@@ -7306,7 +7337,7 @@
       <c r="W8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="45"/>
+      <c r="E9" s="48"/>
       <c r="H9" s="12"/>
       <c r="I9" s="13"/>
       <c r="J9" s="14" t="n">
@@ -8278,38 +8309,38 @@
         <f aca="false">D!T18</f>
         <v>-32</v>
       </c>
-      <c r="F1" s="42" t="n">
+      <c r="F1" s="43" t="n">
         <f aca="false">C2 * D3 * B4 - D2 * C3 * B4 + D2 * B3 * C4 - B2 * D3 * C4 - C2 * B3 * D4 + B2 * C3 * D4</f>
         <v>-0.212672875007965</v>
       </c>
-      <c r="G1" s="42" t="n">
+      <c r="G1" s="43" t="n">
         <f aca="false">D1 * C3 * B4 - C1 * D3 * B4 - D1 * B3 * C4 + B1 * D3 * C4 + C1 * B3 * D4 - B1 * C3 * D4</f>
         <v>0.282226437478445</v>
       </c>
-      <c r="H1" s="42" t="n">
+      <c r="H1" s="43" t="n">
         <f aca="false">C1 * D2 * B4 - D1 * C2 * B4 + D1 * B2 * C4 - B1 * D2 * C4 - C1 * B2 * D4 + B1 * C2 * D4</f>
         <v>0.0686912383355562</v>
       </c>
-      <c r="I1" s="42" t="n">
+      <c r="I1" s="43" t="n">
         <f aca="false">D1 * C2 * B3 - C1 * D2 * B3 - D1 * B2 * C3 + B1 * D2 * C3 + C1 * B2 * D3 - B1 * C2 * D3</f>
         <v>-31.7083839341723</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="43" t="n">
+      <c r="L1" s="44" t="n">
         <f aca="false">F1/$A$5</f>
         <v>-0.984596643555393</v>
       </c>
-      <c r="M1" s="43" t="n">
+      <c r="M1" s="44" t="n">
         <f aca="false">G1/$A$5</f>
         <v>1.30660387721502</v>
       </c>
-      <c r="N1" s="43" t="n">
+      <c r="N1" s="44" t="n">
         <f aca="false">H1/$A$5</f>
         <v>0.318014992294241</v>
       </c>
-      <c r="O1" s="43" t="n">
+      <c r="O1" s="44" t="n">
         <f aca="false">I1/$A$5</f>
         <v>-146.798073769316</v>
       </c>
@@ -8331,36 +8362,36 @@
         <f aca="false">D!T19</f>
         <v>143</v>
       </c>
-      <c r="F2" s="42" t="n">
+      <c r="F2" s="43" t="n">
         <f aca="false">D2 * C3 * A4 - C2 * D3 * A4 - D2 * A3 * C4 + A2 * D3 * C4 + C2 * A3 * D4 - A2 * C3 * D4</f>
         <v>-0.0344819361956539</v>
       </c>
-      <c r="G2" s="42" t="n">
+      <c r="G2" s="43" t="n">
         <f aca="false">C1 * D3 * A4 - D1 * C3 * A4 + D1 * A3 * C4 - A1 * D3 * C4 - C1 * A3 * D4 + A1 * C3 * D4</f>
         <v>-0.109064006398674</v>
       </c>
-      <c r="H2" s="42" t="n">
+      <c r="H2" s="43" t="n">
         <f aca="false">D1 * C2 * A4 - C1 * D2 * A4 - D1 * A2 * C4 + A1 * D2 * C4 + C1 * A2 * D4 - A1 * C2 * D4</f>
         <v>0.341344457380618</v>
       </c>
-      <c r="I2" s="42" t="n">
+      <c r="I2" s="43" t="n">
         <f aca="false">C1 * D2 * A3 - D1 * C2 * A3 + D1 * A2 * C3 - A1 * D2 * C3 - C1 * A2 * D3 + A1 * C2 * D3</f>
         <v>91.2952338673886</v>
       </c>
-      <c r="K2" s="46"/>
-      <c r="L2" s="43" t="n">
+      <c r="K2" s="49"/>
+      <c r="L2" s="44" t="n">
         <f aca="false">F2/$A$5</f>
         <v>-0.159638593498398</v>
       </c>
-      <c r="M2" s="43" t="n">
+      <c r="M2" s="44" t="n">
         <f aca="false">G2/$A$5</f>
         <v>-0.504925955549417</v>
       </c>
-      <c r="N2" s="43" t="n">
+      <c r="N2" s="44" t="n">
         <f aca="false">H2/$A$5</f>
         <v>1.58029841379916</v>
       </c>
-      <c r="O2" s="43" t="n">
+      <c r="O2" s="44" t="n">
         <f aca="false">I2/$A$5</f>
         <v>422.663119756429</v>
       </c>
@@ -8382,36 +8413,36 @@
         <f aca="false">D!T20</f>
         <v>-225</v>
       </c>
-      <c r="F3" s="42" t="n">
+      <c r="F3" s="43" t="n">
         <f aca="false">B2 * D3 * A4 - D2 * B3 * A4 + D2 * A3 * B4 - A2 * D3 * B4 - B2 * A3 * D4 + A2 * B3 * D4</f>
         <v>0.288411588380296</v>
       </c>
-      <c r="G3" s="42" t="n">
+      <c r="G3" s="43" t="n">
         <f aca="false">D1 * B3 * A4 - B1 * D3 * A4 - D1 * A3 * B4 + A1 * D3 * B4 + B1 * A3 * D4 - A1 * B3 * D4</f>
         <v>0.195072500615786</v>
       </c>
-      <c r="H3" s="42" t="n">
+      <c r="H3" s="43" t="n">
         <f aca="false">B1 * D2 * A4 - D1 * B2 * A4 + D1 * A2 * B4 - A1 * D2 * B4 - B1 * A2 * D4 + A1 * B2 * D4</f>
         <v>0.0914629716959765</v>
       </c>
-      <c r="I3" s="42" t="n">
+      <c r="I3" s="43" t="n">
         <f aca="false">D1 * B2 * A3 - B1 * D2 * A3 - D1 * A2 * B3 + A1 * D2 * B3 + B1 * A2 * D3 - A1 * B2 * D3</f>
         <v>1.91297187170687</v>
       </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="43" t="n">
+      <c r="K3" s="49"/>
+      <c r="L3" s="44" t="n">
         <f aca="false">F3/$A$5</f>
         <v>1.33523883509396</v>
       </c>
-      <c r="M3" s="43" t="n">
+      <c r="M3" s="44" t="n">
         <f aca="false">G3/$A$5</f>
         <v>0.903113428776785</v>
       </c>
-      <c r="N3" s="43" t="n">
+      <c r="N3" s="44" t="n">
         <f aca="false">H3/$A$5</f>
         <v>0.423439683777669</v>
       </c>
-      <c r="O3" s="43" t="n">
+      <c r="O3" s="44" t="n">
         <f aca="false">I3/$A$5</f>
         <v>8.85635125790215</v>
       </c>
@@ -8433,42 +8464,42 @@
         <f aca="false">D!T21</f>
         <v>1</v>
       </c>
-      <c r="F4" s="42" t="n">
+      <c r="F4" s="43" t="n">
         <f aca="false">C2 * B3 * A4 - B2 * C3 * A4 - C2 * A3 * B4 + A2 * C3 * B4 + B2 * A3 * C4 - A2 * B3 * C4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="42" t="n">
+      <c r="G4" s="43" t="n">
         <f aca="false">B1 * C3 * A4 - C1 * B3 * A4 + C1 * A3 * B4 - A1 * C3 * B4 - B1 * A3 * C4 + A1 * B3 * C4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="42" t="n">
+      <c r="H4" s="43" t="n">
         <f aca="false">C1 * B2 * A4 - B1 * C2 * A4 - C1 * A2 * B4 + A1 * C2 * B4 + B1 * A2 * C4 - A1 * B2 * C4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="42" t="n">
+      <c r="I4" s="43" t="n">
         <f aca="false">B1 * C2 * A3 - C1 * B2 * A3 + C1 * A2 * B3 - A1 * C2 * B3 - B1 * A2 * C3 + A1 * B2 * C3</f>
         <v>0.216</v>
       </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="43" t="n">
+      <c r="K4" s="49"/>
+      <c r="L4" s="44" t="n">
         <f aca="false">F4/$A$5</f>
         <v>0</v>
       </c>
-      <c r="M4" s="43" t="n">
+      <c r="M4" s="44" t="n">
         <f aca="false">G4/$A$5</f>
         <v>0</v>
       </c>
-      <c r="N4" s="43" t="n">
+      <c r="N4" s="44" t="n">
         <f aca="false">H4/$A$5</f>
         <v>0</v>
       </c>
-      <c r="O4" s="43" t="n">
+      <c r="O4" s="44" t="n">
         <f aca="false">I4/$A$5</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="n">
+      <c r="A5" s="50" t="n">
         <f aca="false">SUM(A6:A11)</f>
         <v>0.216</v>
       </c>
@@ -8678,12 +8709,12 @@
         <f aca="false">C1 * A2 * B3 * D4 - A1 * C2 * B3 * D4 - B1 * A2 * C3 * D4 + A1 * B2 * C3 * D4</f>
         <v>0.208135856293213</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="7"/>
       <c r="K11" s="12" t="s">
         <v>44</v>
@@ -8709,13 +8740,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
+      <c r="A12" s="50"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="7"/>
       <c r="K12" s="12"/>
       <c r="L12" s="13"/>
@@ -8737,12 +8768,12 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="7"/>
       <c r="K13" s="12"/>
       <c r="L13" s="13"/>
@@ -8764,12 +8795,12 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="7"/>
       <c r="K14" s="12"/>
       <c r="L14" s="13"/>

--- a/Matrix.xlsx
+++ b/Matrix.xlsx
@@ -7923,7 +7923,7 @@
   <dimension ref="A6:AMK60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
